--- a/summary_last_mode_Lending_Clubl.xlsx
+++ b/summary_last_mode_Lending_Clubl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="01.好坏定义说明" sheetId="17" r:id="rId1"/>
@@ -20,25 +20,29 @@
     <sheet name="07.初步评分卡结果_02" sheetId="66" r:id="rId11"/>
     <sheet name="08.初步模型结果_02" sheetId="68" r:id="rId12"/>
     <sheet name="09.模型变量" sheetId="69" r:id="rId13"/>
+    <sheet name="10.最终模型结果_01" sheetId="71" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_A" localSheetId="8" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_A" localSheetId="10" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_A" localSheetId="11" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_A" localSheetId="12" hidden="1">[1]MODEL1!#REF!</definedName>
+    <definedName name="__123Graph_A" localSheetId="13" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_A" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_B" localSheetId="8" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_B" localSheetId="10" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_B" localSheetId="11" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_B" localSheetId="12" hidden="1">[1]MODEL1!#REF!</definedName>
+    <definedName name="__123Graph_B" localSheetId="13" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_B" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_X" localSheetId="8" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_X" localSheetId="10" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_X" localSheetId="11" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_X" localSheetId="12" hidden="1">[1]MODEL1!#REF!</definedName>
+    <definedName name="__123Graph_X" localSheetId="13" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="__123Graph_X" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'0.5.IV选入模型变量_02'!$C$2:$F$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'03.输入变量'!$B$2:$H$147</definedName>
@@ -48,11 +52,13 @@
     <definedName name="HH" localSheetId="8" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="HH" localSheetId="10" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="HH" localSheetId="11" hidden="1">[1]MODEL1!#REF!</definedName>
+    <definedName name="HH" localSheetId="13" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="HH" hidden="1">[1]MODEL1!#REF!</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="8" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="10" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="11" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="13" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="wrn.GRAPHS." localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"GRAPHS"}</definedName>
     <definedName name="wrn.GRAPHS." localSheetId="12" hidden="1">{#N/A,#N/A,FALSE,"GRAPHS"}</definedName>
@@ -63,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="615">
   <si>
     <t>WOE</t>
   </si>
@@ -3001,10 +3007,6 @@
       <t xml:space="preserve"> (2016.10 ~ 2017.03)</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
@@ -3707,22 +3709,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>SPI&gt;25%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>2017.04~ 2017.06</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>SPI&lt;0.1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1&lt;SPI&lt;0.25</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>无差异</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3732,6 +3722,26 @@
   </si>
   <si>
     <t>模型需要进一步调整</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> S</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSI</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSI&lt;0.1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1&lt;PSI&lt;0.25</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSI&gt;25%</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -15945,7 +15955,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="443">
+  <cellXfs count="454">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="103" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -16798,126 +16808,6 @@
     <xf numFmtId="180" fontId="123" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="85" borderId="13" xfId="3172" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="85" borderId="49" xfId="3172" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="85" borderId="46" xfId="3172" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="85" borderId="47" xfId="3172" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="85" borderId="57" xfId="3172" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="85" borderId="48" xfId="3172" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="85" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="106" fillId="5" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="106" fillId="5" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="68" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="68" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="4" borderId="0" xfId="3172" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="4" borderId="0" xfId="3172" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="4" borderId="0" xfId="3172" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="106" fillId="88" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="106" fillId="88" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="106" fillId="88" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="87" borderId="85" xfId="3175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="87" borderId="87" xfId="3175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="100" fillId="87" borderId="83" xfId="3175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="100" fillId="87" borderId="76" xfId="3175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="87" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="87" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="87" borderId="76" xfId="3175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="87" borderId="84" xfId="3175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="87" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="87" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="87" borderId="8" xfId="3175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="142" fillId="88" borderId="48" xfId="3177" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="142" fillId="88" borderId="51" xfId="3177" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="88" borderId="123" xfId="3176" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="88" borderId="125" xfId="3176" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="88" borderId="16" xfId="3176" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="88" borderId="50" xfId="3176" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="142" fillId="88" borderId="124" xfId="3176" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="142" fillId="88" borderId="16" xfId="3176" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="142" fillId="88" borderId="50" xfId="3176" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="145" fillId="4" borderId="0" xfId="3179" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="103" fillId="4" borderId="0" xfId="3179" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -17102,8 +16992,159 @@
     <xf numFmtId="176" fontId="123" fillId="4" borderId="94" xfId="3175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="4" borderId="0" xfId="3176" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="103" fillId="4" borderId="120" xfId="3176" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="4" borderId="98" xfId="3176" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="4" borderId="8" xfId="3176" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="4" borderId="9" xfId="3176" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="4" borderId="11" xfId="3176" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="4" borderId="94" xfId="3176" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="104" fillId="4" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="104" fillId="4" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="104" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="104" fillId="4" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="4" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="104" fillId="4" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="85" borderId="13" xfId="3172" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="85" borderId="49" xfId="3172" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="85" borderId="46" xfId="3172" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="85" borderId="47" xfId="3172" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="85" borderId="57" xfId="3172" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="85" borderId="48" xfId="3172" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="85" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="106" fillId="5" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="106" fillId="5" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="68" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="68" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="4" borderId="0" xfId="3172" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="4" borderId="0" xfId="3172" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="4" borderId="0" xfId="3172" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="106" fillId="88" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="106" fillId="88" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="106" fillId="88" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="87" borderId="85" xfId="3175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="87" borderId="87" xfId="3175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="100" fillId="87" borderId="83" xfId="3175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="100" fillId="87" borderId="76" xfId="3175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="87" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="87" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="87" borderId="76" xfId="3175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="87" borderId="84" xfId="3175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="87" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="87" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="87" borderId="8" xfId="3175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="142" fillId="88" borderId="48" xfId="3177" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="142" fillId="88" borderId="51" xfId="3177" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="88" borderId="123" xfId="3176" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="88" borderId="125" xfId="3176" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="88" borderId="16" xfId="3176" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="88" borderId="50" xfId="3176" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="142" fillId="88" borderId="124" xfId="3176" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="142" fillId="88" borderId="16" xfId="3176" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="142" fillId="88" borderId="50" xfId="3176" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3180">
@@ -21669,8 +21710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21684,7 +21725,7 @@
     <row r="1" spans="1:10" ht="9.75" customHeight="1"/>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
       <c r="B2" s="157" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1">
@@ -21698,17 +21739,17 @@
     <row r="4" spans="1:10" ht="14.25" customHeight="1">
       <c r="A4" s="161"/>
       <c r="B4" s="165" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C4" s="168">
         <v>151738</v>
       </c>
-      <c r="J4" s="368"/>
+      <c r="J4" s="328"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1">
       <c r="A5" s="161"/>
       <c r="B5" s="166" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C5" s="169">
         <v>34353</v>
@@ -21717,7 +21758,7 @@
     <row r="6" spans="1:10" ht="14.25" customHeight="1">
       <c r="A6" s="161"/>
       <c r="B6" s="166" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C6" s="169">
         <v>75</v>
@@ -21726,7 +21767,7 @@
     <row r="7" spans="1:10" ht="14.25" customHeight="1">
       <c r="A7" s="161"/>
       <c r="B7" s="166" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C7" s="169">
         <v>1324</v>
@@ -21735,7 +21776,7 @@
     <row r="8" spans="1:10" ht="14.25" customHeight="1">
       <c r="A8" s="161"/>
       <c r="B8" s="166" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C8" s="169">
         <v>1217</v>
@@ -21744,7 +21785,7 @@
     <row r="9" spans="1:10" ht="14.25" customHeight="1">
       <c r="A9" s="161"/>
       <c r="B9" s="166" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C9" s="169">
         <v>4517</v>
@@ -21756,7 +21797,7 @@
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
       <c r="A10" s="161"/>
       <c r="B10" s="167" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C10" s="170">
         <v>7101</v>
@@ -21778,36 +21819,36 @@
     <row r="12" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:10" ht="14.25" customHeight="1">
       <c r="B13" s="157" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B14" s="369" t="s">
+      <c r="B14" s="329" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="17" spans="2:8">
       <c r="B17" s="157" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="330" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="370" t="s">
-        <v>601</v>
-      </c>
-    </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="369"/>
+      <c r="B19" s="329"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="157" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="157" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -21821,7 +21862,7 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -21829,7 +21870,7 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -21837,50 +21878,50 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="H26" s="9"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="369"/>
+      <c r="B29" s="329"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="369"/>
+      <c r="B30" s="329"/>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="371"/>
+      <c r="C66" s="331"/>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="368"/>
+      <c r="C67" s="328"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="371"/>
+      <c r="C68" s="331"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="368"/>
+      <c r="C69" s="328"/>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="368"/>
+      <c r="C70" s="328"/>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="371"/>
+      <c r="C71" s="331"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="368"/>
+      <c r="C72" s="328"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="368"/>
+      <c r="C73" s="328"/>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="371"/>
+      <c r="C74" s="331"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="368"/>
+      <c r="C75" s="328"/>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="368"/>
+      <c r="C76" s="328"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -21896,7 +21937,7 @@
   <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22039,10 +22080,10 @@
   <dimension ref="B1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22210,25 +22251,25 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="265"/>
-      <c r="C8" s="385" t="s">
+      <c r="C8" s="345" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="372">
+      <c r="D8" s="332">
         <v>5</v>
       </c>
-      <c r="E8" s="372">
+      <c r="E8" s="332">
         <v>7</v>
       </c>
-      <c r="F8" s="375">
+      <c r="F8" s="335">
         <v>2.09145764735039E-2</v>
       </c>
-      <c r="G8" s="375">
+      <c r="G8" s="335">
         <v>0.21523579201934701</v>
       </c>
-      <c r="H8" s="382">
+      <c r="H8" s="342">
         <v>-1.4800310154002301</v>
       </c>
-      <c r="I8" s="386">
+      <c r="I8" s="346">
         <v>-64.844883491070107</v>
       </c>
     </row>
@@ -22284,25 +22325,25 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="265"/>
-      <c r="C11" s="385" t="s">
+      <c r="C11" s="345" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="372">
+      <c r="D11" s="332">
         <v>2</v>
       </c>
-      <c r="E11" s="372">
+      <c r="E11" s="332">
         <v>2</v>
       </c>
-      <c r="F11" s="375">
+      <c r="F11" s="335">
         <v>0.29065950462548401</v>
       </c>
-      <c r="G11" s="375">
+      <c r="G11" s="335">
         <v>7.9803710019837798E-2</v>
       </c>
-      <c r="H11" s="382">
+      <c r="H11" s="342">
         <v>-0.328663170704525</v>
       </c>
-      <c r="I11" s="386">
+      <c r="I11" s="346">
         <v>14.9118580785101</v>
       </c>
     </row>
@@ -22430,25 +22471,25 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="265"/>
-      <c r="C17" s="385" t="s">
+      <c r="C17" s="345" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="372">
+      <c r="D17" s="332">
         <v>10</v>
       </c>
-      <c r="E17" s="372" t="s">
+      <c r="E17" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="375">
+      <c r="F17" s="335">
         <v>7.5489734913433304E-2</v>
       </c>
-      <c r="G17" s="375">
+      <c r="G17" s="335">
         <v>9.2931323283081999E-2</v>
       </c>
-      <c r="H17" s="382">
+      <c r="H17" s="342">
         <v>-0.49532277705852201</v>
       </c>
-      <c r="I17" s="386">
+      <c r="I17" s="346">
         <v>14.593242496162301</v>
       </c>
     </row>
@@ -22576,25 +22617,25 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="265"/>
-      <c r="C23" s="385" t="s">
+      <c r="C23" s="345" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="372">
+      <c r="D23" s="332">
         <v>7</v>
       </c>
-      <c r="E23" s="372" t="s">
+      <c r="E23" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="375">
+      <c r="F23" s="335">
         <v>5.0392243145228499E-2</v>
       </c>
-      <c r="G23" s="375">
+      <c r="G23" s="335">
         <v>9.5352805379905606E-2</v>
       </c>
-      <c r="H23" s="376">
+      <c r="H23" s="336">
         <v>-0.52371890785041997</v>
       </c>
-      <c r="I23" s="386">
+      <c r="I23" s="346">
         <v>14.093936670510899</v>
       </c>
     </row>
@@ -22698,25 +22739,25 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="265"/>
-      <c r="C28" s="385" t="s">
+      <c r="C28" s="345" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="372">
+      <c r="D28" s="332">
         <v>4</v>
       </c>
-      <c r="E28" s="372" t="s">
+      <c r="E28" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="375">
+      <c r="F28" s="335">
         <v>1.01158773753344E-2</v>
       </c>
-      <c r="G28" s="375">
+      <c r="G28" s="335">
         <v>0.13950000000000001</v>
       </c>
-      <c r="H28" s="376">
+      <c r="H28" s="336">
         <v>-0.95423116742207004</v>
       </c>
-      <c r="I28" s="386">
+      <c r="I28" s="346">
         <v>-0.61640061946862401</v>
       </c>
     </row>
@@ -22821,25 +22862,25 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="265"/>
-      <c r="C33" s="385" t="s">
+      <c r="C33" s="345" t="s">
         <v>445</v>
       </c>
-      <c r="D33" s="372">
+      <c r="D33" s="332">
         <v>16</v>
       </c>
-      <c r="E33" s="372" t="s">
+      <c r="E33" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="375">
+      <c r="F33" s="335">
         <v>0.40950588996960102</v>
       </c>
-      <c r="G33" s="375">
+      <c r="G33" s="335">
         <v>4.5885157417585802E-2</v>
       </c>
-      <c r="H33" s="376">
+      <c r="H33" s="336">
         <v>0.26096216549309897</v>
       </c>
-      <c r="I33" s="386">
+      <c r="I33" s="346">
         <v>28.980668564577499</v>
       </c>
     </row>
@@ -22943,25 +22984,25 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="265"/>
-      <c r="C38" s="385" t="s">
+      <c r="C38" s="345" t="s">
         <v>455</v>
       </c>
-      <c r="D38" s="372">
+      <c r="D38" s="332">
         <v>25.7301</v>
       </c>
-      <c r="E38" s="372" t="s">
+      <c r="E38" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="375">
+      <c r="F38" s="335">
         <v>0.13288216520239299</v>
       </c>
-      <c r="G38" s="375">
+      <c r="G38" s="335">
         <v>7.9514311814859906E-2</v>
       </c>
-      <c r="H38" s="376">
+      <c r="H38" s="336">
         <v>-0.32471575741709902</v>
       </c>
-      <c r="I38" s="386">
+      <c r="I38" s="346">
         <v>15.625086758710999</v>
       </c>
     </row>
@@ -23065,25 +23106,25 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="265"/>
-      <c r="C43" s="385" t="s">
+      <c r="C43" s="345" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="372">
+      <c r="D43" s="332">
         <v>77</v>
       </c>
-      <c r="E43" s="372" t="s">
+      <c r="E43" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="375">
+      <c r="F43" s="335">
         <v>0.26268404574399701</v>
       </c>
-      <c r="G43" s="375">
+      <c r="G43" s="335">
         <v>7.18397997496871E-2</v>
       </c>
-      <c r="H43" s="376">
+      <c r="H43" s="336">
         <v>-0.21491447088611901</v>
       </c>
-      <c r="I43" s="386">
+      <c r="I43" s="346">
         <v>21.938659239511001</v>
       </c>
     </row>
@@ -23115,25 +23156,25 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="265"/>
-      <c r="C45" s="385" t="s">
+      <c r="C45" s="345" t="s">
         <v>457</v>
       </c>
-      <c r="D45" s="372">
+      <c r="D45" s="332">
         <v>70</v>
       </c>
-      <c r="E45" s="372" t="s">
+      <c r="E45" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="375">
+      <c r="F45" s="335">
         <v>0.47877436029720399</v>
       </c>
-      <c r="G45" s="375">
+      <c r="G45" s="335">
         <v>6.9619049631304206E-2</v>
       </c>
-      <c r="H45" s="376">
+      <c r="H45" s="336">
         <v>-0.18112428697573299</v>
       </c>
-      <c r="I45" s="386">
+      <c r="I45" s="346">
         <v>22.509203109979801</v>
       </c>
     </row>
@@ -23237,25 +23278,25 @@
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="265"/>
-      <c r="C50" s="385" t="s">
+      <c r="C50" s="345" t="s">
         <v>262</v>
       </c>
-      <c r="D50" s="372">
+      <c r="D50" s="332">
         <v>35</v>
       </c>
-      <c r="E50" s="372" t="s">
+      <c r="E50" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="375">
+      <c r="F50" s="335">
         <v>7.6521554405717396E-2</v>
       </c>
-      <c r="G50" s="375">
+      <c r="G50" s="335">
         <v>3.7477691850089201E-2</v>
       </c>
-      <c r="H50" s="376">
+      <c r="H50" s="336">
         <v>0.47213118941465998</v>
       </c>
-      <c r="I50" s="386">
+      <c r="I50" s="346">
         <v>32.604268527055503</v>
       </c>
     </row>
@@ -23287,25 +23328,25 @@
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="265"/>
-      <c r="C52" s="385" t="s">
+      <c r="C52" s="345" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="372">
+      <c r="D52" s="332">
         <v>1</v>
       </c>
-      <c r="E52" s="372" t="s">
+      <c r="E52" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="F52" s="375">
+      <c r="F52" s="335">
         <v>0.50601641799999997</v>
       </c>
-      <c r="G52" s="375">
+      <c r="G52" s="335">
         <v>6.7560273000000004E-2</v>
       </c>
-      <c r="H52" s="376">
+      <c r="H52" s="336">
         <v>-0.14889580899999999</v>
       </c>
-      <c r="I52" s="386">
+      <c r="I52" s="346">
         <v>22.309438270000001</v>
       </c>
     </row>
@@ -23412,22 +23453,22 @@
       <c r="C57" s="265" t="s">
         <v>166</v>
       </c>
-      <c r="D57" s="377">
+      <c r="D57" s="337">
         <v>338884</v>
       </c>
-      <c r="E57" s="377" t="s">
+      <c r="E57" s="337" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="380">
+      <c r="F57" s="340">
         <v>0.113560839415504</v>
       </c>
-      <c r="G57" s="380">
+      <c r="G57" s="340">
         <v>4.6276500979868102E-2</v>
       </c>
       <c r="H57" s="269">
         <v>0.25205932029474498</v>
       </c>
-      <c r="I57" s="386">
+      <c r="I57" s="346">
         <v>32.380417494634798</v>
       </c>
     </row>
@@ -23534,22 +23575,22 @@
       <c r="C62" s="265" t="s">
         <v>173</v>
       </c>
-      <c r="D62" s="372">
+      <c r="D62" s="332">
         <v>90001</v>
       </c>
-      <c r="E62" s="372" t="s">
+      <c r="E62" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="F62" s="375">
+      <c r="F62" s="335">
         <v>5.0291084371475198E-2</v>
       </c>
-      <c r="G62" s="375">
+      <c r="G62" s="335">
         <v>3.85195615005531E-2</v>
       </c>
-      <c r="H62" s="376">
+      <c r="H62" s="336">
         <v>0.44362783505255698</v>
       </c>
-      <c r="I62" s="386">
+      <c r="I62" s="346">
         <v>34.215202776533999</v>
       </c>
     </row>
@@ -23564,8 +23605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23591,37 +23632,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="347" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="387" t="s">
+      <c r="B1" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="387" t="s">
+      <c r="C1" s="347" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="387" t="s">
+      <c r="D1" s="347" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="387" t="s">
+      <c r="E1" s="347" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="387" t="s">
+      <c r="F1" s="347" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="387" t="s">
+      <c r="G1" s="347" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="387" t="s">
+      <c r="H1" s="347" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="387" t="s">
+      <c r="I1" s="347" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="387" t="s">
+      <c r="J1" s="347" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="387" t="s">
+      <c r="K1" s="347" t="s">
         <v>53</v>
       </c>
     </row>
@@ -23656,7 +23697,7 @@
       <c r="J2" s="4">
         <v>0.40730779786891591</v>
       </c>
-      <c r="K2" s="388">
+      <c r="K2" s="348">
         <v>2.7027027027027029E-2</v>
       </c>
     </row>
@@ -23691,7 +23732,7 @@
       <c r="J3" s="4">
         <v>0.40730779786891591</v>
       </c>
-      <c r="K3" s="388">
+      <c r="K3" s="348">
         <v>3.5874439461883408E-2</v>
       </c>
     </row>
@@ -23726,7 +23767,7 @@
       <c r="J4" s="4">
         <v>0.40730779786891591</v>
       </c>
-      <c r="K4" s="388">
+      <c r="K4" s="348">
         <v>7.0796460176991149E-2</v>
       </c>
     </row>
@@ -23761,7 +23802,7 @@
       <c r="J5" s="4">
         <v>0.40730779786891591</v>
       </c>
-      <c r="K5" s="388">
+      <c r="K5" s="348">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -23796,7 +23837,7 @@
       <c r="J6" s="4">
         <v>0.40730779786891591</v>
       </c>
-      <c r="K6" s="388">
+      <c r="K6" s="348">
         <v>0.11659192825112109</v>
       </c>
     </row>
@@ -23831,7 +23872,7 @@
       <c r="J7" s="4">
         <v>0.40730779786891591</v>
       </c>
-      <c r="K7" s="388">
+      <c r="K7" s="348">
         <v>0.1116279069767442</v>
       </c>
     </row>
@@ -23866,7 +23907,7 @@
       <c r="J8" s="4">
         <v>0.40730779786891591</v>
       </c>
-      <c r="K8" s="388">
+      <c r="K8" s="348">
         <v>0.1837606837606838</v>
       </c>
     </row>
@@ -23901,7 +23942,7 @@
       <c r="J9" s="4">
         <v>0.40730779786891591</v>
       </c>
-      <c r="K9" s="388">
+      <c r="K9" s="348">
         <v>0.1473214285714286</v>
       </c>
     </row>
@@ -23936,7 +23977,7 @@
       <c r="J10" s="4">
         <v>0.40730779786891591</v>
       </c>
-      <c r="K10" s="388">
+      <c r="K10" s="348">
         <v>0.1785714285714286</v>
       </c>
     </row>
@@ -23971,34 +24012,34 @@
       <c r="J11" s="4">
         <v>0.40730779786891591</v>
       </c>
-      <c r="K11" s="388">
+      <c r="K11" s="348">
         <v>0.1838565022421525</v>
       </c>
     </row>
     <row r="12" spans="1:19" hidden="1"/>
     <row r="13" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="14" spans="1:19" ht="15.75" thickTop="1">
-      <c r="A14" s="389" t="s">
+      <c r="A14" s="349" t="s">
         <v>576</v>
       </c>
-      <c r="B14" s="390"/>
-      <c r="C14" s="390"/>
-      <c r="D14" s="390"/>
-      <c r="E14" s="391"/>
-      <c r="F14" s="392"/>
-      <c r="G14" s="393"/>
-      <c r="H14" s="392"/>
-      <c r="I14" s="394"/>
-      <c r="J14" s="394"/>
-      <c r="K14" s="394"/>
-      <c r="L14" s="395"/>
-      <c r="M14" s="395"/>
-      <c r="N14" s="396" t="s">
+      <c r="B14" s="350"/>
+      <c r="C14" s="350"/>
+      <c r="D14" s="350"/>
+      <c r="E14" s="351"/>
+      <c r="F14" s="352"/>
+      <c r="G14" s="353"/>
+      <c r="H14" s="352"/>
+      <c r="I14" s="354"/>
+      <c r="J14" s="354"/>
+      <c r="K14" s="354"/>
+      <c r="L14" s="355"/>
+      <c r="M14" s="355"/>
+      <c r="N14" s="356" t="s">
         <v>84</v>
       </c>
-      <c r="O14" s="396"/>
-      <c r="P14" s="396"/>
-      <c r="Q14" s="397">
+      <c r="O14" s="356"/>
+      <c r="P14" s="356"/>
+      <c r="Q14" s="357">
         <f>Q29</f>
         <v>0.40226324974333838</v>
       </c>
@@ -24007,36 +24048,36 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A15" s="398"/>
-      <c r="B15" s="399"/>
-      <c r="C15" s="399"/>
-      <c r="D15" s="399"/>
-      <c r="E15" s="400"/>
-      <c r="F15" s="401"/>
-      <c r="G15" s="402"/>
-      <c r="H15" s="402"/>
-      <c r="I15" s="403"/>
-      <c r="J15" s="403"/>
-      <c r="K15" s="403"/>
-      <c r="L15" s="401"/>
-      <c r="M15" s="401"/>
-      <c r="N15" s="401" t="s">
+      <c r="A15" s="358"/>
+      <c r="B15" s="359"/>
+      <c r="C15" s="359"/>
+      <c r="D15" s="359"/>
+      <c r="E15" s="360"/>
+      <c r="F15" s="361"/>
+      <c r="G15" s="362"/>
+      <c r="H15" s="362"/>
+      <c r="I15" s="363"/>
+      <c r="J15" s="363"/>
+      <c r="K15" s="363"/>
+      <c r="L15" s="361"/>
+      <c r="M15" s="361"/>
+      <c r="N15" s="361" t="s">
         <v>85</v>
       </c>
-      <c r="O15" s="401"/>
-      <c r="P15" s="401"/>
-      <c r="Q15" s="404">
+      <c r="O15" s="361"/>
+      <c r="P15" s="361"/>
+      <c r="Q15" s="364">
         <f>P29</f>
         <v>0.29682205746811419</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="349" t="s">
+      <c r="A16" s="435" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="350"/>
-      <c r="C16" s="350"/>
-      <c r="D16" s="351"/>
+      <c r="B16" s="436"/>
+      <c r="C16" s="436"/>
+      <c r="D16" s="437"/>
       <c r="E16" s="76" t="s">
         <v>87</v>
       </c>
@@ -24049,31 +24090,31 @@
       <c r="H16" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="354" t="s">
+      <c r="I16" s="440" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="354"/>
-      <c r="K16" s="354"/>
-      <c r="L16" s="355" t="s">
+      <c r="J16" s="440"/>
+      <c r="K16" s="440"/>
+      <c r="L16" s="441" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="356"/>
-      <c r="N16" s="354" t="s">
+      <c r="M16" s="442"/>
+      <c r="N16" s="440" t="s">
         <v>91</v>
       </c>
-      <c r="O16" s="357"/>
-      <c r="P16" s="355" t="s">
+      <c r="O16" s="443"/>
+      <c r="P16" s="441" t="s">
         <v>92</v>
       </c>
-      <c r="Q16" s="347" t="s">
+      <c r="Q16" s="433" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="352"/>
-      <c r="B17" s="353"/>
-      <c r="C17" s="353"/>
-      <c r="D17" s="353"/>
+      <c r="A17" s="438"/>
+      <c r="B17" s="439"/>
+      <c r="C17" s="439"/>
+      <c r="D17" s="439"/>
       <c r="E17" s="80" t="s">
         <v>110</v>
       </c>
@@ -24107,8 +24148,8 @@
       <c r="O17" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="358"/>
-      <c r="Q17" s="348"/>
+      <c r="P17" s="444"/>
+      <c r="Q17" s="434"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
       <c r="A18" s="87" t="s">
@@ -24158,40 +24199,40 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickTop="1">
-      <c r="A19" s="405">
+      <c r="A19" s="365">
         <v>1</v>
       </c>
-      <c r="B19" s="406">
+      <c r="B19" s="366">
         <v>420.16297794725222</v>
       </c>
-      <c r="C19" s="407" t="s">
+      <c r="C19" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="406">
+      <c r="D19" s="366">
         <v>485.63980834602052</v>
       </c>
-      <c r="E19" s="408">
+      <c r="E19" s="368">
         <f t="shared" ref="E19:E23" si="0">SUM(F19:H19)</f>
         <v>20028</v>
       </c>
-      <c r="F19" s="409">
+      <c r="F19" s="369">
         <v>19542</v>
       </c>
-      <c r="G19" s="410">
+      <c r="G19" s="370">
         <v>257</v>
       </c>
-      <c r="H19" s="411">
+      <c r="H19" s="371">
         <v>229</v>
       </c>
-      <c r="I19" s="412">
+      <c r="I19" s="372">
         <f>SUM(E19:E$19)/E$29</f>
         <v>9.5678053953861655E-2</v>
       </c>
-      <c r="J19" s="412">
+      <c r="J19" s="372">
         <f>SUM(F19:F$19)/F$29</f>
         <v>0.10501313873320042</v>
       </c>
-      <c r="K19" s="412">
+      <c r="K19" s="372">
         <f>SUM(H19:H$19)/H$29</f>
         <v>1.9710793596143916E-2</v>
       </c>
@@ -24199,62 +24240,62 @@
         <f>H19/SUM(F19,H19)</f>
         <v>1.1582621010571038E-2</v>
       </c>
-      <c r="M19" s="413">
+      <c r="M19" s="373">
         <f>SUM(H19:H$19)/SUM(F19:F$19,H19:H$19)</f>
         <v>1.1582621010571038E-2</v>
       </c>
-      <c r="N19" s="414">
+      <c r="N19" s="374">
         <f>F19/H19</f>
         <v>85.336244541484717</v>
       </c>
-      <c r="O19" s="415">
+      <c r="O19" s="375">
         <f>SUM(F19:$G$19)/SUM(H19:$I$19)</f>
         <v>86.422407302407407</v>
       </c>
-      <c r="P19" s="416">
+      <c r="P19" s="376">
         <f>ABS(J19-K19)</f>
         <v>8.5302345137056507E-2</v>
       </c>
-      <c r="Q19" s="417">
+      <c r="Q19" s="377">
         <f>((J$28)+(J$28-J19))*((K$28)-(K$28-K19))/2</f>
         <v>1.8675847444917244E-2</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="405">
+      <c r="A20" s="365">
         <v>2</v>
       </c>
-      <c r="B20" s="406">
+      <c r="B20" s="366">
         <v>381.18415632755722</v>
       </c>
-      <c r="C20" s="407" t="s">
+      <c r="C20" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="406">
+      <c r="D20" s="366">
         <v>420.15673332028729</v>
       </c>
-      <c r="E20" s="408">
+      <c r="E20" s="368">
         <f t="shared" si="0"/>
         <v>20197</v>
       </c>
-      <c r="F20" s="409">
+      <c r="F20" s="369">
         <v>19386</v>
       </c>
-      <c r="G20" s="410">
+      <c r="G20" s="370">
         <v>426</v>
       </c>
-      <c r="H20" s="411">
+      <c r="H20" s="371">
         <v>385</v>
       </c>
-      <c r="I20" s="412">
+      <c r="I20" s="372">
         <f>SUM(E$19:E20)/E$29</f>
         <v>0.19216345717465974</v>
       </c>
-      <c r="J20" s="412">
+      <c r="J20" s="372">
         <f>SUM(F$19:F20)/F$29</f>
         <v>0.20918797792477875</v>
       </c>
-      <c r="K20" s="412">
+      <c r="K20" s="372">
         <f>SUM(H$19:H20)/H$29</f>
         <v>5.2849027371320363E-2</v>
       </c>
@@ -24262,62 +24303,62 @@
         <f t="shared" ref="L20:L29" si="1">H20/SUM(F20,H20)</f>
         <v>1.9472965454453494E-2</v>
       </c>
-      <c r="M20" s="413">
+      <c r="M20" s="373">
         <f>SUM(H$19:H20)/SUM(F$19:F20,H$19:H20)</f>
         <v>1.5527793232512266E-2</v>
       </c>
-      <c r="N20" s="414">
+      <c r="N20" s="374">
         <f>F20/H20</f>
         <v>50.353246753246751</v>
       </c>
-      <c r="O20" s="415">
+      <c r="O20" s="375">
         <f>SUM(F$19:$G20)/SUM(H$19:$I20)</f>
         <v>64.482799956707922</v>
       </c>
-      <c r="P20" s="416">
+      <c r="P20" s="376">
         <f>ABS(J20-K20)</f>
         <v>0.15633895055345839</v>
       </c>
-      <c r="Q20" s="417">
+      <c r="Q20" s="377">
         <f>((J$28-J19)+(J$28-J20))*((K$28-K19)-(K$28-K20))/2</f>
         <v>2.7932198747059645E-2</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="405">
+      <c r="A21" s="365">
         <v>3</v>
       </c>
-      <c r="B21" s="406">
+      <c r="B21" s="366">
         <v>363.49389954800409</v>
       </c>
-      <c r="C21" s="407" t="s">
+      <c r="C21" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="406">
+      <c r="D21" s="366">
         <v>381.18304928863353</v>
       </c>
-      <c r="E21" s="408">
+      <c r="E21" s="368">
         <f t="shared" si="0"/>
         <v>20380</v>
       </c>
-      <c r="F21" s="409">
+      <c r="F21" s="369">
         <v>19211</v>
       </c>
-      <c r="G21" s="410">
+      <c r="G21" s="370">
         <v>609</v>
       </c>
-      <c r="H21" s="411">
+      <c r="H21" s="371">
         <v>560</v>
       </c>
-      <c r="I21" s="412">
+      <c r="I21" s="372">
         <f>SUM(E$19:E21)/E$29</f>
         <v>0.28952309066675586</v>
       </c>
-      <c r="J21" s="412">
+      <c r="J21" s="372">
         <f>SUM(F$19:F21)/F$29</f>
         <v>0.31242241698953738</v>
       </c>
-      <c r="K21" s="412">
+      <c r="K21" s="372">
         <f>SUM(H$19:H21)/H$29</f>
         <v>0.10105009468066793</v>
       </c>
@@ -24325,62 +24366,62 @@
         <f t="shared" si="1"/>
         <v>2.8324313388295989E-2</v>
       </c>
-      <c r="M21" s="413">
+      <c r="M21" s="373">
         <f>SUM(H$19:H21)/SUM(F$19:F21,H$19:H21)</f>
         <v>1.9793299951106839E-2</v>
       </c>
-      <c r="N21" s="414">
+      <c r="N21" s="374">
         <f t="shared" ref="N21:N29" si="2">F21/H21</f>
         <v>34.30535714285714</v>
       </c>
-      <c r="O21" s="415">
+      <c r="O21" s="375">
         <f>SUM(F$19:$G21)/SUM(H$19:$I21)</f>
         <v>50.597773966254039</v>
       </c>
-      <c r="P21" s="416">
+      <c r="P21" s="376">
         <f>ABS(J21-K21)</f>
         <v>0.21137232230886943</v>
       </c>
-      <c r="Q21" s="417">
+      <c r="Q21" s="377">
         <f t="shared" ref="Q21:Q28" si="3">((J$28-J20)+(J$28-J21))*((K$28-K20)-(K$28-K21))/2</f>
         <v>3.5629978432087428E-2</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="405">
+      <c r="A22" s="365">
         <v>4</v>
       </c>
-      <c r="B22" s="406">
+      <c r="B22" s="366">
         <v>348.85134401563909</v>
       </c>
-      <c r="C22" s="407" t="s">
+      <c r="C22" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="406">
+      <c r="D22" s="366">
         <v>363.49365380633299</v>
       </c>
-      <c r="E22" s="408">
+      <c r="E22" s="368">
         <f t="shared" si="0"/>
         <v>20513</v>
       </c>
-      <c r="F22" s="409">
+      <c r="F22" s="369">
         <v>19081</v>
       </c>
-      <c r="G22" s="410">
+      <c r="G22" s="370">
         <v>742</v>
       </c>
-      <c r="H22" s="411">
+      <c r="H22" s="371">
         <v>690</v>
       </c>
-      <c r="I22" s="412">
+      <c r="I22" s="372">
         <f>SUM(E$19:E22)/E$29</f>
         <v>0.38751809370028711</v>
       </c>
-      <c r="J22" s="412">
+      <c r="J22" s="372">
         <f>SUM(F$19:F22)/F$29</f>
         <v>0.41495827310294425</v>
       </c>
-      <c r="K22" s="412">
+      <c r="K22" s="372">
         <f>SUM(H$19:H22)/H$29</f>
         <v>0.16044069547254261</v>
       </c>
@@ -24388,62 +24429,62 @@
         <f t="shared" si="1"/>
         <v>3.4899600424864702E-2</v>
       </c>
-      <c r="M22" s="413">
+      <c r="M22" s="373">
         <f>SUM(H$19:H22)/SUM(F$19:F22,H$19:H22)</f>
         <v>2.3569875069546307E-2</v>
       </c>
-      <c r="N22" s="414">
+      <c r="N22" s="374">
         <f t="shared" si="2"/>
         <v>27.653623188405795</v>
       </c>
-      <c r="O22" s="415">
+      <c r="O22" s="375">
         <f>SUM(F$19:$G22)/SUM(H$19:$I22)</f>
         <v>42.496242548788139</v>
       </c>
-      <c r="P22" s="416">
+      <c r="P22" s="376">
         <f t="shared" ref="P22:P28" si="4">ABS(J22-K22)</f>
         <v>0.25451757763040161</v>
       </c>
-      <c r="Q22" s="417">
+      <c r="Q22" s="377">
         <f t="shared" si="3"/>
         <v>3.7790812697374214E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="405">
+      <c r="A23" s="365">
         <v>5</v>
       </c>
-      <c r="B23" s="406">
+      <c r="B23" s="366">
         <v>335.09409088491208</v>
       </c>
-      <c r="C23" s="407" t="s">
+      <c r="C23" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="406">
+      <c r="D23" s="366">
         <v>348.85072057258043</v>
       </c>
-      <c r="E23" s="408">
+      <c r="E23" s="368">
         <f t="shared" si="0"/>
         <v>20707</v>
       </c>
-      <c r="F23" s="409">
+      <c r="F23" s="369">
         <v>18914</v>
       </c>
-      <c r="G23" s="410">
+      <c r="G23" s="370">
         <v>936</v>
       </c>
-      <c r="H23" s="411">
+      <c r="H23" s="371">
         <v>857</v>
       </c>
-      <c r="I23" s="412">
+      <c r="I23" s="372">
         <f>SUM(E$19:E23)/E$29</f>
         <v>0.4864398763656862</v>
       </c>
-      <c r="J23" s="412">
+      <c r="J23" s="372">
         <f>SUM(F$19:F23)/F$29</f>
         <v>0.51659671880961466</v>
       </c>
-      <c r="K23" s="412">
+      <c r="K23" s="372">
         <f>SUM(H$19:H23)/H$29</f>
         <v>0.23420554312274058</v>
       </c>
@@ -24451,62 +24492,62 @@
         <f t="shared" si="1"/>
         <v>4.3346315310302967E-2</v>
       </c>
-      <c r="M23" s="413">
+      <c r="M23" s="373">
         <f>SUM(H$19:H23)/SUM(F$19:F23,H$19:H23)</f>
         <v>2.7525163117697638E-2</v>
       </c>
-      <c r="N23" s="414">
+      <c r="N23" s="374">
         <f t="shared" si="2"/>
         <v>22.070011668611436</v>
       </c>
-      <c r="O23" s="415">
+      <c r="O23" s="375">
         <f>SUM(F$19:$G23)/SUM(H$19:$I23)</f>
         <v>36.402487412108385</v>
       </c>
-      <c r="P23" s="416">
+      <c r="P23" s="376">
         <f t="shared" si="4"/>
         <v>0.28239117568687411</v>
       </c>
-      <c r="Q23" s="417">
+      <c r="Q23" s="377">
         <f t="shared" si="3"/>
         <v>3.9406841622092313E-2</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="405">
+      <c r="A24" s="365">
         <v>6</v>
       </c>
-      <c r="B24" s="406">
+      <c r="B24" s="366">
         <v>321.59931738668689</v>
       </c>
-      <c r="C24" s="407" t="s">
+      <c r="C24" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="406">
+      <c r="D24" s="366">
         <v>335.09314288959303</v>
       </c>
-      <c r="E24" s="408">
+      <c r="E24" s="368">
         <f t="shared" ref="E24:E29" si="5">SUM(F24:H24)</f>
         <v>20865</v>
       </c>
-      <c r="F24" s="410">
+      <c r="F24" s="370">
         <v>18767</v>
       </c>
       <c r="G24" s="3">
         <v>1094</v>
       </c>
-      <c r="H24" s="411">
+      <c r="H24" s="371">
         <v>1004</v>
       </c>
-      <c r="I24" s="412">
+      <c r="I24" s="372">
         <f>SUM(E$19:E24)/E$29</f>
         <v>0.5861164589374519</v>
       </c>
-      <c r="J24" s="412">
+      <c r="J24" s="372">
         <f>SUM(F$19:F24)/F$29</f>
         <v>0.61744522840975646</v>
       </c>
-      <c r="K24" s="412">
+      <c r="K24" s="372">
         <f>SUM(H$19:H24)/H$29</f>
         <v>0.32062317094164228</v>
       </c>
@@ -24514,62 +24555,62 @@
         <f t="shared" si="1"/>
         <v>5.0781447574730666E-2</v>
       </c>
-      <c r="M24" s="413">
+      <c r="M24" s="373">
         <f>SUM(H$19:H24)/SUM(F$19:F24,H$19:H24)</f>
         <v>3.1401210527203141E-2</v>
       </c>
-      <c r="N24" s="414">
+      <c r="N24" s="374">
         <f t="shared" si="2"/>
         <v>18.692231075697212</v>
       </c>
-      <c r="O24" s="415">
+      <c r="O24" s="375">
         <f>SUM(F$19:$G24)/SUM(H$19:$I24)</f>
         <v>31.919453975470766</v>
       </c>
-      <c r="P24" s="416">
+      <c r="P24" s="376">
         <f t="shared" si="4"/>
         <v>0.29682205746811419</v>
       </c>
-      <c r="Q24" s="417">
+      <c r="Q24" s="377">
         <f t="shared" si="3"/>
         <v>3.7417020355988623E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="405">
+      <c r="A25" s="365">
         <v>7</v>
       </c>
-      <c r="B25" s="406">
+      <c r="B25" s="366">
         <v>307.03042671539072</v>
       </c>
-      <c r="C25" s="407" t="s">
+      <c r="C25" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="406">
+      <c r="D25" s="366">
         <v>321.59855343832697</v>
       </c>
-      <c r="E25" s="408">
+      <c r="E25" s="368">
         <f t="shared" si="5"/>
         <v>21012</v>
       </c>
-      <c r="F25" s="410">
+      <c r="F25" s="370">
         <v>18543</v>
       </c>
       <c r="G25" s="3">
         <v>1241</v>
       </c>
-      <c r="H25" s="411">
+      <c r="H25" s="371">
         <v>1228</v>
       </c>
-      <c r="I25" s="412">
+      <c r="I25" s="372">
         <f>SUM(E$19:E25)/E$29</f>
         <v>0.68649529205501436</v>
       </c>
-      <c r="J25" s="412">
+      <c r="J25" s="372">
         <f>SUM(F$19:F25)/F$29</f>
         <v>0.7170900258475692</v>
       </c>
-      <c r="K25" s="412">
+      <c r="K25" s="372">
         <f>SUM(H$19:H25)/H$29</f>
         <v>0.42632122568428299</v>
       </c>
@@ -24577,62 +24618,62 @@
         <f t="shared" si="1"/>
         <v>6.2111172930049065E-2</v>
       </c>
-      <c r="M25" s="413">
+      <c r="M25" s="373">
         <f>SUM(H$19:H25)/SUM(F$19:F25,H$19:H25)</f>
         <v>3.5788348013323985E-2</v>
       </c>
-      <c r="N25" s="414">
+      <c r="N25" s="374">
         <f t="shared" si="2"/>
         <v>15.100162866449512</v>
       </c>
-      <c r="O25" s="415">
+      <c r="O25" s="375">
         <f>SUM(F$19:$G25)/SUM(H$19:$I25)</f>
         <v>27.997725829527781</v>
       </c>
-      <c r="P25" s="416">
+      <c r="P25" s="376">
         <f t="shared" si="4"/>
         <v>0.29076880016328621</v>
       </c>
-      <c r="Q25" s="417">
+      <c r="Q25" s="377">
         <f t="shared" si="3"/>
         <v>3.5169164562403335E-2</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="405">
+      <c r="A26" s="365">
         <v>8</v>
       </c>
-      <c r="B26" s="406">
+      <c r="B26" s="366">
         <v>288.70240865548078</v>
       </c>
-      <c r="C26" s="407" t="s">
+      <c r="C26" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="406">
+      <c r="D26" s="366">
         <v>307.02738216047931</v>
       </c>
-      <c r="E26" s="408">
+      <c r="E26" s="368">
         <f t="shared" si="5"/>
         <v>21304</v>
       </c>
-      <c r="F26" s="410">
+      <c r="F26" s="370">
         <v>18222</v>
       </c>
       <c r="G26" s="3">
         <v>1533</v>
       </c>
-      <c r="H26" s="411">
+      <c r="H26" s="371">
         <v>1549</v>
       </c>
-      <c r="I26" s="412">
+      <c r="I26" s="372">
         <f>SUM(E$19:E26)/E$29</f>
         <v>0.78826907183497585</v>
       </c>
-      <c r="J26" s="412">
+      <c r="J26" s="372">
         <f>SUM(F$19:F26)/F$29</f>
         <v>0.81500986076704407</v>
       </c>
-      <c r="K26" s="412">
+      <c r="K26" s="372">
         <f>SUM(H$19:H26)/H$29</f>
         <v>0.55964882079531764</v>
       </c>
@@ -24640,62 +24681,62 @@
         <f t="shared" si="1"/>
         <v>7.8347073997268729E-2</v>
       </c>
-      <c r="M26" s="413">
+      <c r="M26" s="373">
         <f>SUM(H$19:H26)/SUM(F$19:F26,H$19:H26)</f>
         <v>4.1108188761317083E-2</v>
       </c>
-      <c r="N26" s="414">
+      <c r="N26" s="374">
         <f t="shared" si="2"/>
         <v>11.763718528082634</v>
       </c>
-      <c r="O26" s="415">
+      <c r="O26" s="375">
         <f>SUM(F$19:$G26)/SUM(H$19:$I26)</f>
         <v>24.364568852440222</v>
       </c>
-      <c r="P26" s="416">
+      <c r="P26" s="376">
         <f t="shared" si="4"/>
         <v>0.25536103997172643</v>
       </c>
-      <c r="Q26" s="417">
+      <c r="Q26" s="377">
         <f t="shared" si="3"/>
         <v>3.1191998434927024E-2</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="405">
+      <c r="A27" s="365">
         <v>9</v>
       </c>
-      <c r="B27" s="406">
+      <c r="B27" s="366">
         <v>263.59563540986932</v>
       </c>
-      <c r="C27" s="407" t="s">
+      <c r="C27" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="406">
+      <c r="D27" s="366">
         <v>288.70178516991518</v>
       </c>
-      <c r="E27" s="408">
+      <c r="E27" s="368">
         <f t="shared" si="5"/>
         <v>21630</v>
       </c>
-      <c r="F27" s="410">
+      <c r="F27" s="370">
         <v>17768</v>
       </c>
       <c r="G27" s="3">
         <v>1859</v>
       </c>
-      <c r="H27" s="411">
+      <c r="H27" s="371">
         <v>2003</v>
       </c>
-      <c r="I27" s="412">
+      <c r="I27" s="372">
         <f>SUM(E$19:E27)/E$29</f>
         <v>0.8916002235736431</v>
       </c>
-      <c r="J27" s="412">
+      <c r="J27" s="372">
         <f>SUM(F$19:F27)/F$29</f>
         <v>0.91049002907179821</v>
       </c>
-      <c r="K27" s="412">
+      <c r="K27" s="372">
         <f>SUM(H$19:H27)/H$29</f>
         <v>0.73205370976071615</v>
       </c>
@@ -24703,131 +24744,131 @@
         <f t="shared" si="1"/>
         <v>0.10130999949420869</v>
       </c>
-      <c r="M27" s="413">
+      <c r="M27" s="373">
         <f>SUM(H$19:H27)/SUM(F$19:F27,H$19:H27)</f>
         <v>4.779727884274948E-2</v>
       </c>
-      <c r="N27" s="414">
+      <c r="N27" s="374">
         <f t="shared" si="2"/>
         <v>8.8706939590614073</v>
       </c>
-      <c r="O27" s="415">
+      <c r="O27" s="375">
         <f>SUM(F$19:$G27)/SUM(H$19:$I27)</f>
         <v>20.933428958237634</v>
       </c>
-      <c r="P27" s="416">
+      <c r="P27" s="376">
         <f t="shared" si="4"/>
         <v>0.17843631931108206</v>
       </c>
-      <c r="Q27" s="417">
+      <c r="Q27" s="377">
         <f t="shared" si="3"/>
         <v>2.3662580506662027E-2</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="418">
+      <c r="A28" s="378">
         <v>10</v>
       </c>
-      <c r="B28" s="419">
+      <c r="B28" s="379">
         <v>145.50772173921891</v>
       </c>
-      <c r="C28" s="420" t="s">
+      <c r="C28" s="380" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="419">
+      <c r="D28" s="379">
         <v>263.59557408972898</v>
       </c>
-      <c r="E28" s="421">
+      <c r="E28" s="381">
         <f t="shared" si="5"/>
         <v>22691</v>
       </c>
-      <c r="F28" s="422">
+      <c r="F28" s="382">
         <v>16657</v>
       </c>
       <c r="G28" s="3">
         <v>2921</v>
       </c>
-      <c r="H28" s="423">
+      <c r="H28" s="383">
         <v>3113</v>
       </c>
-      <c r="I28" s="424">
+      <c r="I28" s="384">
         <f>SUM(E$19:E28)/E$29</f>
         <v>1</v>
       </c>
-      <c r="J28" s="424">
+      <c r="J28" s="384">
         <f>SUM(F$19:F28)/F$29</f>
         <v>1</v>
       </c>
-      <c r="K28" s="424">
+      <c r="K28" s="384">
         <f>SUM(H$19:H28)/H$29</f>
         <v>1</v>
       </c>
-      <c r="L28" s="425">
+      <c r="L28" s="385">
         <f t="shared" si="1"/>
         <v>0.15746079919069297</v>
       </c>
-      <c r="M28" s="426">
+      <c r="M28" s="386">
         <f>SUM(H$19:H28)/SUM(F$19:F28,H$19:H28)</f>
         <v>5.8763131673317856E-2</v>
       </c>
-      <c r="N28" s="414">
+      <c r="N28" s="374">
         <f t="shared" si="2"/>
         <v>5.3507870221651137</v>
       </c>
-      <c r="O28" s="415">
+      <c r="O28" s="375">
         <f>SUM(F$19:$G28)/SUM(H$19:$I28)</f>
         <v>17.009561341958623</v>
       </c>
-      <c r="P28" s="427">
+      <c r="P28" s="387">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="417">
+      <c r="Q28" s="377">
         <f t="shared" si="3"/>
         <v>1.1991932324818908E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A29" s="428" t="s">
+      <c r="A29" s="388" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="429"/>
-      <c r="C29" s="429"/>
-      <c r="D29" s="429"/>
-      <c r="E29" s="430">
+      <c r="B29" s="389"/>
+      <c r="C29" s="389"/>
+      <c r="D29" s="389"/>
+      <c r="E29" s="390">
         <f t="shared" si="5"/>
         <v>209327</v>
       </c>
-      <c r="F29" s="431">
+      <c r="F29" s="391">
         <f>SUM(F19:F28)</f>
         <v>186091</v>
       </c>
-      <c r="G29" s="431">
+      <c r="G29" s="391">
         <f>SUM(G19:G28)</f>
         <v>11618</v>
       </c>
-      <c r="H29" s="432">
+      <c r="H29" s="392">
         <f>SUM(H19:H28)</f>
         <v>11618</v>
       </c>
-      <c r="I29" s="433"/>
-      <c r="J29" s="433"/>
-      <c r="K29" s="433"/>
-      <c r="L29" s="434">
+      <c r="I29" s="393"/>
+      <c r="J29" s="393"/>
+      <c r="K29" s="393"/>
+      <c r="L29" s="394">
         <f t="shared" si="1"/>
         <v>5.8763131673317856E-2</v>
       </c>
-      <c r="M29" s="435"/>
-      <c r="N29" s="436">
+      <c r="M29" s="395"/>
+      <c r="N29" s="396">
         <f t="shared" si="2"/>
         <v>16.01747288689964</v>
       </c>
-      <c r="O29" s="437"/>
-      <c r="P29" s="438">
+      <c r="O29" s="397"/>
+      <c r="P29" s="398">
         <f>MAX(P19:P28)</f>
         <v>0.29682205746811419</v>
       </c>
-      <c r="Q29" s="439">
+      <c r="Q29" s="399">
         <f>1-2*SUM(Q19:Q28)</f>
         <v>0.40226324974333838</v>
       </c>
@@ -24835,62 +24876,62 @@
     <row r="30" spans="1:17" ht="15.75" thickTop="1"/>
     <row r="33" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="34" spans="1:17" ht="15.75" thickTop="1">
-      <c r="A34" s="389" t="s">
+      <c r="A34" s="349" t="s">
         <v>575</v>
       </c>
-      <c r="B34" s="390"/>
-      <c r="C34" s="390"/>
-      <c r="D34" s="390"/>
-      <c r="E34" s="391"/>
-      <c r="F34" s="392"/>
-      <c r="G34" s="393"/>
-      <c r="H34" s="392"/>
-      <c r="I34" s="394"/>
-      <c r="J34" s="394"/>
-      <c r="K34" s="394"/>
-      <c r="L34" s="395"/>
-      <c r="M34" s="395"/>
-      <c r="N34" s="396" t="s">
+      <c r="B34" s="350"/>
+      <c r="C34" s="350"/>
+      <c r="D34" s="350"/>
+      <c r="E34" s="351"/>
+      <c r="F34" s="352"/>
+      <c r="G34" s="353"/>
+      <c r="H34" s="352"/>
+      <c r="I34" s="354"/>
+      <c r="J34" s="354"/>
+      <c r="K34" s="354"/>
+      <c r="L34" s="355"/>
+      <c r="M34" s="355"/>
+      <c r="N34" s="356" t="s">
         <v>84</v>
       </c>
-      <c r="O34" s="396"/>
-      <c r="P34" s="396"/>
-      <c r="Q34" s="397">
+      <c r="O34" s="356"/>
+      <c r="P34" s="356"/>
+      <c r="Q34" s="357">
         <f>Q49</f>
         <v>0.42424584290365641</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A35" s="398"/>
-      <c r="B35" s="399"/>
-      <c r="C35" s="399"/>
-      <c r="D35" s="399"/>
-      <c r="E35" s="400"/>
-      <c r="F35" s="401"/>
-      <c r="G35" s="402"/>
-      <c r="H35" s="402"/>
-      <c r="I35" s="403"/>
-      <c r="J35" s="403"/>
-      <c r="K35" s="403"/>
-      <c r="L35" s="401"/>
-      <c r="M35" s="401"/>
-      <c r="N35" s="401" t="s">
+      <c r="A35" s="358"/>
+      <c r="B35" s="359"/>
+      <c r="C35" s="359"/>
+      <c r="D35" s="359"/>
+      <c r="E35" s="360"/>
+      <c r="F35" s="361"/>
+      <c r="G35" s="362"/>
+      <c r="H35" s="362"/>
+      <c r="I35" s="363"/>
+      <c r="J35" s="363"/>
+      <c r="K35" s="363"/>
+      <c r="L35" s="361"/>
+      <c r="M35" s="361"/>
+      <c r="N35" s="361" t="s">
         <v>85</v>
       </c>
-      <c r="O35" s="401"/>
-      <c r="P35" s="401"/>
-      <c r="Q35" s="404">
+      <c r="O35" s="361"/>
+      <c r="P35" s="361"/>
+      <c r="Q35" s="364">
         <f>P49</f>
         <v>0.30981999350507938</v>
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="349" t="s">
+      <c r="A36" s="435" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="350"/>
-      <c r="C36" s="350"/>
-      <c r="D36" s="351"/>
+      <c r="B36" s="436"/>
+      <c r="C36" s="436"/>
+      <c r="D36" s="437"/>
       <c r="E36" s="76" t="s">
         <v>87</v>
       </c>
@@ -24903,31 +24944,31 @@
       <c r="H36" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="I36" s="354" t="s">
+      <c r="I36" s="440" t="s">
         <v>89</v>
       </c>
-      <c r="J36" s="354"/>
-      <c r="K36" s="354"/>
-      <c r="L36" s="355" t="s">
+      <c r="J36" s="440"/>
+      <c r="K36" s="440"/>
+      <c r="L36" s="441" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="356"/>
-      <c r="N36" s="354" t="s">
+      <c r="M36" s="442"/>
+      <c r="N36" s="440" t="s">
         <v>91</v>
       </c>
-      <c r="O36" s="357"/>
-      <c r="P36" s="355" t="s">
+      <c r="O36" s="443"/>
+      <c r="P36" s="441" t="s">
         <v>92</v>
       </c>
-      <c r="Q36" s="347" t="s">
+      <c r="Q36" s="433" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="352"/>
-      <c r="B37" s="353"/>
-      <c r="C37" s="353"/>
-      <c r="D37" s="353"/>
+      <c r="A37" s="438"/>
+      <c r="B37" s="439"/>
+      <c r="C37" s="439"/>
+      <c r="D37" s="439"/>
       <c r="E37" s="80" t="s">
         <v>110</v>
       </c>
@@ -24961,8 +25002,8 @@
       <c r="O37" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="P37" s="358"/>
-      <c r="Q37" s="348"/>
+      <c r="P37" s="444"/>
+      <c r="Q37" s="434"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" thickBot="1">
       <c r="A38" s="87" t="s">
@@ -25012,40 +25053,40 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="15.75" thickTop="1">
-      <c r="A39" s="405">
+      <c r="A39" s="365">
         <v>1</v>
       </c>
-      <c r="B39" s="406">
+      <c r="B39" s="366">
         <v>427.7201735200029</v>
       </c>
-      <c r="C39" s="407" t="s">
+      <c r="C39" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="406">
+      <c r="D39" s="366">
         <v>483.3211330236208</v>
       </c>
-      <c r="E39" s="408">
+      <c r="E39" s="368">
         <f t="shared" ref="E39:E43" si="6">SUM(F39:H39)</f>
         <v>10666</v>
       </c>
-      <c r="F39" s="409">
+      <c r="F39" s="369">
         <v>10350</v>
       </c>
-      <c r="G39" s="410">
+      <c r="G39" s="370">
         <v>257</v>
       </c>
-      <c r="H39" s="411">
+      <c r="H39" s="371">
         <v>59</v>
       </c>
-      <c r="I39" s="412">
+      <c r="I39" s="372">
         <f>SUM(E$39:E39)/E$49</f>
         <v>9.2173943102077494E-2</v>
       </c>
-      <c r="J39" s="412">
+      <c r="J39" s="372">
         <f>SUM(F$39:F39)/F$49</f>
         <v>0.10245698786354906</v>
       </c>
-      <c r="K39" s="412">
+      <c r="K39" s="372">
         <f>SUM(H$39:H39)/H$49</f>
         <v>1.9155844155844155E-2</v>
       </c>
@@ -25053,62 +25094,62 @@
         <f>H39/SUM(F39,H39)</f>
         <v>5.6681717744259778E-3</v>
       </c>
-      <c r="M39" s="413">
+      <c r="M39" s="373">
         <f>SUM(H$19:H39)/SUM(F$19:F39,H$19:H39)</f>
         <v>5.7401306468027019E-2</v>
       </c>
-      <c r="N39" s="414">
+      <c r="N39" s="374">
         <f>F39/H39</f>
         <v>175.42372881355934</v>
       </c>
-      <c r="O39" s="415">
+      <c r="O39" s="375">
         <f>SUM(F$19:$G39)/SUM(H$19:$I39)</f>
         <v>17.425594733734705</v>
       </c>
-      <c r="P39" s="416">
+      <c r="P39" s="376">
         <f>ABS(J39-K39)</f>
         <v>8.3301143707704917E-2</v>
       </c>
-      <c r="Q39" s="417">
+      <c r="Q39" s="377">
         <f>((J$28)+(J$28-J39))*((K$28)-(K$28-K39))/2</f>
         <v>1.8174519109748467E-2</v>
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="405">
+      <c r="A40" s="365">
         <v>2</v>
       </c>
-      <c r="B40" s="406">
+      <c r="B40" s="366">
         <v>389.42612422371582</v>
       </c>
-      <c r="C40" s="407" t="s">
+      <c r="C40" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="406">
+      <c r="D40" s="366">
         <v>427.71869062271139</v>
       </c>
-      <c r="E40" s="408">
+      <c r="E40" s="368">
         <f t="shared" si="6"/>
         <v>10836</v>
       </c>
-      <c r="F40" s="409">
+      <c r="F40" s="369">
         <v>10329</v>
       </c>
-      <c r="G40" s="410">
+      <c r="G40" s="370">
         <v>426</v>
       </c>
-      <c r="H40" s="411">
+      <c r="H40" s="371">
         <v>81</v>
       </c>
-      <c r="I40" s="412">
+      <c r="I40" s="372">
         <f>SUM(E$39:E40)/E$49</f>
         <v>0.18581700024197173</v>
       </c>
-      <c r="J40" s="412">
+      <c r="J40" s="372">
         <f>SUM(F$39:F40)/F$49</f>
         <v>0.20470609198360687</v>
       </c>
-      <c r="K40" s="412">
+      <c r="K40" s="372">
         <f>SUM(H$39:H40)/H$49</f>
         <v>4.5454545454545456E-2</v>
       </c>
@@ -25116,62 +25157,62 @@
         <f t="shared" ref="L40:L49" si="7">H40/SUM(F40,H40)</f>
         <v>7.7809798270893375E-3</v>
       </c>
-      <c r="M40" s="413">
+      <c r="M40" s="373">
         <f>SUM(H$19:H40)/SUM(F$19:F40,H$19:H40)</f>
         <v>5.6160312514264711E-2</v>
       </c>
-      <c r="N40" s="414">
+      <c r="N40" s="374">
         <f>F40/H40</f>
         <v>127.51851851851852</v>
       </c>
-      <c r="O40" s="415">
+      <c r="O40" s="375">
         <f>SUM(F$19:$G40)/SUM(H$19:$I40)</f>
         <v>17.82506509420292</v>
       </c>
-      <c r="P40" s="416">
+      <c r="P40" s="376">
         <f>ABS(J40-K40)</f>
         <v>0.15925154652906143</v>
       </c>
-      <c r="Q40" s="417">
+      <c r="Q40" s="377">
         <f>((J$28-J39)+(J$28-J40))*((K$28-K39)-(K$28-K40))/2</f>
         <v>2.2259706255256525E-2</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="405">
+      <c r="A41" s="365">
         <v>3</v>
       </c>
-      <c r="B41" s="406">
+      <c r="B41" s="366">
         <v>368.74878454173802</v>
       </c>
-      <c r="C41" s="407" t="s">
+      <c r="C41" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="406">
+      <c r="D41" s="366">
         <v>389.41677037018178</v>
       </c>
-      <c r="E41" s="408">
+      <c r="E41" s="368">
         <f t="shared" si="6"/>
         <v>11019</v>
       </c>
-      <c r="F41" s="409">
+      <c r="F41" s="369">
         <v>10264</v>
       </c>
-      <c r="G41" s="410">
+      <c r="G41" s="370">
         <v>609</v>
       </c>
-      <c r="H41" s="411">
+      <c r="H41" s="371">
         <v>146</v>
       </c>
-      <c r="I41" s="412">
+      <c r="I41" s="372">
         <f>SUM(E$39:E41)/E$49</f>
         <v>0.28104151543433925</v>
       </c>
-      <c r="J41" s="412">
+      <c r="J41" s="372">
         <f>SUM(F$39:F41)/F$49</f>
         <v>0.30631174642142983</v>
       </c>
-      <c r="K41" s="412">
+      <c r="K41" s="372">
         <f>SUM(H$39:H41)/H$49</f>
         <v>9.285714285714286E-2</v>
       </c>
@@ -25179,62 +25220,62 @@
         <f t="shared" si="7"/>
         <v>1.4024975984630164E-2</v>
       </c>
-      <c r="M41" s="413">
+      <c r="M41" s="373">
         <f>SUM(H$19:H41)/SUM(F$19:F41,H$19:H41)</f>
         <v>5.5132228751169E-2</v>
       </c>
-      <c r="N41" s="414">
+      <c r="N41" s="374">
         <f t="shared" ref="N41:N49" si="8">F41/H41</f>
         <v>70.301369863013704</v>
       </c>
-      <c r="O41" s="415">
+      <c r="O41" s="375">
         <f>SUM(F$19:$G41)/SUM(H$19:$I41)</f>
         <v>18.176371791281916</v>
       </c>
-      <c r="P41" s="416">
+      <c r="P41" s="376">
         <f>ABS(J41-K41)</f>
         <v>0.21345460356428697</v>
       </c>
-      <c r="Q41" s="417">
+      <c r="Q41" s="377">
         <f t="shared" ref="Q41:Q48" si="9">((J$28-J40)+(J$28-J41))*((K$28-K40)-(K$28-K41))/2</f>
         <v>3.5290810972867667E-2</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="405">
+      <c r="A42" s="365">
         <v>4</v>
       </c>
-      <c r="B42" s="406">
+      <c r="B42" s="366">
         <v>353.35762010898611</v>
       </c>
-      <c r="C42" s="407" t="s">
+      <c r="C42" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="406">
+      <c r="D42" s="366">
         <v>368.74751761167897</v>
       </c>
-      <c r="E42" s="408">
+      <c r="E42" s="368">
         <f t="shared" si="6"/>
         <v>11152</v>
       </c>
-      <c r="F42" s="409">
+      <c r="F42" s="369">
         <v>10253</v>
       </c>
-      <c r="G42" s="410">
+      <c r="G42" s="370">
         <v>742</v>
       </c>
-      <c r="H42" s="411">
+      <c r="H42" s="371">
         <v>157</v>
       </c>
-      <c r="I42" s="412">
+      <c r="I42" s="372">
         <f>SUM(E$39:E42)/E$49</f>
         <v>0.37741539631511634</v>
       </c>
-      <c r="J42" s="412">
+      <c r="J42" s="372">
         <f>SUM(F$39:F42)/F$49</f>
         <v>0.40780850937456692</v>
       </c>
-      <c r="K42" s="412">
+      <c r="K42" s="372">
         <f>SUM(H$39:H42)/H$49</f>
         <v>0.14383116883116884</v>
       </c>
@@ -25242,62 +25283,62 @@
         <f t="shared" si="7"/>
         <v>1.5081652257444764E-2</v>
       </c>
-      <c r="M42" s="413">
+      <c r="M42" s="373">
         <f>SUM(H$19:H42)/SUM(F$19:F42,H$19:H42)</f>
         <v>5.417828795786362E-2</v>
       </c>
-      <c r="N42" s="414">
+      <c r="N42" s="374">
         <f t="shared" si="8"/>
         <v>65.30573248407643</v>
       </c>
-      <c r="O42" s="415">
+      <c r="O42" s="375">
         <f>SUM(F$19:$G42)/SUM(H$19:$I42)</f>
         <v>18.519809947535531</v>
       </c>
-      <c r="P42" s="416">
+      <c r="P42" s="376">
         <f t="shared" ref="P42:P48" si="10">ABS(J42-K42)</f>
         <v>0.26397734054339805</v>
       </c>
-      <c r="Q42" s="417">
+      <c r="Q42" s="377">
         <f t="shared" si="9"/>
         <v>3.277323374026439E-2</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="405">
+      <c r="A43" s="365">
         <v>5</v>
       </c>
-      <c r="B43" s="406">
+      <c r="B43" s="366">
         <v>339.23866176310031</v>
       </c>
-      <c r="C43" s="407" t="s">
+      <c r="C43" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="406">
+      <c r="D43" s="366">
         <v>353.35311825699802</v>
       </c>
-      <c r="E43" s="408">
+      <c r="E43" s="368">
         <f t="shared" si="6"/>
         <v>11346</v>
       </c>
-      <c r="F43" s="409">
+      <c r="F43" s="369">
         <v>10177</v>
       </c>
-      <c r="G43" s="410">
+      <c r="G43" s="370">
         <v>936</v>
       </c>
-      <c r="H43" s="411">
+      <c r="H43" s="371">
         <v>233</v>
       </c>
-      <c r="I43" s="412">
+      <c r="I43" s="372">
         <f>SUM(E$39:E43)/E$49</f>
         <v>0.47546579556846069</v>
       </c>
-      <c r="J43" s="412">
+      <c r="J43" s="372">
         <f>SUM(F$39:F43)/F$49</f>
         <v>0.50855293116078326</v>
       </c>
-      <c r="K43" s="412">
+      <c r="K43" s="372">
         <f>SUM(H$39:H43)/H$49</f>
         <v>0.21948051948051947</v>
       </c>
@@ -25305,62 +25346,62 @@
         <f t="shared" si="7"/>
         <v>2.2382324687800194E-2</v>
       </c>
-      <c r="M43" s="413">
+      <c r="M43" s="373">
         <f>SUM(H$19:H43)/SUM(F$19:F43,H$19:H43)</f>
         <v>5.3438577593431472E-2</v>
       </c>
-      <c r="N43" s="414">
+      <c r="N43" s="374">
         <f t="shared" si="8"/>
         <v>43.678111587982833</v>
       </c>
-      <c r="O43" s="415">
+      <c r="O43" s="375">
         <f>SUM(F$19:$G43)/SUM(H$19:$I43)</f>
         <v>18.803648362710586</v>
       </c>
-      <c r="P43" s="416">
+      <c r="P43" s="376">
         <f t="shared" si="10"/>
         <v>0.28907241168026376</v>
       </c>
-      <c r="Q43" s="417">
+      <c r="Q43" s="377">
         <f t="shared" si="9"/>
         <v>4.0988276681049249E-2</v>
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="405">
+      <c r="A44" s="365">
         <v>6</v>
       </c>
-      <c r="B44" s="406">
+      <c r="B44" s="366">
         <v>325.70760565613671</v>
       </c>
-      <c r="C44" s="407" t="s">
+      <c r="C44" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="406">
+      <c r="D44" s="366">
         <v>339.23842403391342</v>
       </c>
-      <c r="E44" s="408">
+      <c r="E44" s="368">
         <f t="shared" ref="E44:E49" si="11">SUM(F44:H44)</f>
         <v>11504</v>
       </c>
-      <c r="F44" s="410">
+      <c r="F44" s="370">
         <v>10162</v>
       </c>
       <c r="G44" s="3">
         <v>1094</v>
       </c>
-      <c r="H44" s="411">
+      <c r="H44" s="371">
         <v>248</v>
       </c>
-      <c r="I44" s="412">
+      <c r="I44" s="372">
         <f>SUM(E$39:E44)/E$49</f>
         <v>0.57488160669224653</v>
       </c>
-      <c r="J44" s="412">
+      <c r="J44" s="372">
         <f>SUM(F$39:F44)/F$49</f>
         <v>0.60914886455879147</v>
       </c>
-      <c r="K44" s="412">
+      <c r="K44" s="372">
         <f>SUM(H$39:H44)/H$49</f>
         <v>0.3</v>
       </c>
@@ -25368,62 +25409,62 @@
         <f t="shared" si="7"/>
         <v>2.382324687800192E-2</v>
       </c>
-      <c r="M44" s="413">
+      <c r="M44" s="373">
         <f>SUM(H$19:H44)/SUM(F$19:F44,H$19:H44)</f>
         <v>5.2765262286596622E-2</v>
       </c>
-      <c r="N44" s="414">
+      <c r="N44" s="374">
         <f t="shared" si="8"/>
         <v>40.975806451612904</v>
       </c>
-      <c r="O44" s="415">
+      <c r="O44" s="375">
         <f>SUM(F$19:$G44)/SUM(H$19:$I44)</f>
         <v>19.075994080281415</v>
       </c>
-      <c r="P44" s="416">
+      <c r="P44" s="376">
         <f t="shared" si="10"/>
         <v>0.30914886455879148</v>
       </c>
-      <c r="Q44" s="417">
+      <c r="Q44" s="377">
         <f t="shared" si="9"/>
         <v>3.5521096535965184E-2</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="405">
+      <c r="A45" s="365">
         <v>7</v>
       </c>
-      <c r="B45" s="406">
+      <c r="B45" s="366">
         <v>311.71977372757249</v>
       </c>
-      <c r="C45" s="407" t="s">
+      <c r="C45" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="406">
+      <c r="D45" s="366">
         <v>325.70759317249821</v>
       </c>
-      <c r="E45" s="408">
+      <c r="E45" s="368">
         <f t="shared" si="11"/>
         <v>11651</v>
       </c>
-      <c r="F45" s="410">
+      <c r="F45" s="370">
         <v>10104</v>
       </c>
       <c r="G45" s="3">
         <v>1241</v>
       </c>
-      <c r="H45" s="411">
+      <c r="H45" s="371">
         <v>306</v>
       </c>
-      <c r="I45" s="412">
+      <c r="I45" s="372">
         <f>SUM(E$39:E45)/E$49</f>
         <v>0.67556776936637974</v>
       </c>
-      <c r="J45" s="412">
+      <c r="J45" s="372">
         <f>SUM(F$39:F45)/F$49</f>
         <v>0.70917064285572873</v>
       </c>
-      <c r="K45" s="412">
+      <c r="K45" s="372">
         <f>SUM(H$39:H45)/H$49</f>
         <v>0.39935064935064934</v>
       </c>
@@ -25431,62 +25472,62 @@
         <f t="shared" si="7"/>
         <v>2.9394812680115272E-2</v>
       </c>
-      <c r="M45" s="413">
+      <c r="M45" s="373">
         <f>SUM(H$19:H45)/SUM(F$19:F45,H$19:H45)</f>
         <v>5.2245738190468669E-2</v>
       </c>
-      <c r="N45" s="414">
+      <c r="N45" s="374">
         <f t="shared" si="8"/>
         <v>33.019607843137258</v>
       </c>
-      <c r="O45" s="415">
+      <c r="O45" s="375">
         <f>SUM(F$19:$G45)/SUM(H$19:$I45)</f>
         <v>19.300511683823466</v>
       </c>
-      <c r="P45" s="416">
+      <c r="P45" s="376">
         <f t="shared" si="10"/>
         <v>0.30981999350507938</v>
       </c>
-      <c r="Q45" s="417">
+      <c r="Q45" s="377">
         <f t="shared" si="9"/>
         <v>3.3862699794018944E-2</v>
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="405">
+      <c r="A46" s="365">
         <v>8</v>
       </c>
-      <c r="B46" s="406">
+      <c r="B46" s="366">
         <v>294.35992701072792</v>
       </c>
-      <c r="C46" s="407" t="s">
+      <c r="C46" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="406">
+      <c r="D46" s="366">
         <v>311.71662000705942</v>
       </c>
-      <c r="E46" s="408">
+      <c r="E46" s="368">
         <f t="shared" si="11"/>
         <v>11943</v>
       </c>
-      <c r="F46" s="410">
+      <c r="F46" s="370">
         <v>10016</v>
       </c>
       <c r="G46" s="3">
         <v>1533</v>
       </c>
-      <c r="H46" s="411">
+      <c r="H46" s="371">
         <v>394</v>
       </c>
-      <c r="I46" s="412">
+      <c r="I46" s="372">
         <f>SUM(E$39:E46)/E$49</f>
         <v>0.77877735144664528</v>
       </c>
-      <c r="J46" s="412">
+      <c r="J46" s="372">
         <f>SUM(F$39:F46)/F$49</f>
         <v>0.80832128927517866</v>
       </c>
-      <c r="K46" s="412">
+      <c r="K46" s="372">
         <f>SUM(H$39:H46)/H$49</f>
         <v>0.52727272727272723</v>
       </c>
@@ -25494,62 +25535,62 @@
         <f t="shared" si="7"/>
         <v>3.7848222862632085E-2</v>
       </c>
-      <c r="M46" s="413">
+      <c r="M46" s="373">
         <f>SUM(H$19:H46)/SUM(F$19:F46,H$19:H46)</f>
         <v>5.1932642151507113E-2</v>
       </c>
-      <c r="N46" s="414">
+      <c r="N46" s="374">
         <f t="shared" si="8"/>
         <v>25.421319796954315</v>
       </c>
-      <c r="O46" s="415">
+      <c r="O46" s="375">
         <f>SUM(F$19:$G46)/SUM(H$19:$I46)</f>
         <v>19.458523348782254</v>
       </c>
-      <c r="P46" s="416">
+      <c r="P46" s="376">
         <f t="shared" si="10"/>
         <v>0.28104856200245143</v>
       </c>
-      <c r="Q46" s="417">
+      <c r="Q46" s="377">
         <f t="shared" si="9"/>
         <v>3.0861717327990656E-2</v>
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="405">
+      <c r="A47" s="365">
         <v>9</v>
       </c>
-      <c r="B47" s="406">
+      <c r="B47" s="366">
         <v>267.31844012155028</v>
       </c>
-      <c r="C47" s="407" t="s">
+      <c r="C47" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="406">
+      <c r="D47" s="366">
         <v>294.3589979060859</v>
       </c>
-      <c r="E47" s="408">
+      <c r="E47" s="368">
         <f t="shared" si="11"/>
         <v>12269</v>
       </c>
-      <c r="F47" s="410">
+      <c r="F47" s="370">
         <v>9896</v>
       </c>
       <c r="G47" s="3">
         <v>1859</v>
       </c>
-      <c r="H47" s="411">
+      <c r="H47" s="371">
         <v>514</v>
       </c>
-      <c r="I47" s="412">
+      <c r="I47" s="372">
         <f>SUM(E$39:E47)/E$49</f>
         <v>0.88480417574060632</v>
       </c>
-      <c r="J47" s="412">
+      <c r="J47" s="372">
         <f>SUM(F$39:F47)/F$49</f>
         <v>0.9062840285889644</v>
       </c>
-      <c r="K47" s="412">
+      <c r="K47" s="372">
         <f>SUM(H$39:H47)/H$49</f>
         <v>0.69415584415584419</v>
       </c>
@@ -25557,131 +25598,131 @@
         <f t="shared" si="7"/>
         <v>4.9375600384245918E-2</v>
       </c>
-      <c r="M47" s="413">
+      <c r="M47" s="373">
         <f>SUM(H$19:H47)/SUM(F$19:F47,H$19:H47)</f>
         <v>5.1878218876442173E-2</v>
       </c>
-      <c r="N47" s="414">
+      <c r="N47" s="374">
         <f t="shared" si="8"/>
         <v>19.252918287937742</v>
       </c>
-      <c r="O47" s="415">
+      <c r="O47" s="375">
         <f>SUM(F$19:$G47)/SUM(H$19:$I47)</f>
         <v>19.526917632570996</v>
       </c>
-      <c r="P47" s="416">
+      <c r="P47" s="376">
         <f t="shared" si="10"/>
         <v>0.2121281844331202</v>
       </c>
-      <c r="Q47" s="417">
+      <c r="Q47" s="377">
         <f t="shared" si="9"/>
         <v>2.3813777048349114E-2</v>
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="418">
+      <c r="A48" s="378">
         <v>10</v>
       </c>
-      <c r="B48" s="419">
+      <c r="B48" s="379">
         <v>142.24156084948561</v>
       </c>
-      <c r="C48" s="420" t="s">
+      <c r="C48" s="380" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="419">
+      <c r="D48" s="379">
         <v>267.30883459711418</v>
       </c>
-      <c r="E48" s="421">
+      <c r="E48" s="381">
         <f t="shared" si="11"/>
         <v>13330</v>
       </c>
-      <c r="F48" s="422">
+      <c r="F48" s="382">
         <v>9467</v>
       </c>
       <c r="G48" s="3">
         <v>2921</v>
       </c>
-      <c r="H48" s="423">
+      <c r="H48" s="383">
         <v>942</v>
       </c>
-      <c r="I48" s="440">
+      <c r="I48" s="400">
         <f>SUM(E$39:E48)/E$49</f>
         <v>1</v>
       </c>
-      <c r="J48" s="424">
+      <c r="J48" s="384">
         <f>SUM(F$39:F48)/F$49</f>
         <v>1</v>
       </c>
-      <c r="K48" s="441">
+      <c r="K48" s="401">
         <f>SUM(H$39:H48)/H$49</f>
         <v>1</v>
       </c>
-      <c r="L48" s="425">
+      <c r="L48" s="385">
         <f t="shared" si="7"/>
         <v>9.04986069747334E-2</v>
       </c>
-      <c r="M48" s="426">
+      <c r="M48" s="386">
         <f>SUM(H$19:H48)/SUM(F$19:F48,H$19:H48)</f>
         <v>5.2682997141232715E-2</v>
       </c>
-      <c r="N48" s="414">
+      <c r="N48" s="374">
         <f t="shared" si="8"/>
         <v>10.049893842887473</v>
       </c>
-      <c r="O48" s="415">
+      <c r="O48" s="375">
         <f>SUM(F$19:$G48)/SUM(H$19:$I48)</f>
         <v>19.298029222002917</v>
       </c>
-      <c r="P48" s="427">
+      <c r="P48" s="387">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="417">
+      <c r="Q48" s="377">
         <f t="shared" si="9"/>
         <v>1.4331241082661612E-2</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A49" s="428" t="s">
+      <c r="A49" s="388" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="429"/>
-      <c r="C49" s="429"/>
-      <c r="D49" s="429"/>
-      <c r="E49" s="430">
+      <c r="B49" s="389"/>
+      <c r="C49" s="389"/>
+      <c r="D49" s="389"/>
+      <c r="E49" s="390">
         <f t="shared" si="11"/>
         <v>115716</v>
       </c>
-      <c r="F49" s="431">
+      <c r="F49" s="391">
         <f>SUM(F39:F48)</f>
         <v>101018</v>
       </c>
-      <c r="G49" s="431">
+      <c r="G49" s="391">
         <f>SUM(G39:G48)</f>
         <v>11618</v>
       </c>
-      <c r="H49" s="432">
+      <c r="H49" s="392">
         <f>SUM(H39:H48)</f>
         <v>3080</v>
       </c>
-      <c r="I49" s="433"/>
-      <c r="J49" s="433"/>
-      <c r="K49" s="433"/>
-      <c r="L49" s="434">
+      <c r="I49" s="393"/>
+      <c r="J49" s="393"/>
+      <c r="K49" s="393"/>
+      <c r="L49" s="394">
         <f t="shared" si="7"/>
         <v>2.9587504082691309E-2</v>
       </c>
-      <c r="M49" s="435"/>
-      <c r="N49" s="436">
+      <c r="M49" s="395"/>
+      <c r="N49" s="396">
         <f t="shared" si="8"/>
         <v>32.798051948051949</v>
       </c>
-      <c r="O49" s="437"/>
-      <c r="P49" s="438">
+      <c r="O49" s="397"/>
+      <c r="P49" s="398">
         <f>MAX(P39:P48)</f>
         <v>0.30981999350507938</v>
       </c>
-      <c r="Q49" s="439">
+      <c r="Q49" s="399">
         <f>1-2*SUM(Q39:Q48)</f>
         <v>0.42424584290365641</v>
       </c>
@@ -25710,11 +25751,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79:C81"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -25731,57 +25772,59 @@
     <col min="11" max="11" width="9" style="300"/>
     <col min="12" max="12" width="9" style="280"/>
     <col min="13" max="13" width="9.875" style="280" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="280"/>
+    <col min="14" max="14" width="10.25" style="280" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="280" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="280"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="B2" s="361" t="s">
+      <c r="B2" s="447" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" s="447" t="s">
+        <v>582</v>
+      </c>
+      <c r="D2" s="449" t="s">
         <v>583</v>
       </c>
-      <c r="C2" s="361" t="s">
-        <v>583</v>
-      </c>
-      <c r="D2" s="363" t="s">
+      <c r="E2" s="451" t="s">
+        <v>580</v>
+      </c>
+      <c r="F2" s="451"/>
+      <c r="G2" s="451"/>
+      <c r="H2" s="451" t="s">
+        <v>581</v>
+      </c>
+      <c r="I2" s="451"/>
+      <c r="J2" s="452" t="s">
         <v>584</v>
       </c>
-      <c r="E2" s="365" t="s">
-        <v>581</v>
-      </c>
-      <c r="F2" s="365"/>
-      <c r="G2" s="365"/>
-      <c r="H2" s="365" t="s">
-        <v>582</v>
-      </c>
-      <c r="I2" s="365"/>
-      <c r="J2" s="366" t="s">
-        <v>585</v>
-      </c>
-      <c r="K2" s="359" t="s">
+      <c r="K2" s="445" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="B3" s="448"/>
+      <c r="C3" s="448"/>
+      <c r="D3" s="450"/>
+      <c r="E3" s="282" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1">
-      <c r="B3" s="362"/>
-      <c r="C3" s="362"/>
-      <c r="D3" s="364"/>
-      <c r="E3" s="282" t="s">
+      <c r="F3" s="283" t="s">
         <v>578</v>
       </c>
-      <c r="F3" s="283" t="s">
+      <c r="G3" s="283" t="s">
         <v>579</v>
       </c>
-      <c r="G3" s="283" t="s">
-        <v>580</v>
-      </c>
       <c r="H3" s="282" t="s">
+        <v>577</v>
+      </c>
+      <c r="I3" s="283" t="s">
         <v>578</v>
       </c>
-      <c r="I3" s="283" t="s">
-        <v>579</v>
-      </c>
-      <c r="J3" s="367"/>
-      <c r="K3" s="360"/>
+      <c r="J3" s="453"/>
+      <c r="K3" s="446"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" thickTop="1">
       <c r="A4" s="284"/>
@@ -25852,6 +25895,12 @@
         <f>(LN(I5/F5))*((I5-F5)*100)/100</f>
         <v>2.3320853967551494E-4</v>
       </c>
+      <c r="N5" s="402" t="s">
+        <v>612</v>
+      </c>
+      <c r="O5" s="403" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="284"/>
@@ -25886,6 +25935,12 @@
         <f t="shared" ref="K6:K75" si="2">(LN(I6/F6))*((I6-F6)*100)/100</f>
         <v>9.8923298162969088E-5</v>
       </c>
+      <c r="N6" s="404" t="s">
+        <v>613</v>
+      </c>
+      <c r="O6" s="405" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="284"/>
@@ -25919,6 +25974,12 @@
       <c r="K7" s="309">
         <f t="shared" si="2"/>
         <v>4.8865914860038197E-3</v>
+      </c>
+      <c r="N7" s="406" t="s">
+        <v>614</v>
+      </c>
+      <c r="O7" s="407" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
@@ -26734,7 +26795,7 @@
         <v>3.6599583660032941E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1">
+    <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="284"/>
       <c r="B33" s="288"/>
       <c r="C33" s="284" t="s">
@@ -26768,7 +26829,7 @@
         <v>2.4688406767109616E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1">
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="284"/>
       <c r="B34" s="289"/>
       <c r="C34" s="290"/>
@@ -26787,7 +26848,7 @@
         <v>9.154590437200807E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1">
+    <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="284"/>
       <c r="B35" s="288" t="s">
         <v>511</v>
@@ -26796,16 +26857,16 @@
         <v>445</v>
       </c>
       <c r="D35" s="308">
-        <v>18.977332891689102</v>
+        <v>28.980668564577499</v>
       </c>
       <c r="E35" s="294">
-        <v>23990</v>
+        <v>80963</v>
       </c>
       <c r="F35" s="303">
-        <v>0.1213399491171368</v>
+        <v>0.4095058899696018</v>
       </c>
       <c r="G35" s="303">
-        <v>7.7907461442267609E-2</v>
+        <v>4.5885157417585809E-2</v>
       </c>
       <c r="H35" s="293">
         <v>45585</v>
@@ -26816,30 +26877,30 @@
       </c>
       <c r="J35" s="306">
         <f t="shared" si="1"/>
-        <v>6.0075540284024544</v>
+        <v>0.82301553769546476</v>
       </c>
       <c r="K35" s="309">
         <f t="shared" si="2"/>
-        <v>0.40628078186882965</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1">
+        <v>1.90413640368817E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="284"/>
       <c r="B36" s="288"/>
       <c r="C36" s="284" t="s">
         <v>445</v>
       </c>
       <c r="D36" s="308">
-        <v>21.033208680189201</v>
+        <v>24.435746285710099</v>
       </c>
       <c r="E36" s="294">
-        <v>40838</v>
+        <v>23166</v>
       </c>
       <c r="F36" s="303">
-        <v>0.20655610012695427</v>
+        <v>0.117172207638499</v>
       </c>
       <c r="G36" s="303">
-        <v>6.9983838581713115E-2</v>
+        <v>5.8490891824225157E-2</v>
       </c>
       <c r="H36" s="293">
         <v>10364</v>
@@ -26850,14 +26911,14 @@
       </c>
       <c r="J36" s="306">
         <f t="shared" si="1"/>
-        <v>-2.25047067153442</v>
+        <v>-0.43036670500334806</v>
       </c>
       <c r="K36" s="309">
         <f t="shared" si="2"/>
-        <v>7.8086937661002373E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1">
+        <v>2.8687407897714703E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1">
       <c r="A37" s="284"/>
       <c r="B37" s="288"/>
       <c r="C37" s="284" t="s">
@@ -26891,23 +26952,23 @@
         <v>5.6638878911043913E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1">
+    <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="284"/>
       <c r="B38" s="288"/>
       <c r="C38" s="284" t="s">
         <v>445</v>
       </c>
       <c r="D38" s="308">
-        <v>24.435746285710099</v>
+        <v>21.033208680189201</v>
       </c>
       <c r="E38" s="294">
-        <v>23166</v>
+        <v>40838</v>
       </c>
       <c r="F38" s="303">
-        <v>0.117172207638499</v>
+        <v>0.20655610012695427</v>
       </c>
       <c r="G38" s="303">
-        <v>5.8490891824225157E-2</v>
+        <v>6.9983838581713115E-2</v>
       </c>
       <c r="H38" s="293">
         <v>20701</v>
@@ -26918,30 +26979,33 @@
       </c>
       <c r="J38" s="306">
         <f t="shared" si="1"/>
-        <v>1.9961190041878496</v>
+        <v>-0.16185918882470648</v>
       </c>
       <c r="K38" s="309">
         <f t="shared" si="2"/>
-        <v>4.320992366793229E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1">
+        <v>2.921756979117201E-4</v>
+      </c>
+      <c r="Q38" s="280" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="284"/>
       <c r="B39" s="288"/>
       <c r="C39" s="284" t="s">
         <v>445</v>
       </c>
       <c r="D39" s="308">
-        <v>28.980668564577499</v>
+        <v>18.977332891689102</v>
       </c>
       <c r="E39" s="294">
-        <v>80963</v>
+        <v>23990</v>
       </c>
       <c r="F39" s="303">
-        <v>0.4095058899696018</v>
+        <v>0.1213399491171368</v>
       </c>
       <c r="G39" s="303">
-        <v>4.5885157417585809E-2</v>
+        <v>7.7907461442267609E-2</v>
       </c>
       <c r="H39" s="293">
         <v>11350</v>
@@ -26952,14 +27016,14 @@
       </c>
       <c r="J39" s="306">
         <f t="shared" si="1"/>
-        <v>-8.7079378745536715</v>
+        <v>-0.23357444233643043</v>
       </c>
       <c r="K39" s="309">
         <f t="shared" si="2"/>
-        <v>0.39762057883147955</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1">
+        <v>1.316420575022131E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="284"/>
       <c r="B40" s="289"/>
       <c r="C40" s="290"/>
@@ -26971,14 +27035,14 @@
       <c r="I40" s="312"/>
       <c r="J40" s="314">
         <f>SUM(J35:J39)</f>
-        <v>-2.7433755069037629</v>
+        <v>0.20857520812500407</v>
       </c>
       <c r="K40" s="326">
         <f>SUM(K35:K39)</f>
-        <v>0.92576461081835437</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1">
+        <v>6.9478622555039313E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="284"/>
       <c r="B41" s="288" t="s">
         <v>456</v>
@@ -27014,7 +27078,7 @@
         <v>1.4554502401824792E-10</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1">
+    <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="284"/>
       <c r="B42" s="288"/>
       <c r="C42" s="284" t="s">
@@ -27048,7 +27112,7 @@
         <v>3.5219620971310194E-6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1">
+    <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="284"/>
       <c r="B43" s="288"/>
       <c r="C43" s="284" t="s">
@@ -27082,7 +27146,7 @@
         <v>1.1821396881743428E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1">
+    <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="284"/>
       <c r="B44" s="288"/>
       <c r="C44" s="284" t="s">
@@ -27116,7 +27180,7 @@
         <v>8.9075641617512302E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1">
+    <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="284"/>
       <c r="B45" s="288"/>
       <c r="C45" s="284" t="s">
@@ -27150,7 +27214,7 @@
         <v>3.6516690795694098E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1">
+    <row r="46" spans="1:17" ht="15" customHeight="1">
       <c r="A46" s="284"/>
       <c r="B46" s="289"/>
       <c r="C46" s="290"/>
@@ -27169,7 +27233,7 @@
         <v>0.12571406848966599</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1">
+    <row r="47" spans="1:17" ht="15" customHeight="1">
       <c r="A47" s="284"/>
       <c r="B47" s="288" t="s">
         <v>451</v>
@@ -27205,7 +27269,7 @@
         <v>1.6311273963409529E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1">
+    <row r="48" spans="1:17" ht="15" customHeight="1">
       <c r="A48" s="284"/>
       <c r="B48" s="288"/>
       <c r="C48" s="284" t="s">
@@ -27458,16 +27522,16 @@
         <v>262</v>
       </c>
       <c r="D56" s="308">
-        <v>18.0809702272735</v>
+        <v>32.604268527055503</v>
       </c>
       <c r="E56" s="294">
-        <v>15229</v>
+        <v>15129</v>
       </c>
       <c r="F56" s="303">
-        <v>7.7027348274484223E-2</v>
+        <v>7.6521554405717493E-2</v>
       </c>
       <c r="G56" s="309">
-        <v>8.2014577450916018E-2</v>
+        <v>3.7477691850089236E-2</v>
       </c>
       <c r="H56" s="294">
         <v>8686</v>
@@ -27478,11 +27542,11 @@
       </c>
       <c r="J56" s="306">
         <f t="shared" si="1"/>
-        <v>0.11595788666805237</v>
+        <v>0.22559055242990278</v>
       </c>
       <c r="K56" s="309">
         <f t="shared" si="2"/>
-        <v>5.1289704404902008E-4</v>
+        <v>5.9893087015853454E-4</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="12.75">
@@ -27492,16 +27556,16 @@
         <v>262</v>
       </c>
       <c r="D57" s="308">
-        <v>22.491443767095799</v>
+        <v>27.6834822686832</v>
       </c>
       <c r="E57" s="294">
-        <v>56440</v>
+        <v>35895</v>
       </c>
       <c r="F57" s="303">
-        <v>0.28547005953193838</v>
+        <v>0.18155470919381514</v>
       </c>
       <c r="G57" s="309">
-        <v>6.4918497519489721E-2</v>
+        <v>4.9059757626410364E-2</v>
       </c>
       <c r="H57" s="294">
         <v>19047</v>
@@ -27512,11 +27576,11 @@
       </c>
       <c r="J57" s="306">
         <f t="shared" si="1"/>
-        <v>-2.3053335026559183</v>
+        <v>3.9230424024811507E-2</v>
       </c>
       <c r="K57" s="309">
         <f t="shared" si="2"/>
-        <v>4.559173458217608E-2</v>
+        <v>1.1018123001170395E-5</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="281" customFormat="1" ht="12.75">
@@ -27560,16 +27624,16 @@
         <v>262</v>
       </c>
       <c r="D59" s="308">
-        <v>27.6834822686832</v>
+        <v>22.491443767095799</v>
       </c>
       <c r="E59" s="294">
-        <v>35895</v>
+        <v>56440</v>
       </c>
       <c r="F59" s="303">
-        <v>0.18155470919381514</v>
+        <v>0.28547005953193838</v>
       </c>
       <c r="G59" s="309">
-        <v>4.9059757626410364E-2</v>
+        <v>6.4918497519489721E-2</v>
       </c>
       <c r="H59" s="294">
         <v>27537</v>
@@ -27580,11 +27644,11 @@
       </c>
       <c r="J59" s="306">
         <f t="shared" si="1"/>
-        <v>2.2970333065117035</v>
+        <v>-0.47098166513124529</v>
       </c>
       <c r="K59" s="309">
         <f t="shared" si="2"/>
-        <v>3.1231411534774146E-2</v>
+        <v>1.5953313816474009E-3</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
@@ -27594,16 +27658,16 @@
         <v>262</v>
       </c>
       <c r="D60" s="308">
-        <v>32.604268527055503</v>
+        <v>18.0809702272735</v>
       </c>
       <c r="E60" s="294">
-        <v>15129</v>
+        <v>15229</v>
       </c>
       <c r="F60" s="303">
-        <v>7.6521554405717493E-2</v>
+        <v>7.7027348274484223E-2</v>
       </c>
       <c r="G60" s="309">
-        <v>3.7477691850089236E-2</v>
+        <v>8.2014577450916018E-2</v>
       </c>
       <c r="H60" s="294">
         <v>7745</v>
@@ -27614,11 +27678,11 @@
       </c>
       <c r="J60" s="306">
         <f t="shared" si="1"/>
-        <v>-6.9137652568841093E-2</v>
+        <v>-4.7486108258501164E-2</v>
       </c>
       <c r="K60" s="309">
         <f t="shared" si="2"/>
-        <v>5.9591543761192871E-5</v>
+        <v>9.1107876821559133E-5</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
@@ -27633,11 +27697,11 @@
       <c r="I61" s="312"/>
       <c r="J61" s="314">
         <f>SUM(J56:J60)</f>
-        <v>0.41136597789759344</v>
+        <v>0.11919914300756509</v>
       </c>
       <c r="K61" s="326">
         <f>SUM(K56:K60)</f>
-        <v>7.7995058600718398E-2</v>
+        <v>2.8958121475866306E-3</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
@@ -27736,16 +27800,16 @@
         <v>166</v>
       </c>
       <c r="D65" s="308">
-        <v>23.701000499436599</v>
+        <v>32.380417494634798</v>
       </c>
       <c r="E65" s="294">
-        <v>36346</v>
+        <v>22452</v>
       </c>
       <c r="F65" s="303">
-        <v>0.18383583954195307</v>
+        <v>0.1135608394155046</v>
       </c>
       <c r="G65" s="309">
-        <v>5.989654982666593E-2</v>
+        <v>4.6276500979868164E-2</v>
       </c>
       <c r="H65" s="294">
         <v>11967</v>
@@ -27756,11 +27820,11 @@
       </c>
       <c r="J65" s="306">
         <f t="shared" si="1"/>
-        <v>-1.6324504596445923</v>
+        <v>4.5272406935417099E-2</v>
       </c>
       <c r="K65" s="309">
         <f t="shared" si="2"/>
-        <v>3.233546765134384E-2</v>
+        <v>1.7108574370556839E-5</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15" customHeight="1">
@@ -27770,16 +27834,16 @@
         <v>166</v>
       </c>
       <c r="D66" s="308">
-        <v>18.571490148873799</v>
+        <v>30.061742172235199</v>
       </c>
       <c r="E66" s="294">
-        <v>70057</v>
+        <v>32301</v>
       </c>
       <c r="F66" s="303">
-        <v>0.35434401064190302</v>
+        <v>0.16337647755033913</v>
       </c>
       <c r="G66" s="309">
-        <v>6.9629016372382488E-2</v>
+        <v>4.9595987740317635E-2</v>
       </c>
       <c r="H66" s="294">
         <v>17219</v>
@@ -27790,11 +27854,11 @@
       </c>
       <c r="J66" s="306">
         <f t="shared" si="1"/>
-        <v>-3.5087593889496302</v>
+        <v>6.1174493065801139E-2</v>
       </c>
       <c r="K66" s="309">
         <f t="shared" si="2"/>
-        <v>0.14393493195216178</v>
+        <v>2.5190231560160496E-5</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1">
@@ -27838,16 +27902,16 @@
         <v>166</v>
       </c>
       <c r="D68" s="308">
-        <v>30.061742172235199</v>
+        <v>23.701000499436599</v>
       </c>
       <c r="E68" s="294">
-        <v>32301</v>
+        <v>36346</v>
       </c>
       <c r="F68" s="303">
-        <v>0.16337647755033913</v>
+        <v>0.18383583954195307</v>
       </c>
       <c r="G68" s="309">
-        <v>4.9595987740317635E-2</v>
+        <v>5.989654982666593E-2</v>
       </c>
       <c r="H68" s="294">
         <v>19370</v>
@@ -27858,11 +27922,11 @@
       </c>
       <c r="J68" s="306">
         <f t="shared" si="1"/>
-        <v>0.68234692109014228</v>
+        <v>5.3062294657403253E-2</v>
       </c>
       <c r="K68" s="309">
         <f t="shared" si="2"/>
-        <v>2.9528242554339498E-3</v>
+        <v>2.7100501933533106E-5</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1">
@@ -27872,16 +27936,16 @@
         <v>166</v>
       </c>
       <c r="D69" s="308">
-        <v>32.380417494634798</v>
+        <v>18.571490148873799</v>
       </c>
       <c r="E69" s="294">
-        <v>22452</v>
+        <v>70057</v>
       </c>
       <c r="F69" s="303">
-        <v>0.1135608394155046</v>
+        <v>0.35434401064190302</v>
       </c>
       <c r="G69" s="309">
-        <v>4.6276500979868164E-2</v>
+        <v>6.9629016372382488E-2</v>
       </c>
       <c r="H69" s="294">
         <v>36431</v>
@@ -27892,11 +27956,11 @@
       </c>
       <c r="J69" s="306">
         <f t="shared" si="1"/>
-        <v>7.6549722435196523</v>
+        <v>-8.1263483743349102E-2</v>
       </c>
       <c r="K69" s="309">
         <f t="shared" si="2"/>
-        <v>0.26607750675314468</v>
+        <v>5.4371044092332824E-5</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1">
@@ -27911,11 +27975,11 @@
       <c r="I70" s="312"/>
       <c r="J70" s="314">
         <f>SUM(J65:J69)</f>
-        <v>3.1596871041637558</v>
+        <v>4.1823499063455671E-2</v>
       </c>
       <c r="K70" s="326">
         <f>SUM(K65:K69)</f>
-        <v>0.44530985035805903</v>
+        <v>1.3289009793136865E-4</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1">
@@ -27927,16 +27991,16 @@
         <v>173</v>
       </c>
       <c r="D71" s="308">
-        <v>20.836316577152999</v>
+        <v>34.215202776533999</v>
       </c>
       <c r="E71" s="294">
-        <v>39924</v>
+        <v>9943</v>
       </c>
       <c r="F71" s="303">
-        <v>0.20193314416642641</v>
+        <v>5.0291084371475246E-2</v>
       </c>
       <c r="G71" s="309">
-        <v>6.8129445947299874E-2</v>
+        <v>3.8519561500553155E-2</v>
       </c>
       <c r="H71" s="294">
         <v>5633</v>
@@ -27947,11 +28011,11 @@
       </c>
       <c r="J71" s="306">
         <f t="shared" si="1"/>
-        <v>-3.0800383439761152</v>
+        <v>0.1307495163584825</v>
       </c>
       <c r="K71" s="309">
         <f t="shared" si="2"/>
-        <v>0.19466090520630877</v>
+        <v>2.7986636631336254E-4</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1">
@@ -27961,16 +28025,16 @@
         <v>173</v>
       </c>
       <c r="D72" s="308">
-        <v>23.180366538929601</v>
+        <v>29.7925186439107</v>
       </c>
       <c r="E72" s="294">
-        <v>82805</v>
+        <v>17876</v>
       </c>
       <c r="F72" s="303">
-        <v>0.4188226130322848</v>
+        <v>9.0415711980739374E-2</v>
       </c>
       <c r="G72" s="309">
-        <v>6.1735402451542784E-2</v>
+        <v>4.6598791675990153E-2</v>
       </c>
       <c r="H72" s="294">
         <v>9685</v>
@@ -27981,11 +28045,11 @@
       </c>
       <c r="J72" s="306">
         <f t="shared" si="1"/>
-        <v>-7.5518222688540719</v>
+        <v>7.8104609915057854E-2</v>
       </c>
       <c r="K72" s="309">
         <f t="shared" si="2"/>
-        <v>0.49012658051195701</v>
+        <v>7.4933072303271303E-5</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1">
@@ -28029,16 +28093,16 @@
         <v>173</v>
       </c>
       <c r="D74" s="308">
-        <v>29.7925186439107</v>
+        <v>23.180366538929601</v>
       </c>
       <c r="E74" s="294">
-        <v>17876</v>
+        <v>82805</v>
       </c>
       <c r="F74" s="303">
-        <v>9.0415711980739374E-2</v>
+        <v>0.4188226130322848</v>
       </c>
       <c r="G74" s="309">
-        <v>4.6598791675990153E-2</v>
+        <v>6.1735402451542784E-2</v>
       </c>
       <c r="H74" s="294">
         <v>42723</v>
@@ -28049,11 +28113,11 @@
       </c>
       <c r="J74" s="306">
         <f t="shared" si="1"/>
-        <v>9.5334758078009116</v>
+        <v>-0.19497631875746943</v>
       </c>
       <c r="K74" s="309">
         <f t="shared" si="2"/>
-        <v>0.48407079121147228</v>
+        <v>1.7064397080451262E-4</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1">
@@ -28062,16 +28126,16 @@
         <v>173</v>
       </c>
       <c r="D75" s="308">
-        <v>34.215202776533999</v>
+        <v>20.836316577152999</v>
       </c>
       <c r="E75" s="294">
-        <v>9943</v>
+        <v>39924</v>
       </c>
       <c r="F75" s="321">
-        <v>5.0291084371475246E-2</v>
+        <v>0.20193314416642641</v>
       </c>
       <c r="G75" s="321">
-        <v>3.8519561500553155E-2</v>
+        <v>6.8129445947299874E-2</v>
       </c>
       <c r="H75" s="294">
         <v>21045</v>
@@ -28082,11 +28146,11 @@
       </c>
       <c r="J75" s="322">
         <f t="shared" si="1"/>
-        <v>5.1964059669333444</v>
+        <v>4.8365920176795278E-3</v>
       </c>
       <c r="K75" s="321">
         <f t="shared" si="2"/>
-        <v>0.21129612736457498</v>
+        <v>2.6667353331074907E-7</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1">
@@ -28100,40 +28164,16 @@
       <c r="I76" s="316"/>
       <c r="J76" s="323">
         <f>SUM(J71:J75)</f>
-        <v>4.1433801481881272</v>
+        <v>6.4073385817809692E-2</v>
       </c>
       <c r="K76" s="326">
         <f>SUM(K71:K75)</f>
-        <v>1.3801669946553905</v>
+        <v>5.383004440317812E-4</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1">
       <c r="B77" s="291"/>
       <c r="I77" s="315"/>
-    </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1">
-      <c r="B79" s="280" t="s">
-        <v>609</v>
-      </c>
-      <c r="C79" s="442" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1">
-      <c r="B80" s="280" t="s">
-        <v>610</v>
-      </c>
-      <c r="C80" s="442" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="15" customHeight="1">
-      <c r="B81" s="280" t="s">
-        <v>607</v>
-      </c>
-      <c r="C81" s="442" t="s">
-        <v>613</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -28150,12 +28190,2157 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13:T20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.75" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="7" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9.25" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.25" style="4" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" hidden="1">
+      <c r="A1" s="347" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="347" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="347" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="347" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="347" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="347" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="347" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="347" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="347" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="347" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="347" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" hidden="1">
+      <c r="A2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>216</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>452.73416414058318</v>
+      </c>
+      <c r="F2" s="4">
+        <v>547.55396373602468</v>
+      </c>
+      <c r="G2" s="4">
+        <v>222</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.5145906350360769</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.12844063367710001</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.40730779786891591</v>
+      </c>
+      <c r="K2" s="348">
+        <v>2.7027027027027029E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1">
+      <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>215</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>392.84506712381261</v>
+      </c>
+      <c r="F3" s="4">
+        <v>452.07714855206808</v>
+      </c>
+      <c r="G3" s="4">
+        <v>223</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.2222681830277939</v>
+      </c>
+      <c r="I3" s="4">
+        <v>9.3296722440254248E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.40730779786891591</v>
+      </c>
+      <c r="K3" s="348">
+        <v>3.5874439461883408E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" hidden="1">
+      <c r="A4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>210</v>
+      </c>
+      <c r="D4" s="4">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>368.26052802419161</v>
+      </c>
+      <c r="F4" s="4">
+        <v>392.66496858238548</v>
+      </c>
+      <c r="G4" s="4">
+        <v>226</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.50559050505765457</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2.120544933461127E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.40730779786891591</v>
+      </c>
+      <c r="K4" s="348">
+        <v>7.0796460176991149E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" hidden="1">
+      <c r="A5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>210</v>
+      </c>
+      <c r="D5" s="4">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
+        <v>349.81748191983149</v>
+      </c>
+      <c r="F5" s="4">
+        <v>368.08254757084882</v>
+      </c>
+      <c r="G5" s="4">
+        <v>224</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.63912189768217709</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3.1898620469515512E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.40730779786891591</v>
+      </c>
+      <c r="K5" s="348">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" hidden="1">
+      <c r="A6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>197</v>
+      </c>
+      <c r="D6" s="4">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4">
+        <v>334.52606784760411</v>
+      </c>
+      <c r="F6" s="4">
+        <v>349.73211039312071</v>
+      </c>
+      <c r="G6" s="4">
+        <v>223</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-4.3821112703526552E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.9461913721723341E-4</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.40730779786891591</v>
+      </c>
+      <c r="K6" s="348">
+        <v>0.11659192825112109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" hidden="1">
+      <c r="A7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>191</v>
+      </c>
+      <c r="D7" s="4">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4">
+        <v>322.76944126795109</v>
+      </c>
+      <c r="F7" s="4">
+        <v>334.4544295967379</v>
+      </c>
+      <c r="G7" s="4">
+        <v>215</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5.2912942786513904E-3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.6841751313794722E-6</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.40730779786891591</v>
+      </c>
+      <c r="K7" s="348">
+        <v>0.1116279069767442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" hidden="1">
+      <c r="A8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>191</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4">
+        <v>303.83074875252362</v>
+      </c>
+      <c r="F8" s="4">
+        <v>322.72044876930369</v>
+      </c>
+      <c r="G8" s="4">
+        <v>234</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-0.57785499106696547</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4.3448876191281578E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.40730779786891591</v>
+      </c>
+      <c r="K8" s="348">
+        <v>0.1837606837606838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" hidden="1">
+      <c r="A9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>191</v>
+      </c>
+      <c r="D9" s="4">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4">
+        <v>284.78085869044997</v>
+      </c>
+      <c r="F9" s="4">
+        <v>303.6756454324269</v>
+      </c>
+      <c r="G9" s="4">
+        <v>224</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-0.31316243683988332</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.1070070521110611E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.40730779786891591</v>
+      </c>
+      <c r="K9" s="348">
+        <v>0.1473214285714286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1">
+      <c r="A10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>184</v>
+      </c>
+      <c r="D10" s="4">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4">
+        <v>254.2434361212398</v>
+      </c>
+      <c r="F10" s="4">
+        <v>284.76133063617402</v>
+      </c>
+      <c r="G10" s="4">
+        <v>224</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-0.54287199992498358</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3.6242480725316661E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.40730779786891591</v>
+      </c>
+      <c r="K10" s="348">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" hidden="1">
+      <c r="A11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>182</v>
+      </c>
+      <c r="D11" s="4">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-8.6958108131574967</v>
+      </c>
+      <c r="F11" s="4">
+        <v>254.19866004794719</v>
+      </c>
+      <c r="G11" s="4">
+        <v>223</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-0.57849368304754545</v>
+      </c>
+      <c r="I11" s="4">
+        <v>4.1507641197377397E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.40730779786891591</v>
+      </c>
+      <c r="K11" s="348">
+        <v>0.1838565022421525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" hidden="1"/>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="14" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A14" s="349" t="s">
+        <v>576</v>
+      </c>
+      <c r="B14" s="350"/>
+      <c r="C14" s="350"/>
+      <c r="D14" s="350"/>
+      <c r="E14" s="351"/>
+      <c r="F14" s="352"/>
+      <c r="G14" s="353"/>
+      <c r="H14" s="352"/>
+      <c r="I14" s="354"/>
+      <c r="J14" s="354"/>
+      <c r="K14" s="354"/>
+      <c r="L14" s="355"/>
+      <c r="M14" s="355"/>
+      <c r="N14" s="356" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="356"/>
+      <c r="P14" s="356"/>
+      <c r="Q14" s="357">
+        <f>Q29</f>
+        <v>0.40226324974333838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A15" s="358"/>
+      <c r="B15" s="359"/>
+      <c r="C15" s="359"/>
+      <c r="D15" s="359"/>
+      <c r="E15" s="360"/>
+      <c r="F15" s="361"/>
+      <c r="G15" s="362"/>
+      <c r="H15" s="362"/>
+      <c r="I15" s="363"/>
+      <c r="J15" s="363"/>
+      <c r="K15" s="363"/>
+      <c r="L15" s="361"/>
+      <c r="M15" s="361"/>
+      <c r="N15" s="361" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" s="361"/>
+      <c r="P15" s="361"/>
+      <c r="Q15" s="364">
+        <f>P29</f>
+        <v>0.29682205746811419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="435" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="436"/>
+      <c r="C16" s="436"/>
+      <c r="D16" s="437"/>
+      <c r="E16" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="440" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="440"/>
+      <c r="K16" s="440"/>
+      <c r="L16" s="441" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="442"/>
+      <c r="N16" s="440" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" s="443"/>
+      <c r="P16" s="441" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="433" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="438"/>
+      <c r="B17" s="439"/>
+      <c r="C17" s="439"/>
+      <c r="D17" s="439"/>
+      <c r="E17" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="444"/>
+      <c r="Q17" s="434"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A18" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A19" s="365">
+        <v>1</v>
+      </c>
+      <c r="B19" s="366">
+        <v>420.16297794725222</v>
+      </c>
+      <c r="C19" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="366">
+        <v>485.63980834602052</v>
+      </c>
+      <c r="E19" s="368">
+        <f t="shared" ref="E19:E23" si="0">SUM(F19:H19)</f>
+        <v>20028</v>
+      </c>
+      <c r="F19" s="369">
+        <v>19542</v>
+      </c>
+      <c r="G19" s="370">
+        <v>257</v>
+      </c>
+      <c r="H19" s="371">
+        <v>229</v>
+      </c>
+      <c r="I19" s="372">
+        <f>SUM(E19:E$19)/E$29</f>
+        <v>9.5678053953861655E-2</v>
+      </c>
+      <c r="J19" s="372">
+        <f>SUM(F19:F$19)/F$29</f>
+        <v>0.10501313873320042</v>
+      </c>
+      <c r="K19" s="372">
+        <f>SUM(H19:H$19)/H$29</f>
+        <v>1.9710793596143916E-2</v>
+      </c>
+      <c r="L19" s="75">
+        <f>H19/SUM(F19,H19)</f>
+        <v>1.1582621010571038E-2</v>
+      </c>
+      <c r="M19" s="373">
+        <f>SUM(H19:H$19)/SUM(F19:F$19,H19:H$19)</f>
+        <v>1.1582621010571038E-2</v>
+      </c>
+      <c r="N19" s="374">
+        <f>F19/H19</f>
+        <v>85.336244541484717</v>
+      </c>
+      <c r="O19" s="375">
+        <f>SUM(F19:$G$19)/SUM(H19:$I$19)</f>
+        <v>86.422407302407407</v>
+      </c>
+      <c r="P19" s="376">
+        <f>ABS(J19-K19)</f>
+        <v>8.5302345137056507E-2</v>
+      </c>
+      <c r="Q19" s="377">
+        <f>((J$28)+(J$28-J19))*((K$28)-(K$28-K19))/2</f>
+        <v>1.8675847444917244E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="365">
+        <v>2</v>
+      </c>
+      <c r="B20" s="366">
+        <v>381.18415632755722</v>
+      </c>
+      <c r="C20" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="366">
+        <v>420.15673332028729</v>
+      </c>
+      <c r="E20" s="368">
+        <f t="shared" si="0"/>
+        <v>20197</v>
+      </c>
+      <c r="F20" s="369">
+        <v>19386</v>
+      </c>
+      <c r="G20" s="370">
+        <v>426</v>
+      </c>
+      <c r="H20" s="371">
+        <v>385</v>
+      </c>
+      <c r="I20" s="372">
+        <f>SUM(E$19:E20)/E$29</f>
+        <v>0.19216345717465974</v>
+      </c>
+      <c r="J20" s="372">
+        <f>SUM(F$19:F20)/F$29</f>
+        <v>0.20918797792477875</v>
+      </c>
+      <c r="K20" s="372">
+        <f>SUM(H$19:H20)/H$29</f>
+        <v>5.2849027371320363E-2</v>
+      </c>
+      <c r="L20" s="75">
+        <f t="shared" ref="L20:L29" si="1">H20/SUM(F20,H20)</f>
+        <v>1.9472965454453494E-2</v>
+      </c>
+      <c r="M20" s="373">
+        <f>SUM(H$19:H20)/SUM(F$19:F20,H$19:H20)</f>
+        <v>1.5527793232512266E-2</v>
+      </c>
+      <c r="N20" s="374">
+        <f>F20/H20</f>
+        <v>50.353246753246751</v>
+      </c>
+      <c r="O20" s="375">
+        <f>SUM(F$19:$G20)/SUM(H$19:$I20)</f>
+        <v>64.482799956707922</v>
+      </c>
+      <c r="P20" s="376">
+        <f>ABS(J20-K20)</f>
+        <v>0.15633895055345839</v>
+      </c>
+      <c r="Q20" s="377">
+        <f>((J$28-J19)+(J$28-J20))*((K$28-K19)-(K$28-K20))/2</f>
+        <v>2.7932198747059645E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="365">
+        <v>3</v>
+      </c>
+      <c r="B21" s="366">
+        <v>363.49389954800409</v>
+      </c>
+      <c r="C21" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="366">
+        <v>381.18304928863353</v>
+      </c>
+      <c r="E21" s="368">
+        <f t="shared" si="0"/>
+        <v>20380</v>
+      </c>
+      <c r="F21" s="369">
+        <v>19211</v>
+      </c>
+      <c r="G21" s="370">
+        <v>609</v>
+      </c>
+      <c r="H21" s="371">
+        <v>560</v>
+      </c>
+      <c r="I21" s="372">
+        <f>SUM(E$19:E21)/E$29</f>
+        <v>0.28952309066675586</v>
+      </c>
+      <c r="J21" s="372">
+        <f>SUM(F$19:F21)/F$29</f>
+        <v>0.31242241698953738</v>
+      </c>
+      <c r="K21" s="372">
+        <f>SUM(H$19:H21)/H$29</f>
+        <v>0.10105009468066793</v>
+      </c>
+      <c r="L21" s="75">
+        <f t="shared" si="1"/>
+        <v>2.8324313388295989E-2</v>
+      </c>
+      <c r="M21" s="373">
+        <f>SUM(H$19:H21)/SUM(F$19:F21,H$19:H21)</f>
+        <v>1.9793299951106839E-2</v>
+      </c>
+      <c r="N21" s="374">
+        <f t="shared" ref="N21:N29" si="2">F21/H21</f>
+        <v>34.30535714285714</v>
+      </c>
+      <c r="O21" s="375">
+        <f>SUM(F$19:$G21)/SUM(H$19:$I21)</f>
+        <v>50.597773966254039</v>
+      </c>
+      <c r="P21" s="376">
+        <f>ABS(J21-K21)</f>
+        <v>0.21137232230886943</v>
+      </c>
+      <c r="Q21" s="377">
+        <f t="shared" ref="Q21:Q28" si="3">((J$28-J20)+(J$28-J21))*((K$28-K20)-(K$28-K21))/2</f>
+        <v>3.5629978432087428E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="365">
+        <v>4</v>
+      </c>
+      <c r="B22" s="366">
+        <v>348.85134401563909</v>
+      </c>
+      <c r="C22" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="366">
+        <v>363.49365380633299</v>
+      </c>
+      <c r="E22" s="368">
+        <f t="shared" si="0"/>
+        <v>20513</v>
+      </c>
+      <c r="F22" s="369">
+        <v>19081</v>
+      </c>
+      <c r="G22" s="370">
+        <v>742</v>
+      </c>
+      <c r="H22" s="371">
+        <v>690</v>
+      </c>
+      <c r="I22" s="372">
+        <f>SUM(E$19:E22)/E$29</f>
+        <v>0.38751809370028711</v>
+      </c>
+      <c r="J22" s="372">
+        <f>SUM(F$19:F22)/F$29</f>
+        <v>0.41495827310294425</v>
+      </c>
+      <c r="K22" s="372">
+        <f>SUM(H$19:H22)/H$29</f>
+        <v>0.16044069547254261</v>
+      </c>
+      <c r="L22" s="75">
+        <f t="shared" si="1"/>
+        <v>3.4899600424864702E-2</v>
+      </c>
+      <c r="M22" s="373">
+        <f>SUM(H$19:H22)/SUM(F$19:F22,H$19:H22)</f>
+        <v>2.3569875069546307E-2</v>
+      </c>
+      <c r="N22" s="374">
+        <f t="shared" si="2"/>
+        <v>27.653623188405795</v>
+      </c>
+      <c r="O22" s="375">
+        <f>SUM(F$19:$G22)/SUM(H$19:$I22)</f>
+        <v>42.496242548788139</v>
+      </c>
+      <c r="P22" s="376">
+        <f t="shared" ref="P22:P28" si="4">ABS(J22-K22)</f>
+        <v>0.25451757763040161</v>
+      </c>
+      <c r="Q22" s="377">
+        <f t="shared" si="3"/>
+        <v>3.7790812697374214E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="365">
+        <v>5</v>
+      </c>
+      <c r="B23" s="366">
+        <v>335.09409088491208</v>
+      </c>
+      <c r="C23" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="366">
+        <v>348.85072057258043</v>
+      </c>
+      <c r="E23" s="368">
+        <f t="shared" si="0"/>
+        <v>20707</v>
+      </c>
+      <c r="F23" s="369">
+        <v>18914</v>
+      </c>
+      <c r="G23" s="370">
+        <v>936</v>
+      </c>
+      <c r="H23" s="371">
+        <v>857</v>
+      </c>
+      <c r="I23" s="372">
+        <f>SUM(E$19:E23)/E$29</f>
+        <v>0.4864398763656862</v>
+      </c>
+      <c r="J23" s="372">
+        <f>SUM(F$19:F23)/F$29</f>
+        <v>0.51659671880961466</v>
+      </c>
+      <c r="K23" s="372">
+        <f>SUM(H$19:H23)/H$29</f>
+        <v>0.23420554312274058</v>
+      </c>
+      <c r="L23" s="75">
+        <f t="shared" si="1"/>
+        <v>4.3346315310302967E-2</v>
+      </c>
+      <c r="M23" s="373">
+        <f>SUM(H$19:H23)/SUM(F$19:F23,H$19:H23)</f>
+        <v>2.7525163117697638E-2</v>
+      </c>
+      <c r="N23" s="374">
+        <f t="shared" si="2"/>
+        <v>22.070011668611436</v>
+      </c>
+      <c r="O23" s="375">
+        <f>SUM(F$19:$G23)/SUM(H$19:$I23)</f>
+        <v>36.402487412108385</v>
+      </c>
+      <c r="P23" s="376">
+        <f t="shared" si="4"/>
+        <v>0.28239117568687411</v>
+      </c>
+      <c r="Q23" s="377">
+        <f t="shared" si="3"/>
+        <v>3.9406841622092313E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="365">
+        <v>6</v>
+      </c>
+      <c r="B24" s="366">
+        <v>321.59931738668689</v>
+      </c>
+      <c r="C24" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="366">
+        <v>335.09314288959303</v>
+      </c>
+      <c r="E24" s="368">
+        <f t="shared" ref="E24:E29" si="5">SUM(F24:H24)</f>
+        <v>20865</v>
+      </c>
+      <c r="F24" s="370">
+        <v>18767</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1094</v>
+      </c>
+      <c r="H24" s="371">
+        <v>1004</v>
+      </c>
+      <c r="I24" s="372">
+        <f>SUM(E$19:E24)/E$29</f>
+        <v>0.5861164589374519</v>
+      </c>
+      <c r="J24" s="372">
+        <f>SUM(F$19:F24)/F$29</f>
+        <v>0.61744522840975646</v>
+      </c>
+      <c r="K24" s="372">
+        <f>SUM(H$19:H24)/H$29</f>
+        <v>0.32062317094164228</v>
+      </c>
+      <c r="L24" s="75">
+        <f t="shared" si="1"/>
+        <v>5.0781447574730666E-2</v>
+      </c>
+      <c r="M24" s="373">
+        <f>SUM(H$19:H24)/SUM(F$19:F24,H$19:H24)</f>
+        <v>3.1401210527203141E-2</v>
+      </c>
+      <c r="N24" s="374">
+        <f t="shared" si="2"/>
+        <v>18.692231075697212</v>
+      </c>
+      <c r="O24" s="375">
+        <f>SUM(F$19:$G24)/SUM(H$19:$I24)</f>
+        <v>31.919453975470766</v>
+      </c>
+      <c r="P24" s="376">
+        <f t="shared" si="4"/>
+        <v>0.29682205746811419</v>
+      </c>
+      <c r="Q24" s="377">
+        <f t="shared" si="3"/>
+        <v>3.7417020355988623E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="365">
+        <v>7</v>
+      </c>
+      <c r="B25" s="366">
+        <v>307.03042671539072</v>
+      </c>
+      <c r="C25" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="366">
+        <v>321.59855343832697</v>
+      </c>
+      <c r="E25" s="368">
+        <f t="shared" si="5"/>
+        <v>21012</v>
+      </c>
+      <c r="F25" s="370">
+        <v>18543</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1241</v>
+      </c>
+      <c r="H25" s="371">
+        <v>1228</v>
+      </c>
+      <c r="I25" s="372">
+        <f>SUM(E$19:E25)/E$29</f>
+        <v>0.68649529205501436</v>
+      </c>
+      <c r="J25" s="372">
+        <f>SUM(F$19:F25)/F$29</f>
+        <v>0.7170900258475692</v>
+      </c>
+      <c r="K25" s="372">
+        <f>SUM(H$19:H25)/H$29</f>
+        <v>0.42632122568428299</v>
+      </c>
+      <c r="L25" s="75">
+        <f t="shared" si="1"/>
+        <v>6.2111172930049065E-2</v>
+      </c>
+      <c r="M25" s="373">
+        <f>SUM(H$19:H25)/SUM(F$19:F25,H$19:H25)</f>
+        <v>3.5788348013323985E-2</v>
+      </c>
+      <c r="N25" s="374">
+        <f t="shared" si="2"/>
+        <v>15.100162866449512</v>
+      </c>
+      <c r="O25" s="375">
+        <f>SUM(F$19:$G25)/SUM(H$19:$I25)</f>
+        <v>27.997725829527781</v>
+      </c>
+      <c r="P25" s="376">
+        <f t="shared" si="4"/>
+        <v>0.29076880016328621</v>
+      </c>
+      <c r="Q25" s="377">
+        <f t="shared" si="3"/>
+        <v>3.5169164562403335E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="365">
+        <v>8</v>
+      </c>
+      <c r="B26" s="366">
+        <v>288.70240865548078</v>
+      </c>
+      <c r="C26" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="366">
+        <v>307.02738216047931</v>
+      </c>
+      <c r="E26" s="368">
+        <f t="shared" si="5"/>
+        <v>21304</v>
+      </c>
+      <c r="F26" s="370">
+        <v>18222</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1533</v>
+      </c>
+      <c r="H26" s="371">
+        <v>1549</v>
+      </c>
+      <c r="I26" s="372">
+        <f>SUM(E$19:E26)/E$29</f>
+        <v>0.78826907183497585</v>
+      </c>
+      <c r="J26" s="372">
+        <f>SUM(F$19:F26)/F$29</f>
+        <v>0.81500986076704407</v>
+      </c>
+      <c r="K26" s="372">
+        <f>SUM(H$19:H26)/H$29</f>
+        <v>0.55964882079531764</v>
+      </c>
+      <c r="L26" s="75">
+        <f t="shared" si="1"/>
+        <v>7.8347073997268729E-2</v>
+      </c>
+      <c r="M26" s="373">
+        <f>SUM(H$19:H26)/SUM(F$19:F26,H$19:H26)</f>
+        <v>4.1108188761317083E-2</v>
+      </c>
+      <c r="N26" s="374">
+        <f t="shared" si="2"/>
+        <v>11.763718528082634</v>
+      </c>
+      <c r="O26" s="375">
+        <f>SUM(F$19:$G26)/SUM(H$19:$I26)</f>
+        <v>24.364568852440222</v>
+      </c>
+      <c r="P26" s="376">
+        <f t="shared" si="4"/>
+        <v>0.25536103997172643</v>
+      </c>
+      <c r="Q26" s="377">
+        <f t="shared" si="3"/>
+        <v>3.1191998434927024E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="365">
+        <v>9</v>
+      </c>
+      <c r="B27" s="366">
+        <v>263.59563540986932</v>
+      </c>
+      <c r="C27" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="366">
+        <v>288.70178516991518</v>
+      </c>
+      <c r="E27" s="368">
+        <f t="shared" si="5"/>
+        <v>21630</v>
+      </c>
+      <c r="F27" s="370">
+        <v>17768</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1859</v>
+      </c>
+      <c r="H27" s="371">
+        <v>2003</v>
+      </c>
+      <c r="I27" s="372">
+        <f>SUM(E$19:E27)/E$29</f>
+        <v>0.8916002235736431</v>
+      </c>
+      <c r="J27" s="372">
+        <f>SUM(F$19:F27)/F$29</f>
+        <v>0.91049002907179821</v>
+      </c>
+      <c r="K27" s="372">
+        <f>SUM(H$19:H27)/H$29</f>
+        <v>0.73205370976071615</v>
+      </c>
+      <c r="L27" s="75">
+        <f t="shared" si="1"/>
+        <v>0.10130999949420869</v>
+      </c>
+      <c r="M27" s="373">
+        <f>SUM(H$19:H27)/SUM(F$19:F27,H$19:H27)</f>
+        <v>4.779727884274948E-2</v>
+      </c>
+      <c r="N27" s="374">
+        <f t="shared" si="2"/>
+        <v>8.8706939590614073</v>
+      </c>
+      <c r="O27" s="375">
+        <f>SUM(F$19:$G27)/SUM(H$19:$I27)</f>
+        <v>20.933428958237634</v>
+      </c>
+      <c r="P27" s="376">
+        <f t="shared" si="4"/>
+        <v>0.17843631931108206</v>
+      </c>
+      <c r="Q27" s="377">
+        <f t="shared" si="3"/>
+        <v>2.3662580506662027E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="378">
+        <v>10</v>
+      </c>
+      <c r="B28" s="379">
+        <v>145.50772173921891</v>
+      </c>
+      <c r="C28" s="380" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="379">
+        <v>263.59557408972898</v>
+      </c>
+      <c r="E28" s="381">
+        <f t="shared" si="5"/>
+        <v>22691</v>
+      </c>
+      <c r="F28" s="382">
+        <v>16657</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2921</v>
+      </c>
+      <c r="H28" s="383">
+        <v>3113</v>
+      </c>
+      <c r="I28" s="384">
+        <f>SUM(E$19:E28)/E$29</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="384">
+        <f>SUM(F$19:F28)/F$29</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="384">
+        <f>SUM(H$19:H28)/H$29</f>
+        <v>1</v>
+      </c>
+      <c r="L28" s="385">
+        <f t="shared" si="1"/>
+        <v>0.15746079919069297</v>
+      </c>
+      <c r="M28" s="386">
+        <f>SUM(H$19:H28)/SUM(F$19:F28,H$19:H28)</f>
+        <v>5.8763131673317856E-2</v>
+      </c>
+      <c r="N28" s="374">
+        <f t="shared" si="2"/>
+        <v>5.3507870221651137</v>
+      </c>
+      <c r="O28" s="375">
+        <f>SUM(F$19:$G28)/SUM(H$19:$I28)</f>
+        <v>17.009561341958623</v>
+      </c>
+      <c r="P28" s="387">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="377">
+        <f t="shared" si="3"/>
+        <v>1.1991932324818908E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A29" s="388" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="389"/>
+      <c r="C29" s="389"/>
+      <c r="D29" s="389"/>
+      <c r="E29" s="390">
+        <f t="shared" si="5"/>
+        <v>209327</v>
+      </c>
+      <c r="F29" s="391">
+        <f>SUM(F19:F28)</f>
+        <v>186091</v>
+      </c>
+      <c r="G29" s="391">
+        <f>SUM(G19:G28)</f>
+        <v>11618</v>
+      </c>
+      <c r="H29" s="392">
+        <f>SUM(H19:H28)</f>
+        <v>11618</v>
+      </c>
+      <c r="I29" s="393"/>
+      <c r="J29" s="393"/>
+      <c r="K29" s="393"/>
+      <c r="L29" s="394">
+        <f t="shared" si="1"/>
+        <v>5.8763131673317856E-2</v>
+      </c>
+      <c r="M29" s="395"/>
+      <c r="N29" s="396">
+        <f t="shared" si="2"/>
+        <v>16.01747288689964</v>
+      </c>
+      <c r="O29" s="397"/>
+      <c r="P29" s="398">
+        <f>MAX(P19:P28)</f>
+        <v>0.29682205746811419</v>
+      </c>
+      <c r="Q29" s="399">
+        <f>1-2*SUM(Q19:Q28)</f>
+        <v>0.40226324974333838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" thickTop="1"/>
+    <row r="33" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="34" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A34" s="349" t="s">
+        <v>575</v>
+      </c>
+      <c r="B34" s="350"/>
+      <c r="C34" s="350"/>
+      <c r="D34" s="350"/>
+      <c r="E34" s="351"/>
+      <c r="F34" s="352"/>
+      <c r="G34" s="353"/>
+      <c r="H34" s="352"/>
+      <c r="I34" s="354"/>
+      <c r="J34" s="354"/>
+      <c r="K34" s="354"/>
+      <c r="L34" s="355"/>
+      <c r="M34" s="355"/>
+      <c r="N34" s="356" t="s">
+        <v>84</v>
+      </c>
+      <c r="O34" s="356"/>
+      <c r="P34" s="356"/>
+      <c r="Q34" s="357">
+        <f>Q49</f>
+        <v>0.42424584290365641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A35" s="358"/>
+      <c r="B35" s="359"/>
+      <c r="C35" s="359"/>
+      <c r="D35" s="359"/>
+      <c r="E35" s="360"/>
+      <c r="F35" s="361"/>
+      <c r="G35" s="362"/>
+      <c r="H35" s="362"/>
+      <c r="I35" s="363"/>
+      <c r="J35" s="363"/>
+      <c r="K35" s="363"/>
+      <c r="L35" s="361"/>
+      <c r="M35" s="361"/>
+      <c r="N35" s="361" t="s">
+        <v>85</v>
+      </c>
+      <c r="O35" s="361"/>
+      <c r="P35" s="361"/>
+      <c r="Q35" s="364">
+        <f>P49</f>
+        <v>0.30981999350507938</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="435" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="436"/>
+      <c r="C36" s="436"/>
+      <c r="D36" s="437"/>
+      <c r="E36" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" s="440" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="440"/>
+      <c r="K36" s="440"/>
+      <c r="L36" s="441" t="s">
+        <v>90</v>
+      </c>
+      <c r="M36" s="442"/>
+      <c r="N36" s="440" t="s">
+        <v>91</v>
+      </c>
+      <c r="O36" s="443"/>
+      <c r="P36" s="441" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q36" s="433" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="438"/>
+      <c r="B37" s="439"/>
+      <c r="C37" s="439"/>
+      <c r="D37" s="439"/>
+      <c r="E37" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="J37" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="K37" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="L37" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="M37" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="N37" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="P37" s="444"/>
+      <c r="Q37" s="434"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A38" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="L38" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="M38" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="N38" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="O38" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="P38" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q38" s="95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A39" s="365">
+        <v>1</v>
+      </c>
+      <c r="B39" s="366">
+        <v>427.7201735200029</v>
+      </c>
+      <c r="C39" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="366">
+        <v>483.3211330236208</v>
+      </c>
+      <c r="E39" s="368">
+        <f t="shared" ref="E39:E43" si="6">SUM(F39:H39)</f>
+        <v>10666</v>
+      </c>
+      <c r="F39" s="369">
+        <v>10350</v>
+      </c>
+      <c r="G39" s="370">
+        <v>257</v>
+      </c>
+      <c r="H39" s="371">
+        <v>59</v>
+      </c>
+      <c r="I39" s="372">
+        <f>SUM(E$39:E39)/E$49</f>
+        <v>9.2173943102077494E-2</v>
+      </c>
+      <c r="J39" s="372">
+        <f>SUM(F$39:F39)/F$49</f>
+        <v>0.10245698786354906</v>
+      </c>
+      <c r="K39" s="372">
+        <f>SUM(H$39:H39)/H$49</f>
+        <v>1.9155844155844155E-2</v>
+      </c>
+      <c r="L39" s="75">
+        <f>H39/SUM(F39,H39)</f>
+        <v>5.6681717744259778E-3</v>
+      </c>
+      <c r="M39" s="373">
+        <f>SUM(H$19:H39)/SUM(F$19:F39,H$19:H39)</f>
+        <v>5.7401306468027019E-2</v>
+      </c>
+      <c r="N39" s="374">
+        <f>F39/H39</f>
+        <v>175.42372881355934</v>
+      </c>
+      <c r="O39" s="375">
+        <f>SUM(F$19:$G39)/SUM(H$19:$I39)</f>
+        <v>17.425594733734705</v>
+      </c>
+      <c r="P39" s="376">
+        <f>ABS(J39-K39)</f>
+        <v>8.3301143707704917E-2</v>
+      </c>
+      <c r="Q39" s="377">
+        <f>((J$28)+(J$28-J39))*((K$28)-(K$28-K39))/2</f>
+        <v>1.8174519109748467E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="365">
+        <v>2</v>
+      </c>
+      <c r="B40" s="366">
+        <v>389.42612422371582</v>
+      </c>
+      <c r="C40" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="366">
+        <v>427.71869062271139</v>
+      </c>
+      <c r="E40" s="368">
+        <f t="shared" si="6"/>
+        <v>10836</v>
+      </c>
+      <c r="F40" s="369">
+        <v>10329</v>
+      </c>
+      <c r="G40" s="370">
+        <v>426</v>
+      </c>
+      <c r="H40" s="371">
+        <v>81</v>
+      </c>
+      <c r="I40" s="372">
+        <f>SUM(E$39:E40)/E$49</f>
+        <v>0.18581700024197173</v>
+      </c>
+      <c r="J40" s="372">
+        <f>SUM(F$39:F40)/F$49</f>
+        <v>0.20470609198360687</v>
+      </c>
+      <c r="K40" s="372">
+        <f>SUM(H$39:H40)/H$49</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="L40" s="75">
+        <f t="shared" ref="L40:L49" si="7">H40/SUM(F40,H40)</f>
+        <v>7.7809798270893375E-3</v>
+      </c>
+      <c r="M40" s="373">
+        <f>SUM(H$19:H40)/SUM(F$19:F40,H$19:H40)</f>
+        <v>5.6160312514264711E-2</v>
+      </c>
+      <c r="N40" s="374">
+        <f>F40/H40</f>
+        <v>127.51851851851852</v>
+      </c>
+      <c r="O40" s="375">
+        <f>SUM(F$19:$G40)/SUM(H$19:$I40)</f>
+        <v>17.82506509420292</v>
+      </c>
+      <c r="P40" s="376">
+        <f>ABS(J40-K40)</f>
+        <v>0.15925154652906143</v>
+      </c>
+      <c r="Q40" s="377">
+        <f>((J$28-J39)+(J$28-J40))*((K$28-K39)-(K$28-K40))/2</f>
+        <v>2.2259706255256525E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="365">
+        <v>3</v>
+      </c>
+      <c r="B41" s="366">
+        <v>368.74878454173802</v>
+      </c>
+      <c r="C41" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="366">
+        <v>389.41677037018178</v>
+      </c>
+      <c r="E41" s="368">
+        <f t="shared" si="6"/>
+        <v>11019</v>
+      </c>
+      <c r="F41" s="369">
+        <v>10264</v>
+      </c>
+      <c r="G41" s="370">
+        <v>609</v>
+      </c>
+      <c r="H41" s="371">
+        <v>146</v>
+      </c>
+      <c r="I41" s="372">
+        <f>SUM(E$39:E41)/E$49</f>
+        <v>0.28104151543433925</v>
+      </c>
+      <c r="J41" s="372">
+        <f>SUM(F$39:F41)/F$49</f>
+        <v>0.30631174642142983</v>
+      </c>
+      <c r="K41" s="372">
+        <f>SUM(H$39:H41)/H$49</f>
+        <v>9.285714285714286E-2</v>
+      </c>
+      <c r="L41" s="75">
+        <f t="shared" si="7"/>
+        <v>1.4024975984630164E-2</v>
+      </c>
+      <c r="M41" s="373">
+        <f>SUM(H$19:H41)/SUM(F$19:F41,H$19:H41)</f>
+        <v>5.5132228751169E-2</v>
+      </c>
+      <c r="N41" s="374">
+        <f t="shared" ref="N41:N49" si="8">F41/H41</f>
+        <v>70.301369863013704</v>
+      </c>
+      <c r="O41" s="375">
+        <f>SUM(F$19:$G41)/SUM(H$19:$I41)</f>
+        <v>18.176371791281916</v>
+      </c>
+      <c r="P41" s="376">
+        <f>ABS(J41-K41)</f>
+        <v>0.21345460356428697</v>
+      </c>
+      <c r="Q41" s="377">
+        <f t="shared" ref="Q41:Q48" si="9">((J$28-J40)+(J$28-J41))*((K$28-K40)-(K$28-K41))/2</f>
+        <v>3.5290810972867667E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="365">
+        <v>4</v>
+      </c>
+      <c r="B42" s="366">
+        <v>353.35762010898611</v>
+      </c>
+      <c r="C42" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="366">
+        <v>368.74751761167897</v>
+      </c>
+      <c r="E42" s="368">
+        <f t="shared" si="6"/>
+        <v>11152</v>
+      </c>
+      <c r="F42" s="369">
+        <v>10253</v>
+      </c>
+      <c r="G42" s="370">
+        <v>742</v>
+      </c>
+      <c r="H42" s="371">
+        <v>157</v>
+      </c>
+      <c r="I42" s="372">
+        <f>SUM(E$39:E42)/E$49</f>
+        <v>0.37741539631511634</v>
+      </c>
+      <c r="J42" s="372">
+        <f>SUM(F$39:F42)/F$49</f>
+        <v>0.40780850937456692</v>
+      </c>
+      <c r="K42" s="372">
+        <f>SUM(H$39:H42)/H$49</f>
+        <v>0.14383116883116884</v>
+      </c>
+      <c r="L42" s="75">
+        <f t="shared" si="7"/>
+        <v>1.5081652257444764E-2</v>
+      </c>
+      <c r="M42" s="373">
+        <f>SUM(H$19:H42)/SUM(F$19:F42,H$19:H42)</f>
+        <v>5.417828795786362E-2</v>
+      </c>
+      <c r="N42" s="374">
+        <f t="shared" si="8"/>
+        <v>65.30573248407643</v>
+      </c>
+      <c r="O42" s="375">
+        <f>SUM(F$19:$G42)/SUM(H$19:$I42)</f>
+        <v>18.519809947535531</v>
+      </c>
+      <c r="P42" s="376">
+        <f t="shared" ref="P42:P48" si="10">ABS(J42-K42)</f>
+        <v>0.26397734054339805</v>
+      </c>
+      <c r="Q42" s="377">
+        <f t="shared" si="9"/>
+        <v>3.277323374026439E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="365">
+        <v>5</v>
+      </c>
+      <c r="B43" s="366">
+        <v>339.23866176310031</v>
+      </c>
+      <c r="C43" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="366">
+        <v>353.35311825699802</v>
+      </c>
+      <c r="E43" s="368">
+        <f t="shared" si="6"/>
+        <v>11346</v>
+      </c>
+      <c r="F43" s="369">
+        <v>10177</v>
+      </c>
+      <c r="G43" s="370">
+        <v>936</v>
+      </c>
+      <c r="H43" s="371">
+        <v>233</v>
+      </c>
+      <c r="I43" s="372">
+        <f>SUM(E$39:E43)/E$49</f>
+        <v>0.47546579556846069</v>
+      </c>
+      <c r="J43" s="372">
+        <f>SUM(F$39:F43)/F$49</f>
+        <v>0.50855293116078326</v>
+      </c>
+      <c r="K43" s="372">
+        <f>SUM(H$39:H43)/H$49</f>
+        <v>0.21948051948051947</v>
+      </c>
+      <c r="L43" s="75">
+        <f t="shared" si="7"/>
+        <v>2.2382324687800194E-2</v>
+      </c>
+      <c r="M43" s="373">
+        <f>SUM(H$19:H43)/SUM(F$19:F43,H$19:H43)</f>
+        <v>5.3438577593431472E-2</v>
+      </c>
+      <c r="N43" s="374">
+        <f t="shared" si="8"/>
+        <v>43.678111587982833</v>
+      </c>
+      <c r="O43" s="375">
+        <f>SUM(F$19:$G43)/SUM(H$19:$I43)</f>
+        <v>18.803648362710586</v>
+      </c>
+      <c r="P43" s="376">
+        <f t="shared" si="10"/>
+        <v>0.28907241168026376</v>
+      </c>
+      <c r="Q43" s="377">
+        <f t="shared" si="9"/>
+        <v>4.0988276681049249E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="365">
+        <v>6</v>
+      </c>
+      <c r="B44" s="366">
+        <v>325.70760565613671</v>
+      </c>
+      <c r="C44" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="366">
+        <v>339.23842403391342</v>
+      </c>
+      <c r="E44" s="368">
+        <f t="shared" ref="E44:E49" si="11">SUM(F44:H44)</f>
+        <v>11504</v>
+      </c>
+      <c r="F44" s="370">
+        <v>10162</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1094</v>
+      </c>
+      <c r="H44" s="371">
+        <v>248</v>
+      </c>
+      <c r="I44" s="372">
+        <f>SUM(E$39:E44)/E$49</f>
+        <v>0.57488160669224653</v>
+      </c>
+      <c r="J44" s="372">
+        <f>SUM(F$39:F44)/F$49</f>
+        <v>0.60914886455879147</v>
+      </c>
+      <c r="K44" s="372">
+        <f>SUM(H$39:H44)/H$49</f>
+        <v>0.3</v>
+      </c>
+      <c r="L44" s="75">
+        <f t="shared" si="7"/>
+        <v>2.382324687800192E-2</v>
+      </c>
+      <c r="M44" s="373">
+        <f>SUM(H$19:H44)/SUM(F$19:F44,H$19:H44)</f>
+        <v>5.2765262286596622E-2</v>
+      </c>
+      <c r="N44" s="374">
+        <f t="shared" si="8"/>
+        <v>40.975806451612904</v>
+      </c>
+      <c r="O44" s="375">
+        <f>SUM(F$19:$G44)/SUM(H$19:$I44)</f>
+        <v>19.075994080281415</v>
+      </c>
+      <c r="P44" s="376">
+        <f t="shared" si="10"/>
+        <v>0.30914886455879148</v>
+      </c>
+      <c r="Q44" s="377">
+        <f t="shared" si="9"/>
+        <v>3.5521096535965184E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="365">
+        <v>7</v>
+      </c>
+      <c r="B45" s="366">
+        <v>311.71977372757249</v>
+      </c>
+      <c r="C45" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="366">
+        <v>325.70759317249821</v>
+      </c>
+      <c r="E45" s="368">
+        <f t="shared" si="11"/>
+        <v>11651</v>
+      </c>
+      <c r="F45" s="370">
+        <v>10104</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1241</v>
+      </c>
+      <c r="H45" s="371">
+        <v>306</v>
+      </c>
+      <c r="I45" s="372">
+        <f>SUM(E$39:E45)/E$49</f>
+        <v>0.67556776936637974</v>
+      </c>
+      <c r="J45" s="372">
+        <f>SUM(F$39:F45)/F$49</f>
+        <v>0.70917064285572873</v>
+      </c>
+      <c r="K45" s="372">
+        <f>SUM(H$39:H45)/H$49</f>
+        <v>0.39935064935064934</v>
+      </c>
+      <c r="L45" s="75">
+        <f t="shared" si="7"/>
+        <v>2.9394812680115272E-2</v>
+      </c>
+      <c r="M45" s="373">
+        <f>SUM(H$19:H45)/SUM(F$19:F45,H$19:H45)</f>
+        <v>5.2245738190468669E-2</v>
+      </c>
+      <c r="N45" s="374">
+        <f t="shared" si="8"/>
+        <v>33.019607843137258</v>
+      </c>
+      <c r="O45" s="375">
+        <f>SUM(F$19:$G45)/SUM(H$19:$I45)</f>
+        <v>19.300511683823466</v>
+      </c>
+      <c r="P45" s="376">
+        <f t="shared" si="10"/>
+        <v>0.30981999350507938</v>
+      </c>
+      <c r="Q45" s="377">
+        <f t="shared" si="9"/>
+        <v>3.3862699794018944E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="365">
+        <v>8</v>
+      </c>
+      <c r="B46" s="366">
+        <v>294.35992701072792</v>
+      </c>
+      <c r="C46" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="366">
+        <v>311.71662000705942</v>
+      </c>
+      <c r="E46" s="368">
+        <f t="shared" si="11"/>
+        <v>11943</v>
+      </c>
+      <c r="F46" s="370">
+        <v>10016</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1533</v>
+      </c>
+      <c r="H46" s="371">
+        <v>394</v>
+      </c>
+      <c r="I46" s="372">
+        <f>SUM(E$39:E46)/E$49</f>
+        <v>0.77877735144664528</v>
+      </c>
+      <c r="J46" s="372">
+        <f>SUM(F$39:F46)/F$49</f>
+        <v>0.80832128927517866</v>
+      </c>
+      <c r="K46" s="372">
+        <f>SUM(H$39:H46)/H$49</f>
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="L46" s="75">
+        <f t="shared" si="7"/>
+        <v>3.7848222862632085E-2</v>
+      </c>
+      <c r="M46" s="373">
+        <f>SUM(H$19:H46)/SUM(F$19:F46,H$19:H46)</f>
+        <v>5.1932642151507113E-2</v>
+      </c>
+      <c r="N46" s="374">
+        <f t="shared" si="8"/>
+        <v>25.421319796954315</v>
+      </c>
+      <c r="O46" s="375">
+        <f>SUM(F$19:$G46)/SUM(H$19:$I46)</f>
+        <v>19.458523348782254</v>
+      </c>
+      <c r="P46" s="376">
+        <f t="shared" si="10"/>
+        <v>0.28104856200245143</v>
+      </c>
+      <c r="Q46" s="377">
+        <f t="shared" si="9"/>
+        <v>3.0861717327990656E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="365">
+        <v>9</v>
+      </c>
+      <c r="B47" s="366">
+        <v>267.31844012155028</v>
+      </c>
+      <c r="C47" s="367" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="366">
+        <v>294.3589979060859</v>
+      </c>
+      <c r="E47" s="368">
+        <f t="shared" si="11"/>
+        <v>12269</v>
+      </c>
+      <c r="F47" s="370">
+        <v>9896</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1859</v>
+      </c>
+      <c r="H47" s="371">
+        <v>514</v>
+      </c>
+      <c r="I47" s="372">
+        <f>SUM(E$39:E47)/E$49</f>
+        <v>0.88480417574060632</v>
+      </c>
+      <c r="J47" s="372">
+        <f>SUM(F$39:F47)/F$49</f>
+        <v>0.9062840285889644</v>
+      </c>
+      <c r="K47" s="372">
+        <f>SUM(H$39:H47)/H$49</f>
+        <v>0.69415584415584419</v>
+      </c>
+      <c r="L47" s="75">
+        <f t="shared" si="7"/>
+        <v>4.9375600384245918E-2</v>
+      </c>
+      <c r="M47" s="373">
+        <f>SUM(H$19:H47)/SUM(F$19:F47,H$19:H47)</f>
+        <v>5.1878218876442173E-2</v>
+      </c>
+      <c r="N47" s="374">
+        <f t="shared" si="8"/>
+        <v>19.252918287937742</v>
+      </c>
+      <c r="O47" s="375">
+        <f>SUM(F$19:$G47)/SUM(H$19:$I47)</f>
+        <v>19.526917632570996</v>
+      </c>
+      <c r="P47" s="376">
+        <f t="shared" si="10"/>
+        <v>0.2121281844331202</v>
+      </c>
+      <c r="Q47" s="377">
+        <f t="shared" si="9"/>
+        <v>2.3813777048349114E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="378">
+        <v>10</v>
+      </c>
+      <c r="B48" s="379">
+        <v>142.24156084948561</v>
+      </c>
+      <c r="C48" s="380" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="379">
+        <v>267.30883459711418</v>
+      </c>
+      <c r="E48" s="381">
+        <f t="shared" si="11"/>
+        <v>13330</v>
+      </c>
+      <c r="F48" s="382">
+        <v>9467</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2921</v>
+      </c>
+      <c r="H48" s="383">
+        <v>942</v>
+      </c>
+      <c r="I48" s="400">
+        <f>SUM(E$39:E48)/E$49</f>
+        <v>1</v>
+      </c>
+      <c r="J48" s="384">
+        <f>SUM(F$39:F48)/F$49</f>
+        <v>1</v>
+      </c>
+      <c r="K48" s="401">
+        <f>SUM(H$39:H48)/H$49</f>
+        <v>1</v>
+      </c>
+      <c r="L48" s="385">
+        <f t="shared" si="7"/>
+        <v>9.04986069747334E-2</v>
+      </c>
+      <c r="M48" s="386">
+        <f>SUM(H$19:H48)/SUM(F$19:F48,H$19:H48)</f>
+        <v>5.2682997141232715E-2</v>
+      </c>
+      <c r="N48" s="374">
+        <f t="shared" si="8"/>
+        <v>10.049893842887473</v>
+      </c>
+      <c r="O48" s="375">
+        <f>SUM(F$19:$G48)/SUM(H$19:$I48)</f>
+        <v>19.298029222002917</v>
+      </c>
+      <c r="P48" s="387">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="377">
+        <f t="shared" si="9"/>
+        <v>1.4331241082661612E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A49" s="388" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="389"/>
+      <c r="C49" s="389"/>
+      <c r="D49" s="389"/>
+      <c r="E49" s="390">
+        <f t="shared" si="11"/>
+        <v>115716</v>
+      </c>
+      <c r="F49" s="391">
+        <f>SUM(F39:F48)</f>
+        <v>101018</v>
+      </c>
+      <c r="G49" s="391">
+        <f>SUM(G39:G48)</f>
+        <v>11618</v>
+      </c>
+      <c r="H49" s="392">
+        <f>SUM(H39:H48)</f>
+        <v>3080</v>
+      </c>
+      <c r="I49" s="393"/>
+      <c r="J49" s="393"/>
+      <c r="K49" s="393"/>
+      <c r="L49" s="394">
+        <f t="shared" si="7"/>
+        <v>2.9587504082691309E-2</v>
+      </c>
+      <c r="M49" s="395"/>
+      <c r="N49" s="396">
+        <f t="shared" si="8"/>
+        <v>32.798051948051949</v>
+      </c>
+      <c r="O49" s="397"/>
+      <c r="P49" s="398">
+        <f>MAX(P39:P48)</f>
+        <v>0.30981999350507938</v>
+      </c>
+      <c r="Q49" s="399">
+        <f>1-2*SUM(Q39:Q48)</f>
+        <v>0.42424584290365641</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:P37"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:F29"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -28175,67 +30360,67 @@
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="341" t="s">
+      <c r="C2" s="427" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="341"/>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
+      <c r="D2" s="427"/>
+      <c r="E2" s="427"/>
+      <c r="F2" s="427"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="342"/>
-      <c r="J2" s="342"/>
+      <c r="I2" s="428"/>
+      <c r="J2" s="428"/>
     </row>
     <row r="3" spans="1:12" s="11" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="343" t="s">
+      <c r="C3" s="429" t="s">
         <v>253</v>
       </c>
-      <c r="D3" s="343"/>
-      <c r="E3" s="343"/>
-      <c r="F3" s="343"/>
+      <c r="D3" s="429"/>
+      <c r="E3" s="429"/>
+      <c r="F3" s="429"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="343"/>
-      <c r="J3" s="343"/>
+      <c r="I3" s="429"/>
+      <c r="J3" s="429"/>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1">
       <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="343" t="s">
-        <v>608</v>
-      </c>
-      <c r="D4" s="343"/>
-      <c r="E4" s="343"/>
-      <c r="F4" s="343"/>
+      <c r="C4" s="429" t="s">
+        <v>606</v>
+      </c>
+      <c r="D4" s="429"/>
+      <c r="E4" s="429"/>
+      <c r="F4" s="429"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="343"/>
-      <c r="J4" s="343"/>
+      <c r="I4" s="429"/>
+      <c r="J4" s="429"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B6" s="328"/>
-      <c r="C6" s="337" t="s">
+      <c r="B6" s="414"/>
+      <c r="C6" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="338"/>
-      <c r="E6" s="338"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="338"/>
-      <c r="H6" s="338"/>
-      <c r="I6" s="344" t="s">
+      <c r="D6" s="424"/>
+      <c r="E6" s="424"/>
+      <c r="F6" s="424"/>
+      <c r="G6" s="424"/>
+      <c r="H6" s="424"/>
+      <c r="I6" s="430" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="345"/>
-      <c r="K6" s="346"/>
-      <c r="L6" s="339" t="s">
+      <c r="J6" s="431"/>
+      <c r="K6" s="432"/>
+      <c r="L6" s="425" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="12" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B7" s="329"/>
+      <c r="B7" s="415"/>
       <c r="C7" s="151" t="s">
         <v>249</v>
       </c>
@@ -28263,7 +30448,7 @@
       <c r="K7" s="150" t="s">
         <v>248</v>
       </c>
-      <c r="L7" s="340"/>
+      <c r="L7" s="426"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" thickTop="1">
       <c r="B8" s="13"/>
@@ -28520,19 +30705,19 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="B19" s="330"/>
-      <c r="C19" s="332" t="s">
+      <c r="B19" s="416"/>
+      <c r="C19" s="418" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="333"/>
-      <c r="E19" s="334"/>
-      <c r="F19" s="335" t="s">
+      <c r="D19" s="419"/>
+      <c r="E19" s="420"/>
+      <c r="F19" s="421" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="13.5" thickBot="1">
-      <c r="B20" s="331"/>
+      <c r="B20" s="417"/>
       <c r="C20" s="45" t="s">
         <v>21</v>
       </c>
@@ -28542,7 +30727,7 @@
       <c r="E20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="336"/>
+      <c r="F20" s="422"/>
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" ht="13.5" thickTop="1">
@@ -28653,7 +30838,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -28663,7 +30848,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="39" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -28674,7 +30859,7 @@
     <row r="29" spans="1:7" s="9" customFormat="1">
       <c r="A29" s="2"/>
       <c r="B29" s="39" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -31978,7 +34163,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32329,56 +34514,56 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="15">
-      <c r="B8" s="372" t="s">
+      <c r="B8" s="332" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372" t="s">
+      <c r="C8" s="332"/>
+      <c r="D8" s="332" t="s">
         <v>515</v>
       </c>
-      <c r="E8" s="372">
+      <c r="E8" s="332">
         <v>5</v>
       </c>
-      <c r="F8" s="372">
+      <c r="F8" s="332">
         <v>7</v>
       </c>
-      <c r="G8" s="372">
+      <c r="G8" s="332">
         <v>890</v>
       </c>
-      <c r="H8" s="372">
+      <c r="H8" s="332">
         <v>3245</v>
       </c>
-      <c r="I8" s="373">
+      <c r="I8" s="333">
         <v>4135</v>
       </c>
-      <c r="J8" s="374">
+      <c r="J8" s="334">
         <v>0.21523579201934703</v>
       </c>
-      <c r="K8" s="375">
+      <c r="K8" s="335">
         <v>2.0914576473503987E-2</v>
       </c>
-      <c r="L8" s="372">
+      <c r="L8" s="332">
         <v>11618</v>
       </c>
-      <c r="M8" s="372">
+      <c r="M8" s="332">
         <v>186091</v>
       </c>
-      <c r="N8" s="376">
+      <c r="N8" s="336">
         <v>7.660526768807023E-2</v>
       </c>
-      <c r="O8" s="376">
+      <c r="O8" s="336">
         <v>1.7437705208741959E-2</v>
       </c>
-      <c r="P8" s="376">
+      <c r="P8" s="336">
         <v>-1.480031015400239</v>
       </c>
-      <c r="Q8" s="376">
+      <c r="Q8" s="336">
         <v>3.6460674157303372</v>
       </c>
-      <c r="R8" s="376">
+      <c r="R8" s="336">
         <v>8.7569827575037298E-2</v>
       </c>
-      <c r="S8" s="376">
+      <c r="S8" s="336">
         <v>0.48464553250569037</v>
       </c>
     </row>
@@ -32493,56 +34678,56 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="15">
-      <c r="B11" s="372" t="s">
+      <c r="B11" s="332" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="372"/>
-      <c r="D11" s="372" t="s">
+      <c r="C11" s="332"/>
+      <c r="D11" s="332" t="s">
         <v>434</v>
       </c>
-      <c r="E11" s="372">
+      <c r="E11" s="332">
         <v>2</v>
       </c>
-      <c r="F11" s="372">
+      <c r="F11" s="332">
         <v>2</v>
       </c>
-      <c r="G11" s="372">
+      <c r="G11" s="332">
         <v>4586</v>
       </c>
-      <c r="H11" s="372">
+      <c r="H11" s="332">
         <v>52880</v>
       </c>
-      <c r="I11" s="373">
+      <c r="I11" s="333">
         <v>57466</v>
       </c>
-      <c r="J11" s="374">
+      <c r="J11" s="334">
         <v>7.9803710019837812E-2</v>
       </c>
-      <c r="K11" s="375">
+      <c r="K11" s="335">
         <v>0.29065950462548495</v>
       </c>
-      <c r="L11" s="372">
+      <c r="L11" s="332">
         <v>11618</v>
       </c>
-      <c r="M11" s="372">
+      <c r="M11" s="332">
         <v>186091</v>
       </c>
-      <c r="N11" s="376">
+      <c r="N11" s="336">
         <v>0.39473231192976416</v>
       </c>
-      <c r="O11" s="376">
+      <c r="O11" s="336">
         <v>0.28416204974985354</v>
       </c>
-      <c r="P11" s="376">
+      <c r="P11" s="336">
         <v>-0.32866317070452594</v>
       </c>
-      <c r="Q11" s="376">
+      <c r="Q11" s="336">
         <v>11.530745747928478</v>
       </c>
-      <c r="R11" s="376">
+      <c r="R11" s="336">
         <v>3.6340372953680151E-2</v>
       </c>
-      <c r="S11" s="376">
+      <c r="S11" s="336">
         <v>8.14548430084506E-2</v>
       </c>
     </row>
@@ -32819,38 +35004,38 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="15">
-      <c r="B17" s="377" t="s">
+      <c r="B17" s="337" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="377"/>
-      <c r="D17" s="377" t="s">
+      <c r="C17" s="337"/>
+      <c r="D17" s="337" t="s">
         <v>438</v>
       </c>
-      <c r="E17" s="377">
+      <c r="E17" s="337">
         <v>10</v>
       </c>
-      <c r="F17" s="377" t="s">
+      <c r="F17" s="337" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="377">
+      <c r="G17" s="337">
         <v>1387</v>
       </c>
-      <c r="H17" s="377">
+      <c r="H17" s="337">
         <v>13538</v>
       </c>
-      <c r="I17" s="378">
+      <c r="I17" s="338">
         <v>14925</v>
       </c>
-      <c r="J17" s="379">
+      <c r="J17" s="339">
         <v>9.2931323283082082E-2</v>
       </c>
-      <c r="K17" s="380">
+      <c r="K17" s="340">
         <v>7.5489734913433373E-2</v>
       </c>
-      <c r="L17" s="377">
+      <c r="L17" s="337">
         <v>11618</v>
       </c>
-      <c r="M17" s="377">
+      <c r="M17" s="337">
         <v>186091</v>
       </c>
       <c r="N17" s="269">
@@ -33145,56 +35330,56 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="15">
-      <c r="B23" s="372" t="s">
+      <c r="B23" s="332" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="372"/>
-      <c r="D23" s="372" t="s">
+      <c r="C23" s="332"/>
+      <c r="D23" s="332" t="s">
         <v>442</v>
       </c>
-      <c r="E23" s="372">
+      <c r="E23" s="332">
         <v>7</v>
       </c>
-      <c r="F23" s="372" t="s">
+      <c r="F23" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="372">
+      <c r="G23" s="332">
         <v>950</v>
       </c>
-      <c r="H23" s="372">
+      <c r="H23" s="332">
         <v>9013</v>
       </c>
-      <c r="I23" s="373">
+      <c r="I23" s="333">
         <v>9963</v>
       </c>
-      <c r="J23" s="374">
+      <c r="J23" s="334">
         <v>9.5352805379905647E-2</v>
       </c>
-      <c r="K23" s="375">
+      <c r="K23" s="335">
         <v>5.0392243145228596E-2</v>
       </c>
-      <c r="L23" s="372">
+      <c r="L23" s="332">
         <v>11618</v>
       </c>
-      <c r="M23" s="372">
+      <c r="M23" s="332">
         <v>186091</v>
       </c>
-      <c r="N23" s="376">
+      <c r="N23" s="336">
         <v>8.1769667756928899E-2</v>
       </c>
-      <c r="O23" s="376">
+      <c r="O23" s="336">
         <v>4.8433293388718421E-2</v>
       </c>
-      <c r="P23" s="376">
+      <c r="P23" s="336">
         <v>-0.52371890785042075</v>
       </c>
-      <c r="Q23" s="376">
+      <c r="Q23" s="336">
         <v>9.487368421052631</v>
       </c>
-      <c r="R23" s="376">
+      <c r="R23" s="336">
         <v>1.7458889575811952E-2</v>
       </c>
-      <c r="S23" s="376">
+      <c r="S23" s="336">
         <v>6.5548848785436778E-2</v>
       </c>
     </row>
@@ -33417,41 +35602,41 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="15">
-      <c r="B28" s="372" t="s">
+      <c r="B28" s="332" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="372"/>
-      <c r="D28" s="372" t="s">
+      <c r="C28" s="332"/>
+      <c r="D28" s="332" t="s">
         <v>432</v>
       </c>
-      <c r="E28" s="372">
+      <c r="E28" s="332">
         <v>4</v>
       </c>
-      <c r="F28" s="377" t="s">
+      <c r="F28" s="337" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="377">
+      <c r="G28" s="337">
         <v>279</v>
       </c>
-      <c r="H28" s="377">
+      <c r="H28" s="337">
         <v>1721</v>
       </c>
-      <c r="I28" s="373">
+      <c r="I28" s="333">
         <v>2000</v>
       </c>
-      <c r="J28" s="374">
+      <c r="J28" s="334">
         <v>0.13950000000000001</v>
       </c>
-      <c r="K28" s="375">
+      <c r="K28" s="335">
         <v>1.0115877375334457E-2</v>
       </c>
-      <c r="L28" s="377">
+      <c r="L28" s="337">
         <v>11618</v>
       </c>
-      <c r="M28" s="377">
+      <c r="M28" s="337">
         <v>186091</v>
       </c>
-      <c r="N28" s="376">
+      <c r="N28" s="336">
         <v>2.4014460320192804E-2</v>
       </c>
       <c r="O28" s="269">
@@ -33460,13 +35645,13 @@
       <c r="P28" s="269">
         <v>-0.95423116742207015</v>
       </c>
-      <c r="Q28" s="376">
+      <c r="Q28" s="336">
         <v>6.1684587813620073</v>
       </c>
-      <c r="R28" s="381">
+      <c r="R28" s="341">
         <v>1.409046062184376E-2</v>
       </c>
-      <c r="S28" s="381">
+      <c r="S28" s="341">
         <v>6.4638585911086968E-2</v>
       </c>
     </row>
@@ -33689,38 +35874,38 @@
       </c>
     </row>
     <row r="33" spans="2:19" ht="15">
-      <c r="B33" s="377" t="s">
+      <c r="B33" s="337" t="s">
         <v>445</v>
       </c>
-      <c r="C33" s="377"/>
-      <c r="D33" s="377" t="s">
+      <c r="C33" s="337"/>
+      <c r="D33" s="337" t="s">
         <v>450</v>
       </c>
-      <c r="E33" s="377">
+      <c r="E33" s="337">
         <v>16</v>
       </c>
-      <c r="F33" s="377" t="s">
+      <c r="F33" s="337" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="377">
+      <c r="G33" s="337">
         <v>3715</v>
       </c>
-      <c r="H33" s="377">
+      <c r="H33" s="337">
         <v>77248</v>
       </c>
-      <c r="I33" s="378">
+      <c r="I33" s="338">
         <v>80963</v>
       </c>
-      <c r="J33" s="379">
+      <c r="J33" s="339">
         <v>4.5885157417585809E-2</v>
       </c>
-      <c r="K33" s="380">
+      <c r="K33" s="340">
         <v>0.4095058899696018</v>
       </c>
-      <c r="L33" s="377">
+      <c r="L33" s="337">
         <v>11618</v>
       </c>
-      <c r="M33" s="377">
+      <c r="M33" s="337">
         <v>186091</v>
       </c>
       <c r="N33" s="269">
@@ -33735,10 +35920,10 @@
       <c r="Q33" s="269">
         <v>20.793539703903097</v>
       </c>
-      <c r="R33" s="382">
+      <c r="R33" s="342">
         <v>2.4881776796163841E-2</v>
       </c>
-      <c r="S33" s="382">
+      <c r="S33" s="342">
         <v>4.6376012022244603E-2</v>
       </c>
     </row>
@@ -33961,41 +36146,41 @@
       </c>
     </row>
     <row r="38" spans="2:19" ht="15">
-      <c r="B38" s="383" t="s">
+      <c r="B38" s="343" t="s">
         <v>455</v>
       </c>
-      <c r="C38" s="383"/>
-      <c r="D38" s="383" t="s">
+      <c r="C38" s="343"/>
+      <c r="D38" s="343" t="s">
         <v>523</v>
       </c>
-      <c r="E38" s="383">
+      <c r="E38" s="343">
         <v>25.7301</v>
       </c>
-      <c r="F38" s="383" t="s">
+      <c r="F38" s="343" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="383">
+      <c r="G38" s="343">
         <v>2089</v>
       </c>
-      <c r="H38" s="383">
+      <c r="H38" s="343">
         <v>24183</v>
       </c>
-      <c r="I38" s="373">
+      <c r="I38" s="333">
         <v>26272</v>
       </c>
-      <c r="J38" s="379">
+      <c r="J38" s="339">
         <v>7.9514311814859934E-2</v>
       </c>
-      <c r="K38" s="380">
+      <c r="K38" s="340">
         <v>0.1328821652023934</v>
       </c>
-      <c r="L38" s="377">
+      <c r="L38" s="337">
         <v>11618</v>
       </c>
-      <c r="M38" s="377">
+      <c r="M38" s="337">
         <v>186091</v>
       </c>
-      <c r="N38" s="384">
+      <c r="N38" s="344">
         <v>0.17980719573076262</v>
       </c>
       <c r="O38" s="269">
@@ -34004,13 +36189,13 @@
       <c r="P38" s="269">
         <v>-0.32471575741709924</v>
       </c>
-      <c r="Q38" s="376">
+      <c r="Q38" s="336">
         <v>11.576352321685016</v>
       </c>
-      <c r="R38" s="382">
+      <c r="R38" s="342">
         <v>1.6188589017904247E-2</v>
       </c>
-      <c r="S38" s="382">
+      <c r="S38" s="342">
         <v>4.0423046988124905E-2</v>
       </c>
     </row>
@@ -34233,38 +36418,38 @@
       </c>
     </row>
     <row r="43" spans="2:19" ht="15">
-      <c r="B43" s="377" t="s">
+      <c r="B43" s="337" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="377"/>
-      <c r="D43" s="377" t="s">
+      <c r="C43" s="337"/>
+      <c r="D43" s="337" t="s">
         <v>525</v>
       </c>
-      <c r="E43" s="377">
+      <c r="E43" s="337">
         <v>77</v>
       </c>
-      <c r="F43" s="377" t="s">
+      <c r="F43" s="337" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="377">
+      <c r="G43" s="337">
         <v>3731</v>
       </c>
-      <c r="H43" s="377">
+      <c r="H43" s="337">
         <v>48204</v>
       </c>
-      <c r="I43" s="378">
+      <c r="I43" s="338">
         <v>51935</v>
       </c>
-      <c r="J43" s="379">
+      <c r="J43" s="339">
         <v>7.1839799749687114E-2</v>
       </c>
-      <c r="K43" s="380">
+      <c r="K43" s="340">
         <v>0.26268404574399751</v>
       </c>
-      <c r="L43" s="377">
+      <c r="L43" s="337">
         <v>11618</v>
       </c>
-      <c r="M43" s="377">
+      <c r="M43" s="337">
         <v>186091</v>
       </c>
       <c r="N43" s="269">
@@ -34279,10 +36464,10 @@
       <c r="Q43" s="269">
         <v>12.9198606271777</v>
       </c>
-      <c r="R43" s="382">
+      <c r="R43" s="342">
         <v>1.3347274516153413E-2</v>
       </c>
-      <c r="S43" s="382">
+      <c r="S43" s="342">
         <v>3.7364392702492345E-2</v>
       </c>
     </row>
@@ -34343,38 +36528,38 @@
       </c>
     </row>
     <row r="45" spans="2:19" ht="15">
-      <c r="B45" s="377" t="s">
+      <c r="B45" s="337" t="s">
         <v>457</v>
       </c>
-      <c r="C45" s="377"/>
-      <c r="D45" s="377" t="s">
+      <c r="C45" s="337"/>
+      <c r="D45" s="337" t="s">
         <v>526</v>
       </c>
-      <c r="E45" s="377">
+      <c r="E45" s="337">
         <v>70</v>
       </c>
-      <c r="F45" s="377" t="s">
+      <c r="F45" s="337" t="s">
         <v>82</v>
       </c>
-      <c r="G45" s="377">
+      <c r="G45" s="337">
         <v>6590</v>
       </c>
-      <c r="H45" s="377">
+      <c r="H45" s="337">
         <v>88068</v>
       </c>
-      <c r="I45" s="378">
+      <c r="I45" s="338">
         <v>94658</v>
       </c>
-      <c r="J45" s="379">
+      <c r="J45" s="339">
         <v>6.9619049631304275E-2</v>
       </c>
-      <c r="K45" s="380">
+      <c r="K45" s="340">
         <v>0.47877436029720449</v>
       </c>
-      <c r="L45" s="377">
+      <c r="L45" s="337">
         <v>11618</v>
       </c>
-      <c r="M45" s="377">
+      <c r="M45" s="337">
         <v>186091</v>
       </c>
       <c r="N45" s="269">
@@ -34389,10 +36574,10 @@
       <c r="Q45" s="269">
         <v>13.363884673748103</v>
       </c>
-      <c r="R45" s="382">
+      <c r="R45" s="342">
         <v>1.7020419629621687E-2</v>
       </c>
-      <c r="S45" s="382">
+      <c r="S45" s="342">
         <v>3.5485678697819212E-2</v>
       </c>
     </row>
@@ -34615,38 +36800,38 @@
       </c>
     </row>
     <row r="50" spans="2:19" ht="15">
-      <c r="B50" s="377" t="s">
+      <c r="B50" s="337" t="s">
         <v>262</v>
       </c>
-      <c r="C50" s="377"/>
-      <c r="D50" s="377" t="s">
+      <c r="C50" s="337"/>
+      <c r="D50" s="337" t="s">
         <v>528</v>
       </c>
-      <c r="E50" s="377">
+      <c r="E50" s="337">
         <v>35</v>
       </c>
-      <c r="F50" s="377" t="s">
+      <c r="F50" s="337" t="s">
         <v>82</v>
       </c>
-      <c r="G50" s="377">
+      <c r="G50" s="337">
         <v>567</v>
       </c>
-      <c r="H50" s="377">
+      <c r="H50" s="337">
         <v>14562</v>
       </c>
-      <c r="I50" s="378">
+      <c r="I50" s="338">
         <v>15129</v>
       </c>
-      <c r="J50" s="379">
+      <c r="J50" s="339">
         <v>3.7477691850089236E-2</v>
       </c>
-      <c r="K50" s="380">
+      <c r="K50" s="340">
         <v>7.6521554405717493E-2</v>
       </c>
-      <c r="L50" s="377">
+      <c r="L50" s="337">
         <v>11618</v>
       </c>
-      <c r="M50" s="377">
+      <c r="M50" s="337">
         <v>186091</v>
       </c>
       <c r="N50" s="269">
@@ -34661,10 +36846,10 @@
       <c r="Q50" s="269">
         <v>25.682539682539684</v>
       </c>
-      <c r="R50" s="382">
+      <c r="R50" s="342">
         <v>1.3903535185971812E-2</v>
       </c>
-      <c r="S50" s="382">
+      <c r="S50" s="342">
         <v>3.4978566511590245E-2</v>
       </c>
     </row>
@@ -34725,38 +36910,38 @@
       </c>
     </row>
     <row r="52" spans="2:19" ht="15">
-      <c r="B52" s="377" t="s">
+      <c r="B52" s="337" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="377"/>
-      <c r="D52" s="377" t="s">
-        <v>587</v>
-      </c>
-      <c r="E52" s="377">
+      <c r="C52" s="337"/>
+      <c r="D52" s="337" t="s">
+        <v>586</v>
+      </c>
+      <c r="E52" s="337">
         <v>1</v>
       </c>
-      <c r="F52" s="377" t="s">
+      <c r="F52" s="337" t="s">
         <v>82</v>
       </c>
-      <c r="G52" s="377">
+      <c r="G52" s="337">
         <v>6759</v>
       </c>
-      <c r="H52" s="377">
+      <c r="H52" s="337">
         <v>93285</v>
       </c>
-      <c r="I52" s="378">
+      <c r="I52" s="338">
         <v>100044</v>
       </c>
-      <c r="J52" s="379">
+      <c r="J52" s="339">
         <v>6.7560273479668947E-2</v>
       </c>
-      <c r="K52" s="380">
+      <c r="K52" s="340">
         <v>0.50601641806898012</v>
       </c>
-      <c r="L52" s="377">
+      <c r="L52" s="337">
         <v>11618</v>
       </c>
-      <c r="M52" s="377">
+      <c r="M52" s="337">
         <v>186091</v>
       </c>
       <c r="N52" s="269">
@@ -34771,10 +36956,10 @@
       <c r="Q52" s="269">
         <v>13.801597869507324</v>
       </c>
-      <c r="R52" s="382">
+      <c r="R52" s="342">
         <v>1.1983531196015224E-2</v>
       </c>
-      <c r="S52" s="382">
+      <c r="S52" s="342">
         <v>2.6148355591790504E-2</v>
       </c>
     </row>
@@ -34997,56 +37182,56 @@
       </c>
     </row>
     <row r="57" spans="2:19" ht="15">
-      <c r="B57" s="372" t="s">
+      <c r="B57" s="332" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="372"/>
-      <c r="D57" s="372" t="s">
+      <c r="C57" s="332"/>
+      <c r="D57" s="332" t="s">
         <v>533</v>
       </c>
-      <c r="E57" s="372">
+      <c r="E57" s="332">
         <v>338884</v>
       </c>
-      <c r="F57" s="372" t="s">
+      <c r="F57" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="372">
+      <c r="G57" s="332">
         <v>1039</v>
       </c>
-      <c r="H57" s="372">
+      <c r="H57" s="332">
         <v>21413</v>
       </c>
-      <c r="I57" s="373">
+      <c r="I57" s="333">
         <v>22452</v>
       </c>
-      <c r="J57" s="374">
+      <c r="J57" s="334">
         <v>4.6276500979868164E-2</v>
       </c>
-      <c r="K57" s="375">
+      <c r="K57" s="335">
         <v>0.1135608394155046</v>
       </c>
-      <c r="L57" s="372">
+      <c r="L57" s="332">
         <v>11618</v>
       </c>
-      <c r="M57" s="372">
+      <c r="M57" s="332">
         <v>186091</v>
       </c>
-      <c r="N57" s="376">
+      <c r="N57" s="336">
         <v>8.9430194525735932E-2</v>
       </c>
-      <c r="O57" s="376">
+      <c r="O57" s="336">
         <v>0.11506735951765534</v>
       </c>
-      <c r="P57" s="376">
+      <c r="P57" s="336">
         <v>0.25205932029474537</v>
       </c>
-      <c r="Q57" s="376">
+      <c r="Q57" s="336">
         <v>20.609239653512994</v>
       </c>
-      <c r="R57" s="381">
+      <c r="R57" s="341">
         <v>6.4620863821474479E-3</v>
       </c>
-      <c r="S57" s="381">
+      <c r="S57" s="341">
         <v>2.3085329990475939E-2</v>
       </c>
     </row>
@@ -35269,38 +37454,38 @@
       </c>
     </row>
     <row r="62" spans="2:19" ht="15">
-      <c r="B62" s="385" t="s">
+      <c r="B62" s="345" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="372"/>
-      <c r="D62" s="372" t="s">
+      <c r="C62" s="332"/>
+      <c r="D62" s="332" t="s">
         <v>538</v>
       </c>
-      <c r="E62" s="372">
+      <c r="E62" s="332">
         <v>90001</v>
       </c>
-      <c r="F62" s="377" t="s">
+      <c r="F62" s="337" t="s">
         <v>82</v>
       </c>
-      <c r="G62" s="377">
+      <c r="G62" s="337">
         <v>383</v>
       </c>
-      <c r="H62" s="377">
+      <c r="H62" s="337">
         <v>9560</v>
       </c>
-      <c r="I62" s="378">
+      <c r="I62" s="338">
         <v>9943</v>
       </c>
-      <c r="J62" s="379">
+      <c r="J62" s="339">
         <v>3.8519561500553155E-2</v>
       </c>
-      <c r="K62" s="380">
+      <c r="K62" s="340">
         <v>5.0291084371475246E-2</v>
       </c>
-      <c r="L62" s="377">
+      <c r="L62" s="337">
         <v>11618</v>
       </c>
-      <c r="M62" s="377">
+      <c r="M62" s="337">
         <v>186091</v>
       </c>
       <c r="N62" s="269">
@@ -35315,10 +37500,10 @@
       <c r="Q62" s="269">
         <v>24.960835509138381</v>
       </c>
-      <c r="R62" s="382">
+      <c r="R62" s="342">
         <v>8.1656927046885631E-3</v>
       </c>
-      <c r="S62" s="382">
+      <c r="S62" s="342">
         <v>2.3085329990475939E-2</v>
       </c>
     </row>
@@ -35896,7 +38081,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36405,8 +38590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -36725,8 +38910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37226,23 +39411,23 @@
       <c r="D21" s="237">
         <v>17</v>
       </c>
-      <c r="E21" s="227">
+      <c r="E21" s="237">
         <v>15</v>
       </c>
-      <c r="F21" s="227">
+      <c r="F21" s="237">
         <v>14</v>
       </c>
-      <c r="G21" s="227">
+      <c r="G21" s="237">
         <v>13</v>
       </c>
-      <c r="H21" s="227"/>
-      <c r="I21" s="238"/>
+      <c r="H21" s="237"/>
+      <c r="I21" s="237"/>
       <c r="J21" s="227"/>
       <c r="K21" s="238"/>
-      <c r="L21" s="227">
+      <c r="L21" s="237">
         <v>14</v>
       </c>
-      <c r="M21" s="227">
+      <c r="M21" s="237">
         <v>17</v>
       </c>
     </row>
@@ -37253,23 +39438,23 @@
       <c r="D22" s="240">
         <v>29.8</v>
       </c>
-      <c r="E22" s="241">
+      <c r="E22" s="240">
         <v>29.9</v>
       </c>
-      <c r="F22" s="241">
+      <c r="F22" s="240">
         <v>29.9</v>
       </c>
-      <c r="G22" s="241">
+      <c r="G22" s="240">
         <v>29.7</v>
       </c>
-      <c r="H22" s="241"/>
-      <c r="I22" s="241"/>
+      <c r="H22" s="240"/>
+      <c r="I22" s="240"/>
       <c r="J22" s="241"/>
       <c r="K22" s="242"/>
-      <c r="L22" s="241">
+      <c r="L22" s="240">
         <v>29.7</v>
       </c>
-      <c r="M22" s="241">
+      <c r="M22" s="240">
         <v>29.8</v>
       </c>
     </row>
@@ -37280,23 +39465,23 @@
       <c r="D23" s="240">
         <v>70.3</v>
       </c>
-      <c r="E23" s="241">
+      <c r="E23" s="240">
         <v>70.5</v>
       </c>
-      <c r="F23" s="241">
+      <c r="F23" s="240">
         <v>70.5</v>
       </c>
-      <c r="G23" s="241">
+      <c r="G23" s="240">
         <v>70.5</v>
       </c>
-      <c r="H23" s="241"/>
-      <c r="I23" s="241"/>
+      <c r="H23" s="240"/>
+      <c r="I23" s="240"/>
       <c r="J23" s="241"/>
       <c r="K23" s="242"/>
-      <c r="L23" s="241">
+      <c r="L23" s="240">
         <v>0.29699999999999999</v>
       </c>
-      <c r="M23" s="241">
+      <c r="M23" s="240">
         <v>70.3</v>
       </c>
     </row>
@@ -37307,29 +39492,29 @@
       <c r="D24" s="240">
         <v>29.5</v>
       </c>
-      <c r="E24" s="241">
+      <c r="E24" s="240">
         <v>29.7</v>
       </c>
-      <c r="F24" s="241">
+      <c r="F24" s="240">
         <v>26.5</v>
       </c>
-      <c r="G24" s="241">
+      <c r="G24" s="240">
         <v>29.7</v>
       </c>
-      <c r="H24" s="241"/>
-      <c r="I24" s="241"/>
+      <c r="H24" s="240"/>
+      <c r="I24" s="240"/>
       <c r="J24" s="241"/>
       <c r="K24" s="242"/>
-      <c r="L24" s="241">
+      <c r="L24" s="240">
         <v>26.6</v>
       </c>
-      <c r="M24" s="241">
+      <c r="M24" s="240">
         <v>29.5</v>
       </c>
     </row>
     <row r="25" spans="3:13">
       <c r="G25" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="13.5">
@@ -37348,16 +39533,16 @@
       <c r="C28" s="271" t="s">
         <v>568</v>
       </c>
-      <c r="D28" s="263" t="s">
+      <c r="D28" s="408" t="s">
         <v>558</v>
       </c>
-      <c r="E28" s="263" t="s">
+      <c r="E28" s="408" t="s">
         <v>559</v>
       </c>
-      <c r="F28" s="263" t="s">
+      <c r="F28" s="408" t="s">
         <v>560</v>
       </c>
-      <c r="G28" s="263" t="s">
+      <c r="G28" s="409" t="s">
         <v>561</v>
       </c>
       <c r="H28" s="263" t="s">
@@ -37374,16 +39559,16 @@
       <c r="C29" s="272" t="s">
         <v>569</v>
       </c>
-      <c r="D29" s="264">
+      <c r="D29" s="248">
         <v>-2.7586864623446292</v>
       </c>
-      <c r="E29" s="264">
+      <c r="E29" s="248">
         <v>1.05317323781831E-2</v>
       </c>
-      <c r="F29" s="264">
+      <c r="F29" s="248">
         <v>-261.94042568527061</v>
       </c>
-      <c r="G29" s="264">
+      <c r="G29" s="410">
         <v>68612.786608180773</v>
       </c>
       <c r="H29" s="264">
@@ -37400,16 +39585,16 @@
       <c r="C30" s="272" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="264">
+      <c r="D30" s="248">
         <v>-0.83719334659565647</v>
       </c>
-      <c r="E30" s="264">
+      <c r="E30" s="248">
         <v>1.578038180390311E-2</v>
       </c>
-      <c r="F30" s="264">
+      <c r="F30" s="248">
         <v>-53.052794095804799</v>
       </c>
-      <c r="G30" s="264">
+      <c r="G30" s="410">
         <v>2814.5989613718612</v>
       </c>
       <c r="H30" s="264">
@@ -37426,16 +39611,16 @@
       <c r="C31" s="272" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="264">
+      <c r="D31" s="248">
         <v>-0.37461287368050961</v>
       </c>
-      <c r="E31" s="264">
+      <c r="E31" s="248">
         <v>3.6075760047052777E-2</v>
       </c>
-      <c r="F31" s="264">
+      <c r="F31" s="248">
         <v>-10.38406046586158</v>
       </c>
-      <c r="G31" s="264">
+      <c r="G31" s="410">
         <v>107.8287117586695</v>
       </c>
       <c r="H31" s="264">
@@ -37452,16 +39637,16 @@
       <c r="C32" s="272" t="s">
         <v>256</v>
       </c>
-      <c r="D32" s="264">
+      <c r="D32" s="248">
         <v>-0.2252906718624747</v>
       </c>
-      <c r="E32" s="264">
+      <c r="E32" s="248">
         <v>4.7371278486324747E-2</v>
       </c>
-      <c r="F32" s="264">
+      <c r="F32" s="248">
         <v>-4.7558495160208114</v>
       </c>
-      <c r="G32" s="264">
+      <c r="G32" s="410">
         <v>22.618104619035389</v>
       </c>
       <c r="H32" s="264">
@@ -37478,16 +39663,16 @@
       <c r="C33" s="272" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="264">
+      <c r="D33" s="248">
         <v>-0.16117174047268271</v>
       </c>
-      <c r="E33" s="264">
+      <c r="E33" s="248">
         <v>5.68512530284963E-2</v>
       </c>
-      <c r="F33" s="264">
+      <c r="F33" s="248">
         <v>-2.8349725271999979</v>
       </c>
-      <c r="G33" s="264">
+      <c r="G33" s="410">
         <v>8.0370692299787461</v>
       </c>
       <c r="H33" s="264">
@@ -37504,16 +39689,16 @@
       <c r="C34" s="272" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="264">
+      <c r="D34" s="248">
         <v>-0.34260039958078881</v>
       </c>
-      <c r="E34" s="264">
+      <c r="E34" s="248">
         <v>4.3622690580398707E-2</v>
       </c>
-      <c r="F34" s="264">
+      <c r="F34" s="248">
         <v>-7.8537200484999854</v>
       </c>
-      <c r="G34" s="264">
+      <c r="G34" s="410">
         <v>61.680918600210603</v>
       </c>
       <c r="H34" s="264">
@@ -37530,16 +39715,16 @@
       <c r="C35" s="272" t="s">
         <v>445</v>
       </c>
-      <c r="D35" s="264">
+      <c r="D35" s="248">
         <v>-0.2811359248333356</v>
       </c>
-      <c r="E35" s="264">
+      <c r="E35" s="248">
         <v>5.172537447217853E-2</v>
       </c>
-      <c r="F35" s="264">
+      <c r="F35" s="248">
         <v>-5.4351646112209373</v>
       </c>
-      <c r="G35" s="264">
+      <c r="G35" s="410">
         <v>29.541014351068441</v>
       </c>
       <c r="H35" s="264">
@@ -37556,16 +39741,16 @@
       <c r="C36" s="272" t="s">
         <v>455</v>
       </c>
-      <c r="D36" s="264">
+      <c r="D36" s="248">
         <v>-0.32951139171955363</v>
       </c>
-      <c r="E36" s="264">
+      <c r="E36" s="248">
         <v>4.7333988066689613E-2</v>
       </c>
-      <c r="F36" s="264">
+      <c r="F36" s="248">
         <v>-6.9614119827659513</v>
       </c>
-      <c r="G36" s="264">
+      <c r="G36" s="410">
         <v>48.461256793797382</v>
       </c>
       <c r="H36" s="264">
@@ -37582,16 +39767,16 @@
       <c r="C37" s="272" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="264">
+      <c r="D37" s="248">
         <v>-0.12909140311668851</v>
       </c>
-      <c r="E37" s="264">
+      <c r="E37" s="248">
         <v>6.4785704922660045E-2</v>
       </c>
-      <c r="F37" s="264">
+      <c r="F37" s="248">
         <v>-1.9925908542755739</v>
       </c>
-      <c r="G37" s="264">
+      <c r="G37" s="410">
         <v>3.9704183125426629</v>
       </c>
       <c r="H37" s="264">
@@ -37608,16 +39793,16 @@
       <c r="C38" s="272" t="s">
         <v>457</v>
       </c>
-      <c r="D38" s="264">
+      <c r="D38" s="248">
         <v>-0.15867943933405729</v>
       </c>
-      <c r="E38" s="264">
+      <c r="E38" s="248">
         <v>6.2779043052583902E-2</v>
       </c>
-      <c r="F38" s="264">
+      <c r="F38" s="248">
         <v>-2.527586143693636</v>
       </c>
-      <c r="G38" s="264">
+      <c r="G38" s="410">
         <v>6.3886917137920634</v>
       </c>
       <c r="H38" s="264">
@@ -37634,16 +39819,16 @@
       <c r="C39" s="272" t="s">
         <v>262</v>
       </c>
-      <c r="D39" s="264">
+      <c r="D39" s="248">
         <v>-0.25840483421359839</v>
       </c>
-      <c r="E39" s="264">
+      <c r="E39" s="248">
         <v>6.0896149272089889E-2</v>
       </c>
-      <c r="F39" s="264">
+      <c r="F39" s="248">
         <v>-4.2433690356843519</v>
       </c>
-      <c r="G39" s="264">
+      <c r="G39" s="410">
         <v>18.006180773004751</v>
       </c>
       <c r="H39" s="264">
@@ -37660,16 +39845,16 @@
       <c r="C40" s="272" t="s">
         <v>462</v>
       </c>
-      <c r="D40" s="264">
+      <c r="D40" s="248">
         <v>-0.1936725875062873</v>
       </c>
-      <c r="E40" s="264">
+      <c r="E40" s="248">
         <v>6.0767102127797672E-2</v>
       </c>
-      <c r="F40" s="264">
+      <c r="F40" s="248">
         <v>-3.1871289023949121</v>
       </c>
-      <c r="G40" s="264">
+      <c r="G40" s="410">
         <v>10.157790640480989</v>
       </c>
       <c r="H40" s="264">
@@ -37686,16 +39871,16 @@
       <c r="C41" s="272" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="264">
+      <c r="D41" s="248">
         <v>-0.43265342461873502</v>
       </c>
-      <c r="E41" s="264">
+      <c r="E41" s="248">
         <v>6.633159918173008E-2</v>
       </c>
-      <c r="F41" s="264">
+      <c r="F41" s="248">
         <v>-6.5225839563039214</v>
       </c>
-      <c r="G41" s="264">
+      <c r="G41" s="410">
         <v>42.544101467033308</v>
       </c>
       <c r="H41" s="264">
@@ -37712,16 +39897,16 @@
       <c r="C42" s="273" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="264">
+      <c r="D42" s="248">
         <v>-0.45119139074743819</v>
       </c>
-      <c r="E42" s="264">
+      <c r="E42" s="248">
         <v>7.0782164018485638E-2</v>
       </c>
-      <c r="F42" s="264">
+      <c r="F42" s="248">
         <v>-6.3743655905971446</v>
       </c>
-      <c r="G42" s="264">
+      <c r="G42" s="410">
         <v>40.632536682588878</v>
       </c>
       <c r="H42" s="264">
@@ -37747,7 +39932,7 @@
       <c r="F43" s="269">
         <v>-3.5295312205378488</v>
       </c>
-      <c r="G43" s="269">
+      <c r="G43" s="411">
         <v>12.4575906367514</v>
       </c>
       <c r="H43" s="269">
@@ -37785,19 +39970,19 @@
     <row r="47" spans="1:10">
       <c r="A47" s="59"/>
       <c r="B47" s="276"/>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="412" t="s">
         <v>568</v>
       </c>
-      <c r="D47" s="263" t="s">
+      <c r="D47" s="408" t="s">
         <v>558</v>
       </c>
-      <c r="E47" s="263" t="s">
+      <c r="E47" s="408" t="s">
         <v>559</v>
       </c>
-      <c r="F47" s="263" t="s">
+      <c r="F47" s="408" t="s">
         <v>560</v>
       </c>
-      <c r="G47" s="263" t="s">
+      <c r="G47" s="409" t="s">
         <v>561</v>
       </c>
       <c r="H47" s="263" t="s">
@@ -37813,19 +39998,19 @@
     <row r="48" spans="1:10">
       <c r="A48" s="59"/>
       <c r="B48" s="276"/>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="273" t="s">
         <v>569</v>
       </c>
-      <c r="D48" s="264">
+      <c r="D48" s="248">
         <v>-2.7596259523939302</v>
       </c>
-      <c r="E48" s="264">
+      <c r="E48" s="248">
         <v>1.064101017919513E-2</v>
       </c>
-      <c r="F48" s="264">
+      <c r="F48" s="248">
         <v>-259.33871934352982</v>
       </c>
-      <c r="G48" s="264">
+      <c r="G48" s="410">
         <v>67256.571350742102</v>
       </c>
       <c r="H48" s="264">
@@ -37841,19 +40026,19 @@
     <row r="49" spans="1:10">
       <c r="A49" s="59"/>
       <c r="B49" s="276"/>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="273" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="264">
+      <c r="D49" s="248">
         <v>-0.83697234169742118</v>
       </c>
-      <c r="E49" s="264">
+      <c r="E49" s="248">
         <v>1.581531984329973E-2</v>
       </c>
-      <c r="F49" s="264">
+      <c r="F49" s="248">
         <v>-52.921619669425183</v>
       </c>
-      <c r="G49" s="264">
+      <c r="G49" s="410">
         <v>2800.6978284352899</v>
       </c>
       <c r="H49" s="264">
@@ -37869,19 +40054,19 @@
     <row r="50" spans="1:10">
       <c r="A50" s="59"/>
       <c r="B50" s="276"/>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="273" t="s">
         <v>256</v>
       </c>
-      <c r="D50" s="264">
+      <c r="D50" s="248">
         <v>-0.241366289897883</v>
       </c>
-      <c r="E50" s="264">
+      <c r="E50" s="248">
         <v>4.8629095046226582E-2</v>
       </c>
-      <c r="F50" s="264">
+      <c r="F50" s="248">
         <v>-4.963413151497913</v>
       </c>
-      <c r="G50" s="264">
+      <c r="G50" s="410">
         <v>24.635470112462439</v>
       </c>
       <c r="H50" s="264">
@@ -37897,19 +40082,19 @@
     <row r="51" spans="1:10">
       <c r="A51" s="59"/>
       <c r="B51" s="276"/>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="273" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="264">
+      <c r="D51" s="248">
         <v>-0.37618425427713492</v>
       </c>
-      <c r="E51" s="264">
+      <c r="E51" s="248">
         <v>3.6090697572852909E-2</v>
       </c>
-      <c r="F51" s="264">
+      <c r="F51" s="248">
         <v>-10.4233023902563</v>
       </c>
-      <c r="G51" s="264">
+      <c r="G51" s="410">
         <v>108.6452327187227</v>
       </c>
       <c r="H51" s="264">
@@ -37925,19 +40110,19 @@
     <row r="52" spans="1:10">
       <c r="A52" s="59"/>
       <c r="B52" s="276"/>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="273" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="264">
+      <c r="D52" s="248">
         <v>-0.43476640832342872</v>
       </c>
-      <c r="E52" s="264">
+      <c r="E52" s="248">
         <v>7.594709586697225E-2</v>
       </c>
-      <c r="F52" s="264">
+      <c r="F52" s="248">
         <v>-5.7245955669583308</v>
       </c>
-      <c r="G52" s="264">
+      <c r="G52" s="410">
         <v>32.770994405238973</v>
       </c>
       <c r="H52" s="264">
@@ -37953,19 +40138,19 @@
     <row r="53" spans="1:10">
       <c r="A53" s="59"/>
       <c r="B53" s="276"/>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="273" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="264">
+      <c r="D53" s="248">
         <v>-0.33804697227301839</v>
       </c>
-      <c r="E53" s="264">
+      <c r="E53" s="248">
         <v>4.3728923453552532E-2</v>
       </c>
-      <c r="F53" s="264">
+      <c r="F53" s="248">
         <v>-7.7305121090410811</v>
       </c>
-      <c r="G53" s="264">
+      <c r="G53" s="410">
         <v>59.760817468030787</v>
       </c>
       <c r="H53" s="264">
@@ -37981,19 +40166,19 @@
     <row r="54" spans="1:10">
       <c r="A54" s="59"/>
       <c r="B54" s="276"/>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="273" t="s">
         <v>445</v>
       </c>
-      <c r="D54" s="264">
+      <c r="D54" s="248">
         <v>-0.3423640877447825</v>
       </c>
-      <c r="E54" s="264">
+      <c r="E54" s="248">
         <v>7.057184919053533E-2</v>
       </c>
-      <c r="F54" s="264">
+      <c r="F54" s="248">
         <v>-4.851284069664116</v>
       </c>
-      <c r="G54" s="264">
+      <c r="G54" s="410">
         <v>23.534957124576831</v>
       </c>
       <c r="H54" s="264">
@@ -38009,19 +40194,19 @@
     <row r="55" spans="1:10">
       <c r="A55" s="59"/>
       <c r="B55" s="276"/>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="273" t="s">
         <v>455</v>
       </c>
-      <c r="D55" s="264">
+      <c r="D55" s="248">
         <v>-0.33506349815415731</v>
       </c>
-      <c r="E55" s="264">
+      <c r="E55" s="248">
         <v>4.7474783196821052E-2</v>
       </c>
-      <c r="F55" s="264">
+      <c r="F55" s="248">
         <v>-7.0577151825012114</v>
       </c>
-      <c r="G55" s="264">
+      <c r="G55" s="410">
         <v>49.811343597308102</v>
       </c>
       <c r="H55" s="264">
@@ -38037,19 +40222,19 @@
     <row r="56" spans="1:10">
       <c r="A56" s="59"/>
       <c r="B56" s="276"/>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="264">
+      <c r="D56" s="248">
         <v>-0.4204333405606045</v>
       </c>
-      <c r="E56" s="264">
+      <c r="E56" s="248">
         <v>6.9600562538718699E-2</v>
       </c>
-      <c r="F56" s="264">
+      <c r="F56" s="248">
         <v>-6.040660092750227</v>
       </c>
-      <c r="G56" s="264">
+      <c r="G56" s="410">
         <v>36.489574356145177</v>
       </c>
       <c r="H56" s="264">
@@ -38065,19 +40250,19 @@
     <row r="57" spans="1:10">
       <c r="A57" s="59"/>
       <c r="B57" s="276"/>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="273" t="s">
         <v>462</v>
       </c>
-      <c r="D57" s="264">
+      <c r="D57" s="248">
         <v>-0.19973204742966491</v>
       </c>
-      <c r="E57" s="264">
+      <c r="E57" s="248">
         <v>6.0841942874771758E-2</v>
       </c>
-      <c r="F57" s="264">
+      <c r="F57" s="248">
         <v>-3.2828019289384689</v>
       </c>
-      <c r="G57" s="264">
+      <c r="G57" s="410">
         <v>10.776788504642131</v>
       </c>
       <c r="H57" s="264">
@@ -38093,19 +40278,19 @@
     <row r="58" spans="1:10">
       <c r="A58" s="59"/>
       <c r="B58" s="276"/>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="273" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="264">
+      <c r="D58" s="248">
         <v>-0.27113107039446088</v>
       </c>
-      <c r="E58" s="264">
+      <c r="E58" s="248">
         <v>7.8514102406755021E-2</v>
       </c>
-      <c r="F58" s="264">
+      <c r="F58" s="248">
         <v>-3.4532786096161749</v>
       </c>
-      <c r="G58" s="264">
+      <c r="G58" s="410">
         <v>11.92513315563262</v>
       </c>
       <c r="H58" s="264">
@@ -38121,19 +40306,19 @@
     <row r="59" spans="1:10">
       <c r="A59" s="59"/>
       <c r="B59" s="276"/>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="D59" s="264">
+      <c r="D59" s="248">
         <v>-0.2052903759030042</v>
       </c>
-      <c r="E59" s="264">
+      <c r="E59" s="248">
         <v>7.9478955604088061E-2</v>
       </c>
-      <c r="F59" s="264">
+      <c r="F59" s="248">
         <v>-2.5829526110738801</v>
       </c>
-      <c r="G59" s="264">
+      <c r="G59" s="410">
         <v>6.6716441910533728</v>
       </c>
       <c r="H59" s="264">
@@ -38149,19 +40334,19 @@
     <row r="60" spans="1:10">
       <c r="A60" s="59"/>
       <c r="B60" s="276"/>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="273" t="s">
         <v>457</v>
       </c>
-      <c r="D60" s="264">
+      <c r="D60" s="248">
         <v>-0.1690210307156523</v>
       </c>
-      <c r="E60" s="264">
+      <c r="E60" s="248">
         <v>6.3251574891633314E-2</v>
       </c>
-      <c r="F60" s="264">
+      <c r="F60" s="248">
         <v>-2.672202723888379</v>
       </c>
-      <c r="G60" s="264">
+      <c r="G60" s="410">
         <v>7.1406673975564718</v>
       </c>
       <c r="H60" s="264">
@@ -38177,19 +40362,19 @@
     <row r="61" spans="1:10">
       <c r="A61" s="59"/>
       <c r="B61" s="276"/>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="273" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="264">
+      <c r="D61" s="248">
         <v>-0.17051480709597999</v>
       </c>
-      <c r="E61" s="264">
+      <c r="E61" s="248">
         <v>5.7279806706690972E-2</v>
       </c>
-      <c r="F61" s="264">
+      <c r="F61" s="248">
         <v>-2.9768746945869462</v>
       </c>
-      <c r="G61" s="264">
+      <c r="G61" s="410">
         <v>8.8617829472721219</v>
       </c>
       <c r="H61" s="264">
@@ -38205,7 +40390,7 @@
     <row r="62" spans="1:10">
       <c r="A62" s="59"/>
       <c r="B62" s="276"/>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="273" t="s">
         <v>172</v>
       </c>
       <c r="D62" s="278">
@@ -38217,7 +40402,7 @@
       <c r="F62" s="278">
         <v>-2.104636492861709</v>
       </c>
-      <c r="G62" s="278">
+      <c r="G62" s="413">
         <v>4.4294947670852363</v>
       </c>
       <c r="H62" s="278">
@@ -38233,19 +40418,19 @@
     <row r="63" spans="1:10">
       <c r="A63" s="59"/>
       <c r="B63" s="276"/>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="273" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="264">
+      <c r="D63" s="248">
         <v>0.1219138693180819</v>
       </c>
-      <c r="E63" s="264">
+      <c r="E63" s="248">
         <v>7.1009527034318856E-2</v>
       </c>
-      <c r="F63" s="264">
+      <c r="F63" s="248">
         <v>1.716866375678872</v>
       </c>
-      <c r="G63" s="264">
+      <c r="G63" s="410">
         <v>2.947630151936707</v>
       </c>
       <c r="H63" s="264">
@@ -38261,19 +40446,19 @@
     <row r="64" spans="1:10">
       <c r="A64" s="59"/>
       <c r="B64" s="276"/>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="273" t="s">
         <v>263</v>
       </c>
-      <c r="D64" s="264">
+      <c r="D64" s="248">
         <v>-5.8065316145102297E-2</v>
       </c>
-      <c r="E64" s="264">
+      <c r="E64" s="248">
         <v>7.3795377888610403E-2</v>
       </c>
-      <c r="F64" s="264">
+      <c r="F64" s="248">
         <v>-0.78684218180640431</v>
       </c>
-      <c r="G64" s="264">
+      <c r="G64" s="410">
         <v>0.6191206190698626</v>
       </c>
       <c r="H64" s="264">
@@ -38289,7 +40474,7 @@
     <row r="65" spans="1:10">
       <c r="A65" s="59"/>
       <c r="B65" s="276"/>
-      <c r="C65" s="265" t="s">
+      <c r="C65" s="274" t="s">
         <v>465</v>
       </c>
       <c r="D65" s="269">
@@ -38301,7 +40486,7 @@
       <c r="F65" s="269">
         <v>-0.60135001042141067</v>
       </c>
-      <c r="G65" s="269">
+      <c r="G65" s="411">
         <v>0.36162183503383072</v>
       </c>
       <c r="H65" s="269">
